--- a/Analysis_and_Visualization/data/data.xlsx
+++ b/Analysis_and_Visualization/data/data.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\research\2026-SLR-regression-testing-optimization\Analysis_and_Visualization\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337747BE-BFDC-4399-8BA5-66793206CD6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7345AA4-5788-4944-989D-FB8E23EB7D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{FF880EED-EA60-9E49-B15D-179496B980D1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="2" activeTab="4" xr2:uid="{FF880EED-EA60-9E49-B15D-179496B980D1}"/>
   </bookViews>
   <sheets>
     <sheet name="data_extraction" sheetId="2" r:id="rId1"/>
     <sheet name="RQ1_trends_by_category_per_year" sheetId="3" r:id="rId2"/>
     <sheet name="RQ1_replicability_per_year" sheetId="5" r:id="rId3"/>
-    <sheet name="taxonomy_vs_algorithm" sheetId="4" r:id="rId4"/>
-    <sheet name="raw_data" sheetId="1" r:id="rId5"/>
+    <sheet name="p_taxonomy_vs_algorithm" sheetId="4" r:id="rId4"/>
+    <sheet name="s_taxonomy_vs_algorithm" sheetId="6" r:id="rId5"/>
+    <sheet name="raw_data" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4002" uniqueCount="1414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4013" uniqueCount="1414">
   <si>
     <t>ID</t>
   </si>
@@ -4767,7 +4768,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -4865,18 +4866,16 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4886,33 +4885,7 @@
   </cellStyles>
   <dxfs count="37">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -5020,7 +4993,33 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -19497,44 +19496,44 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{42833F7F-E080-43F8-9768-AA4301CF37FA}" name="Table1" displayName="Table1" ref="A1:AI126" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{42833F7F-E080-43F8-9768-AA4301CF37FA}" name="Table1" displayName="Table1" ref="A1:AI126" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
   <autoFilter ref="A1:AI126" xr:uid="{42833F7F-E080-43F8-9768-AA4301CF37FA}"/>
   <tableColumns count="35">
-    <tableColumn id="1" xr3:uid="{0511F5BB-9FB7-44C8-88A3-0DA623CD7DED}" name="ID" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{9E7FB8B8-6F5B-45BC-9D86-32B198E67426}" name="EntryType" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{11F1A5F6-2977-4660-A0D2-4C4F1C591B11}" name="Author" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{83EB34C3-F472-4F86-8ECF-CAB83624F6D2}" name="Booktitle" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{C8411DB0-4A3E-4576-AF63-686F2479D886}" name="Title" dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{D147F293-A927-43C5-BFD6-39CAD1569926}" name="Year" dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{FC01DC74-D5B5-491C-89F8-A7BE771188D0}" name="Volume" dataDxfId="30"/>
-    <tableColumn id="8" xr3:uid="{0F266105-64F8-4048-8B44-6B90F9A6CF44}" name="Number" dataDxfId="29"/>
-    <tableColumn id="9" xr3:uid="{3A013CB2-7B0D-4453-A5BF-AF11AE683207}" name="Pages" dataDxfId="28"/>
-    <tableColumn id="10" xr3:uid="{2899C684-FACE-4032-920C-BDC043ABAD3E}" name="Abstract" dataDxfId="27"/>
-    <tableColumn id="11" xr3:uid="{2AFE4A46-0F7C-4C6C-AFA1-477F2676685A}" name="Keywords" dataDxfId="26"/>
-    <tableColumn id="12" xr3:uid="{B8DA6A48-1771-4793-AF06-9059CEC55381}" name="Doi" dataDxfId="25"/>
-    <tableColumn id="13" xr3:uid="{18FD4BBC-20B6-41FB-B446-5B075A9133D2}" name="Issn" dataDxfId="24"/>
-    <tableColumn id="14" xr3:uid="{A9377158-CC7F-452C-A545-89F408D2B048}" name="Month" dataDxfId="23"/>
-    <tableColumn id="15" xr3:uid="{5A9BF441-C7A8-4AD0-B386-D86B0CFFDA5B}" name="Journal" dataDxfId="22"/>
-    <tableColumn id="16" xr3:uid="{802764F0-6E9D-4F9F-B676-F848093F483E}" name="Isbn" dataDxfId="21"/>
-    <tableColumn id="17" xr3:uid="{BB386162-09A3-441C-92DA-DD88A65A152F}" name="Publisher" dataDxfId="20"/>
-    <tableColumn id="18" xr3:uid="{C447F28F-63CE-484C-88BE-2535B6179309}" name="Address" dataDxfId="19"/>
-    <tableColumn id="19" xr3:uid="{333D6BA8-71A5-41A8-99CD-23DC3D9A25E6}" name="Url" dataDxfId="18"/>
-    <tableColumn id="20" xr3:uid="{C267E55F-92D9-479D-BC80-B60EF79CBAFA}" name="Numpages" dataDxfId="17"/>
-    <tableColumn id="21" xr3:uid="{01B43FB3-6BA9-4997-9C9A-8F22292A2010}" name="Location" dataDxfId="16"/>
-    <tableColumn id="22" xr3:uid="{1944E784-4AEA-426E-A6B6-5514710E3148}" name="Series" dataDxfId="15"/>
-    <tableColumn id="23" xr3:uid="{0B0D97D6-121D-4044-9B78-29DD000CD814}" name="Articleno" dataDxfId="14"/>
-    <tableColumn id="24" xr3:uid="{F3A597D8-D638-4541-BC78-8848E5E093DE}" name="text" dataDxfId="13"/>
-    <tableColumn id="25" xr3:uid="{3D3D94E9-8A39-40BB-A7B6-FEE6B4B2FE88}" name="Type" dataDxfId="12"/>
-    <tableColumn id="26" xr3:uid="{F20812F9-5D02-48FC-9FBD-63E9DE0A16E3}" name="RQ1.1" dataDxfId="11"/>
-    <tableColumn id="27" xr3:uid="{CC16A2CC-91C7-49E5-B0EE-39EE764FAF7B}" name="RQ1.2" dataDxfId="10"/>
-    <tableColumn id="28" xr3:uid="{46F11C4D-5F1B-4C2E-9B7B-8937EE826B43}" name="RQ1.3" dataDxfId="9"/>
-    <tableColumn id="29" xr3:uid="{42E28D44-7C37-4D52-BB92-9821A121D52C}" name="RQ1.3a" dataDxfId="8"/>
-    <tableColumn id="30" xr3:uid="{838D8DA3-781A-4917-8143-E109FEA0FD46}" name="RQ2.1" dataDxfId="7"/>
-    <tableColumn id="31" xr3:uid="{F333E07E-2DEC-4962-8032-893C30E8855F}" name="RQ2.2" dataDxfId="6"/>
-    <tableColumn id="32" xr3:uid="{855DA278-B2AB-453E-A7C4-9F509D24595E}" name="RQ2.3" dataDxfId="5"/>
-    <tableColumn id="33" xr3:uid="{F308355C-CF18-4470-9828-BB0328BCAF76}" name="RQ3.1" dataDxfId="4"/>
-    <tableColumn id="34" xr3:uid="{55AFBED2-0171-4EBA-9713-3713AB2FB7E0}" name="RQ3.2" dataDxfId="3"/>
-    <tableColumn id="35" xr3:uid="{FEA3D040-110F-48AD-B265-1CC72F3E0BD1}" name="Other" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{0511F5BB-9FB7-44C8-88A3-0DA623CD7DED}" name="ID" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{9E7FB8B8-6F5B-45BC-9D86-32B198E67426}" name="EntryType" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{11F1A5F6-2977-4660-A0D2-4C4F1C591B11}" name="Author" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{83EB34C3-F472-4F86-8ECF-CAB83624F6D2}" name="Booktitle" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{C8411DB0-4A3E-4576-AF63-686F2479D886}" name="Title" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{D147F293-A927-43C5-BFD6-39CAD1569926}" name="Year" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{FC01DC74-D5B5-491C-89F8-A7BE771188D0}" name="Volume" dataDxfId="28"/>
+    <tableColumn id="8" xr3:uid="{0F266105-64F8-4048-8B44-6B90F9A6CF44}" name="Number" dataDxfId="27"/>
+    <tableColumn id="9" xr3:uid="{3A013CB2-7B0D-4453-A5BF-AF11AE683207}" name="Pages" dataDxfId="26"/>
+    <tableColumn id="10" xr3:uid="{2899C684-FACE-4032-920C-BDC043ABAD3E}" name="Abstract" dataDxfId="25"/>
+    <tableColumn id="11" xr3:uid="{2AFE4A46-0F7C-4C6C-AFA1-477F2676685A}" name="Keywords" dataDxfId="24"/>
+    <tableColumn id="12" xr3:uid="{B8DA6A48-1771-4793-AF06-9059CEC55381}" name="Doi" dataDxfId="23"/>
+    <tableColumn id="13" xr3:uid="{18FD4BBC-20B6-41FB-B446-5B075A9133D2}" name="Issn" dataDxfId="22"/>
+    <tableColumn id="14" xr3:uid="{A9377158-CC7F-452C-A545-89F408D2B048}" name="Month" dataDxfId="21"/>
+    <tableColumn id="15" xr3:uid="{5A9BF441-C7A8-4AD0-B386-D86B0CFFDA5B}" name="Journal" dataDxfId="20"/>
+    <tableColumn id="16" xr3:uid="{802764F0-6E9D-4F9F-B676-F848093F483E}" name="Isbn" dataDxfId="19"/>
+    <tableColumn id="17" xr3:uid="{BB386162-09A3-441C-92DA-DD88A65A152F}" name="Publisher" dataDxfId="18"/>
+    <tableColumn id="18" xr3:uid="{C447F28F-63CE-484C-88BE-2535B6179309}" name="Address" dataDxfId="17"/>
+    <tableColumn id="19" xr3:uid="{333D6BA8-71A5-41A8-99CD-23DC3D9A25E6}" name="Url" dataDxfId="16"/>
+    <tableColumn id="20" xr3:uid="{C267E55F-92D9-479D-BC80-B60EF79CBAFA}" name="Numpages" dataDxfId="15"/>
+    <tableColumn id="21" xr3:uid="{01B43FB3-6BA9-4997-9C9A-8F22292A2010}" name="Location" dataDxfId="14"/>
+    <tableColumn id="22" xr3:uid="{1944E784-4AEA-426E-A6B6-5514710E3148}" name="Series" dataDxfId="13"/>
+    <tableColumn id="23" xr3:uid="{0B0D97D6-121D-4044-9B78-29DD000CD814}" name="Articleno" dataDxfId="12"/>
+    <tableColumn id="24" xr3:uid="{F3A597D8-D638-4541-BC78-8848E5E093DE}" name="text" dataDxfId="11"/>
+    <tableColumn id="25" xr3:uid="{3D3D94E9-8A39-40BB-A7B6-FEE6B4B2FE88}" name="Type" dataDxfId="10"/>
+    <tableColumn id="26" xr3:uid="{F20812F9-5D02-48FC-9FBD-63E9DE0A16E3}" name="RQ1.1" dataDxfId="9"/>
+    <tableColumn id="27" xr3:uid="{CC16A2CC-91C7-49E5-B0EE-39EE764FAF7B}" name="RQ1.2" dataDxfId="8"/>
+    <tableColumn id="28" xr3:uid="{46F11C4D-5F1B-4C2E-9B7B-8937EE826B43}" name="RQ1.3" dataDxfId="7"/>
+    <tableColumn id="29" xr3:uid="{42E28D44-7C37-4D52-BB92-9821A121D52C}" name="RQ1.3a" dataDxfId="6"/>
+    <tableColumn id="30" xr3:uid="{838D8DA3-781A-4917-8143-E109FEA0FD46}" name="RQ2.1" dataDxfId="5"/>
+    <tableColumn id="31" xr3:uid="{F333E07E-2DEC-4962-8032-893C30E8855F}" name="RQ2.2" dataDxfId="4"/>
+    <tableColumn id="32" xr3:uid="{855DA278-B2AB-453E-A7C4-9F509D24595E}" name="RQ2.3" dataDxfId="3"/>
+    <tableColumn id="33" xr3:uid="{F308355C-CF18-4470-9828-BB0328BCAF76}" name="RQ3.1" dataDxfId="2"/>
+    <tableColumn id="34" xr3:uid="{55AFBED2-0171-4EBA-9713-3713AB2FB7E0}" name="RQ3.2" dataDxfId="1"/>
+    <tableColumn id="35" xr3:uid="{FEA3D040-110F-48AD-B265-1CC72F3E0BD1}" name="Other" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -19580,6 +19579,22 @@
     <tableColumn id="7" xr3:uid="{44CCDFB2-7822-4177-801C-C272A9FB758B}" name="Greedy"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7C9868C9-B826-4E6A-928E-C718CF0D61DD}" name="Table5" displayName="Table5" ref="A1:G5" totalsRowShown="0">
+  <autoFilter ref="A1:G5" xr:uid="{7C9868C9-B826-4E6A-928E-C718CF0D61DD}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{2CF23C56-CD16-43DE-8273-AE95BB3BD697}" name="Taxonomy"/>
+    <tableColumn id="2" xr3:uid="{119CCCD6-722F-46BF-83E9-A5F6E6D65D18}" name="Heuristic"/>
+    <tableColumn id="3" xr3:uid="{733BFA8C-6978-4BAE-B42B-AE344332EFB3}" name="meta-heuristic"/>
+    <tableColumn id="4" xr3:uid="{9FE9C7A1-43B8-4E36-9EA2-8F63E4AEDB92}" name="Graph-based"/>
+    <tableColumn id="5" xr3:uid="{6ABD4098-592E-4FE9-AE6E-07E26DBD421D}" name="Dynamic Programming"/>
+    <tableColumn id="6" xr3:uid="{927C42CC-4470-40CC-BDD0-165EAF1ADDB0}" name="ML-based"/>
+    <tableColumn id="7" xr3:uid="{448942D9-8F7B-4870-9610-48875DFCAC09}" name="Greedy"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -19912,2791 +19927,2328 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
-      <c r="A1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="40" t="s">
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="J1" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="L1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="40" t="s">
+      <c r="M1" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="40" t="s">
+      <c r="N1" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="40" t="s">
+      <c r="O1" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="40" t="s">
+      <c r="P1" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="40" t="s">
+      <c r="Q1" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="40" t="s">
+      <c r="R1" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="40" t="s">
+      <c r="S1" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="40" t="s">
+      <c r="T1" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="40" t="s">
+      <c r="U1" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="40" t="s">
+      <c r="V1" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="40" t="s">
+      <c r="W1" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="40" t="s">
+      <c r="X1" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="40" t="s">
+      <c r="Y1" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="40" t="s">
+      <c r="Z1" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="40" t="s">
+      <c r="AA1" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="40" t="s">
+      <c r="AB1" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="40" t="s">
+      <c r="AC1" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="40" t="s">
+      <c r="AD1" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="40" t="s">
+      <c r="AE1" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="40" t="s">
+      <c r="AF1" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="40" t="s">
+      <c r="AG1" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="40" t="s">
+      <c r="AH1" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="45" t="s">
+      <c r="AI1" s="42" t="s">
         <v>1398</v>
       </c>
     </row>
     <row r="2" spans="1:35">
-      <c r="A2" s="41">
+      <c r="A2">
         <v>10048797</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="41">
+      <c r="F2">
         <v>2023</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41" t="s">
+      <c r="I2" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="J2" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="K2" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="41" t="s">
+      <c r="L2" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41" t="s">
+      <c r="N2" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41" t="s">
+      <c r="X2" t="s">
         <v>43</v>
       </c>
-      <c r="Y2" s="41" t="s">
+      <c r="Y2" t="s">
         <v>44</v>
       </c>
-      <c r="Z2" s="41" t="s">
+      <c r="Z2" t="s">
         <v>45</v>
       </c>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41" t="s">
+      <c r="AB2" t="s">
         <v>1383</v>
       </c>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41" t="s">
+      <c r="AD2" t="s">
         <v>47</v>
       </c>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="41">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="41"/>
+      <c r="AH2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:35">
-      <c r="A3" s="41">
+      <c r="A3">
         <v>8377903</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="41">
+      <c r="F3">
         <v>2018</v>
       </c>
-      <c r="G3" s="41">
+      <c r="G3">
         <v>2</v>
       </c>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41" t="s">
+      <c r="I3" t="s">
         <v>51</v>
       </c>
-      <c r="J3" s="41" t="s">
+      <c r="J3" t="s">
         <v>52</v>
       </c>
-      <c r="K3" s="41" t="s">
+      <c r="K3" t="s">
         <v>53</v>
       </c>
-      <c r="L3" s="41" t="s">
+      <c r="L3" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="41" t="s">
+      <c r="M3" t="s">
         <v>55</v>
       </c>
-      <c r="N3" s="41" t="s">
+      <c r="N3" t="s">
         <v>56</v>
       </c>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41" t="s">
+      <c r="X3" t="s">
         <v>57</v>
       </c>
-      <c r="Y3" s="41" t="s">
+      <c r="Y3" t="s">
         <v>58</v>
       </c>
-      <c r="Z3" s="41" t="s">
+      <c r="Z3" t="s">
         <v>59</v>
       </c>
-      <c r="AA3" s="41" t="s">
+      <c r="AA3" t="s">
         <v>60</v>
       </c>
-      <c r="AB3" s="41" t="s">
+      <c r="AB3" t="s">
         <v>1371</v>
       </c>
-      <c r="AC3" s="41" t="s">
+      <c r="AC3" t="s">
         <v>62</v>
       </c>
-      <c r="AD3" s="41" t="s">
+      <c r="AD3" t="s">
         <v>63</v>
       </c>
-      <c r="AE3" s="41" t="s">
+      <c r="AE3" t="s">
         <v>64</v>
       </c>
-      <c r="AF3" s="41" t="s">
+      <c r="AF3" t="s">
         <v>65</v>
       </c>
-      <c r="AG3" s="41" t="s">
+      <c r="AG3" t="s">
         <v>66</v>
       </c>
-      <c r="AH3" s="41">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="41"/>
+      <c r="AH3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:35">
-      <c r="A4" s="41">
+      <c r="A4">
         <v>10197719</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="41">
+      <c r="F4">
         <v>2023</v>
       </c>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41" t="s">
+      <c r="I4" t="s">
         <v>70</v>
       </c>
-      <c r="J4" s="41" t="s">
+      <c r="J4" t="s">
         <v>71</v>
       </c>
-      <c r="K4" s="41" t="s">
+      <c r="K4" t="s">
         <v>72</v>
       </c>
-      <c r="L4" s="41" t="s">
+      <c r="L4" t="s">
         <v>73</v>
       </c>
-      <c r="M4" s="41" t="s">
+      <c r="M4" t="s">
         <v>74</v>
       </c>
-      <c r="N4" s="41" t="s">
+      <c r="N4" t="s">
         <v>75</v>
       </c>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41" t="s">
+      <c r="X4" t="s">
         <v>76</v>
       </c>
-      <c r="Y4" s="41" t="s">
+      <c r="Y4" t="s">
         <v>77</v>
       </c>
-      <c r="Z4" s="41" t="s">
+      <c r="Z4" t="s">
         <v>78</v>
       </c>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="41"/>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="41"/>
-      <c r="AF4" s="41" t="s">
+      <c r="AF4" t="s">
         <v>79</v>
       </c>
-      <c r="AG4" s="41" t="s">
+      <c r="AG4" t="s">
         <v>80</v>
       </c>
-      <c r="AH4" s="41">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="41"/>
+      <c r="AH4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:35">
-      <c r="A5" s="41">
+      <c r="A5">
         <v>7515934</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" t="s">
         <v>83</v>
       </c>
-      <c r="F5" s="41">
+      <c r="F5">
         <v>2016</v>
       </c>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41" t="s">
+      <c r="I5" t="s">
         <v>84</v>
       </c>
-      <c r="J5" s="41" t="s">
+      <c r="J5" t="s">
         <v>85</v>
       </c>
-      <c r="K5" s="41" t="s">
+      <c r="K5" t="s">
         <v>86</v>
       </c>
-      <c r="L5" s="41" t="s">
+      <c r="L5" t="s">
         <v>87</v>
       </c>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41" t="s">
+      <c r="N5" t="s">
         <v>75</v>
       </c>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="41"/>
-      <c r="U5" s="41"/>
-      <c r="V5" s="41"/>
-      <c r="W5" s="41"/>
-      <c r="X5" s="41" t="s">
+      <c r="X5" t="s">
         <v>88</v>
       </c>
-      <c r="Y5" s="41" t="s">
+      <c r="Y5" t="s">
         <v>58</v>
       </c>
-      <c r="Z5" s="41" t="s">
+      <c r="Z5" t="s">
         <v>89</v>
       </c>
-      <c r="AA5" s="41" t="s">
+      <c r="AA5" t="s">
         <v>90</v>
       </c>
-      <c r="AB5" s="41" t="s">
+      <c r="AB5" t="s">
         <v>91</v>
       </c>
-      <c r="AC5" s="41" t="s">
+      <c r="AC5" t="s">
         <v>62</v>
       </c>
-      <c r="AD5" s="41" t="s">
+      <c r="AD5" t="s">
         <v>92</v>
       </c>
-      <c r="AE5" s="41" t="s">
+      <c r="AE5" t="s">
         <v>93</v>
       </c>
-      <c r="AF5" s="41" t="s">
+      <c r="AF5" t="s">
         <v>65</v>
       </c>
-      <c r="AG5" s="41" t="s">
+      <c r="AG5" t="s">
         <v>94</v>
       </c>
-      <c r="AH5" s="41">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="41"/>
+      <c r="AH5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:35">
-      <c r="A6" s="41">
+      <c r="A6">
         <v>6888744</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" t="s">
         <v>97</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6">
         <v>2014</v>
       </c>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41" t="s">
+      <c r="I6" t="s">
         <v>98</v>
       </c>
-      <c r="J6" s="41" t="s">
+      <c r="J6" t="s">
         <v>99</v>
       </c>
-      <c r="K6" s="41" t="s">
+      <c r="K6" t="s">
         <v>100</v>
       </c>
-      <c r="L6" s="41" t="s">
+      <c r="L6" t="s">
         <v>101</v>
       </c>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41" t="s">
+      <c r="N6" t="s">
         <v>102</v>
       </c>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="41"/>
-      <c r="V6" s="41"/>
-      <c r="W6" s="41"/>
-      <c r="X6" s="41" t="s">
+      <c r="X6" t="s">
         <v>103</v>
       </c>
-      <c r="Y6" s="41" t="s">
+      <c r="Y6" t="s">
         <v>58</v>
       </c>
-      <c r="Z6" s="41" t="s">
+      <c r="Z6" t="s">
         <v>104</v>
       </c>
-      <c r="AA6" s="41" t="s">
+      <c r="AA6" t="s">
         <v>1263</v>
       </c>
-      <c r="AB6" s="41" t="s">
+      <c r="AB6" t="s">
         <v>91</v>
       </c>
-      <c r="AC6" s="41" t="s">
+      <c r="AC6" t="s">
         <v>105</v>
       </c>
-      <c r="AD6" s="41" t="s">
+      <c r="AD6" t="s">
         <v>92</v>
       </c>
-      <c r="AE6" s="41" t="s">
+      <c r="AE6" t="s">
         <v>92</v>
       </c>
-      <c r="AF6" s="41"/>
-      <c r="AG6" s="41" t="s">
+      <c r="AG6" t="s">
         <v>106</v>
       </c>
-      <c r="AH6" s="41">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="41"/>
+      <c r="AH6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:35">
-      <c r="A7" s="41">
+      <c r="A7">
         <v>7809434</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" t="s">
         <v>107</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="41">
+      <c r="F7">
         <v>2016</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41" t="s">
+      <c r="I7" t="s">
         <v>109</v>
       </c>
-      <c r="J7" s="41" t="s">
+      <c r="J7" t="s">
         <v>110</v>
       </c>
-      <c r="K7" s="41" t="s">
+      <c r="K7" t="s">
         <v>111</v>
       </c>
-      <c r="L7" s="41" t="s">
+      <c r="L7" t="s">
         <v>112</v>
       </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41" t="s">
+      <c r="N7" t="s">
         <v>75</v>
       </c>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41" t="s">
+      <c r="X7" t="s">
         <v>113</v>
       </c>
-      <c r="Y7" s="41" t="s">
+      <c r="Y7" t="s">
         <v>58</v>
       </c>
-      <c r="Z7" s="41" t="s">
+      <c r="Z7" t="s">
         <v>89</v>
       </c>
-      <c r="AA7" s="41" t="s">
+      <c r="AA7" t="s">
         <v>114</v>
       </c>
-      <c r="AB7" s="41" t="s">
+      <c r="AB7" t="s">
         <v>1372</v>
       </c>
-      <c r="AC7" s="41" t="s">
+      <c r="AC7" t="s">
         <v>115</v>
       </c>
-      <c r="AD7" s="41" t="s">
+      <c r="AD7" t="s">
         <v>116</v>
       </c>
-      <c r="AE7" s="41" t="s">
+      <c r="AE7" t="s">
         <v>117</v>
       </c>
-      <c r="AF7" s="41" t="s">
+      <c r="AF7" t="s">
         <v>65</v>
       </c>
-      <c r="AG7" s="41" t="s">
+      <c r="AG7" t="s">
         <v>118</v>
       </c>
-      <c r="AH7" s="41">
+      <c r="AH7">
         <v>0.5</v>
       </c>
-      <c r="AI7" s="41"/>
     </row>
     <row r="8" spans="1:35">
-      <c r="A8" s="41">
+      <c r="A8">
         <v>6571611</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" t="s">
         <v>119</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" t="s">
         <v>120</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E8" t="s">
         <v>121</v>
       </c>
-      <c r="F8" s="41">
+      <c r="F8">
         <v>2013</v>
       </c>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41" t="s">
+      <c r="I8" t="s">
         <v>122</v>
       </c>
-      <c r="J8" s="41" t="s">
+      <c r="J8" t="s">
         <v>123</v>
       </c>
-      <c r="K8" s="41" t="s">
+      <c r="K8" t="s">
         <v>124</v>
       </c>
-      <c r="L8" s="41" t="s">
+      <c r="L8" t="s">
         <v>125</v>
       </c>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41" t="s">
+      <c r="N8" t="s">
         <v>126</v>
       </c>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="41"/>
-      <c r="S8" s="41"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="41"/>
-      <c r="V8" s="41"/>
-      <c r="W8" s="41"/>
-      <c r="X8" s="41" t="s">
+      <c r="X8" t="s">
         <v>127</v>
       </c>
-      <c r="Y8" s="41" t="s">
+      <c r="Y8" t="s">
         <v>58</v>
       </c>
-      <c r="Z8" s="41" t="s">
+      <c r="Z8" t="s">
         <v>128</v>
       </c>
-      <c r="AA8" s="41" t="s">
+      <c r="AA8" t="s">
         <v>129</v>
       </c>
-      <c r="AB8" s="41" t="s">
+      <c r="AB8" t="s">
         <v>130</v>
       </c>
-      <c r="AC8" s="41" t="s">
+      <c r="AC8" t="s">
         <v>131</v>
       </c>
-      <c r="AD8" s="41"/>
-      <c r="AE8" s="41"/>
-      <c r="AF8" s="41"/>
-      <c r="AG8" s="41" t="s">
+      <c r="AG8" t="s">
         <v>1391</v>
       </c>
-      <c r="AH8" s="41"/>
-      <c r="AI8" s="41"/>
     </row>
     <row r="9" spans="1:35" ht="17.399999999999999">
-      <c r="A9" s="41">
+      <c r="A9">
         <v>9440156</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" t="s">
         <v>132</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" t="s">
         <v>133</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" t="s">
         <v>134</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9">
         <v>2021</v>
       </c>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41" t="s">
+      <c r="I9" t="s">
         <v>135</v>
       </c>
-      <c r="J9" s="41" t="s">
+      <c r="J9" t="s">
         <v>136</v>
       </c>
-      <c r="K9" s="41" t="s">
+      <c r="K9" t="s">
         <v>137</v>
       </c>
-      <c r="L9" s="41" t="s">
+      <c r="L9" t="s">
         <v>138</v>
       </c>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41" t="s">
+      <c r="N9" t="s">
         <v>139</v>
       </c>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="41"/>
-      <c r="V9" s="41"/>
-      <c r="W9" s="41"/>
-      <c r="X9" s="41" t="s">
+      <c r="X9" t="s">
         <v>140</v>
       </c>
-      <c r="Y9" s="41" t="s">
+      <c r="Y9" t="s">
         <v>58</v>
       </c>
-      <c r="Z9" s="41" t="s">
+      <c r="Z9" t="s">
         <v>141</v>
       </c>
-      <c r="AA9" s="41" t="s">
+      <c r="AA9" t="s">
         <v>142</v>
       </c>
-      <c r="AB9" s="41" t="s">
+      <c r="AB9" t="s">
         <v>207</v>
       </c>
-      <c r="AC9" s="41" t="s">
+      <c r="AC9" t="s">
         <v>143</v>
       </c>
-      <c r="AD9" s="41" t="s">
+      <c r="AD9" t="s">
         <v>144</v>
       </c>
-      <c r="AE9" s="41" t="s">
+      <c r="AE9" t="s">
         <v>145</v>
       </c>
-      <c r="AF9" s="41" t="s">
+      <c r="AF9" t="s">
         <v>65</v>
       </c>
-      <c r="AG9" s="41" t="s">
+      <c r="AG9" t="s">
         <v>146</v>
       </c>
-      <c r="AH9" s="41">
+      <c r="AH9">
         <v>0.5</v>
       </c>
-      <c r="AI9" s="42" t="s">
+      <c r="AI9" s="36" t="s">
         <v>1373</v>
       </c>
     </row>
     <row r="10" spans="1:35">
-      <c r="A10" s="41">
+      <c r="A10">
         <v>7273631</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" t="s">
         <v>147</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" t="s">
         <v>148</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="E10" t="s">
         <v>149</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10">
         <v>2015</v>
       </c>
-      <c r="G10" s="41">
+      <c r="G10">
         <v>2</v>
       </c>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41" t="s">
+      <c r="I10" t="s">
         <v>150</v>
       </c>
-      <c r="J10" s="41" t="s">
+      <c r="J10" t="s">
         <v>151</v>
       </c>
-      <c r="K10" s="41" t="s">
+      <c r="K10" t="s">
         <v>152</v>
       </c>
-      <c r="L10" s="41" t="s">
+      <c r="L10" t="s">
         <v>153</v>
       </c>
-      <c r="M10" s="41" t="s">
+      <c r="M10" t="s">
         <v>55</v>
       </c>
-      <c r="N10" s="41" t="s">
+      <c r="N10" t="s">
         <v>56</v>
       </c>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="41"/>
-      <c r="V10" s="41"/>
-      <c r="W10" s="41"/>
-      <c r="X10" s="41" t="s">
+      <c r="X10" t="s">
         <v>154</v>
       </c>
-      <c r="Y10" s="41" t="s">
+      <c r="Y10" t="s">
         <v>58</v>
       </c>
-      <c r="Z10" s="41" t="s">
+      <c r="Z10" t="s">
         <v>155</v>
       </c>
-      <c r="AA10" s="41" t="s">
+      <c r="AA10" t="s">
         <v>60</v>
       </c>
-      <c r="AB10" s="41" t="s">
+      <c r="AB10" t="s">
         <v>156</v>
       </c>
-      <c r="AC10" s="41" t="s">
+      <c r="AC10" t="s">
         <v>62</v>
       </c>
-      <c r="AD10" s="41" t="s">
+      <c r="AD10" t="s">
         <v>157</v>
       </c>
-      <c r="AE10" s="41" t="s">
+      <c r="AE10" t="s">
         <v>158</v>
       </c>
-      <c r="AF10" s="41" t="s">
+      <c r="AF10" t="s">
         <v>65</v>
       </c>
-      <c r="AG10" s="41" t="s">
+      <c r="AG10" t="s">
         <v>159</v>
       </c>
-      <c r="AH10" s="41">
+      <c r="AH10">
         <v>0.5</v>
       </c>
-      <c r="AI10" s="41"/>
     </row>
     <row r="11" spans="1:35">
-      <c r="A11" s="41">
+      <c r="A11">
         <v>8305939</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" t="s">
         <v>160</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" t="s">
         <v>161</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="E11" t="s">
         <v>162</v>
       </c>
-      <c r="F11" s="41">
+      <c r="F11">
         <v>2017</v>
       </c>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41" t="s">
+      <c r="I11" t="s">
         <v>163</v>
       </c>
-      <c r="J11" s="41" t="s">
+      <c r="J11" t="s">
         <v>164</v>
       </c>
-      <c r="K11" s="41" t="s">
+      <c r="K11" t="s">
         <v>165</v>
       </c>
-      <c r="L11" s="41" t="s">
+      <c r="L11" t="s">
         <v>166</v>
       </c>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41" t="s">
+      <c r="N11" t="s">
         <v>167</v>
       </c>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="41"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="41"/>
-      <c r="V11" s="41"/>
-      <c r="W11" s="41"/>
-      <c r="X11" s="41" t="s">
+      <c r="X11" t="s">
         <v>168</v>
       </c>
-      <c r="Y11" s="41" t="s">
+      <c r="Y11" t="s">
         <v>58</v>
       </c>
-      <c r="Z11" s="41" t="s">
+      <c r="Z11" t="s">
         <v>169</v>
       </c>
-      <c r="AA11" s="41" t="s">
+      <c r="AA11" t="s">
         <v>1356</v>
       </c>
-      <c r="AB11" s="41" t="s">
+      <c r="AB11" t="s">
         <v>91</v>
       </c>
-      <c r="AC11" s="41" t="s">
+      <c r="AC11" t="s">
         <v>62</v>
       </c>
-      <c r="AD11" s="41" t="s">
+      <c r="AD11" t="s">
         <v>170</v>
       </c>
-      <c r="AE11" s="41" t="s">
+      <c r="AE11" t="s">
         <v>171</v>
       </c>
-      <c r="AF11" s="41" t="s">
+      <c r="AF11" t="s">
         <v>172</v>
       </c>
-      <c r="AG11" s="41" t="s">
+      <c r="AG11" t="s">
         <v>66</v>
       </c>
-      <c r="AH11" s="41">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="41"/>
+      <c r="AH11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:35">
-      <c r="A12" s="41">
+      <c r="A12">
         <v>9796413</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" t="s">
         <v>173</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" t="s">
         <v>174</v>
       </c>
-      <c r="E12" s="41" t="s">
+      <c r="E12" t="s">
         <v>175</v>
       </c>
-      <c r="F12" s="41">
+      <c r="F12">
         <v>2022</v>
       </c>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41" t="s">
+      <c r="I12" t="s">
         <v>176</v>
       </c>
-      <c r="J12" s="41" t="s">
+      <c r="J12" t="s">
         <v>177</v>
       </c>
-      <c r="K12" s="41" t="s">
+      <c r="K12" t="s">
         <v>178</v>
       </c>
-      <c r="L12" s="41" t="s">
+      <c r="L12" t="s">
         <v>179</v>
       </c>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41" t="s">
+      <c r="N12" t="s">
         <v>75</v>
       </c>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="41"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="41"/>
-      <c r="V12" s="41"/>
-      <c r="W12" s="41"/>
-      <c r="X12" s="41" t="s">
+      <c r="X12" t="s">
         <v>180</v>
       </c>
-      <c r="Y12" s="41" t="s">
+      <c r="Y12" t="s">
         <v>58</v>
       </c>
-      <c r="Z12" s="41" t="s">
+      <c r="Z12" t="s">
         <v>181</v>
       </c>
-      <c r="AA12" s="41" t="s">
+      <c r="AA12" t="s">
         <v>1366</v>
       </c>
-      <c r="AB12" s="41" t="s">
+      <c r="AB12" t="s">
         <v>130</v>
       </c>
-      <c r="AC12" s="41" t="s">
+      <c r="AC12" t="s">
         <v>131</v>
       </c>
-      <c r="AD12" s="41" t="s">
+      <c r="AD12" t="s">
         <v>182</v>
       </c>
-      <c r="AE12" s="41" t="s">
+      <c r="AE12" t="s">
         <v>183</v>
       </c>
-      <c r="AF12" s="41" t="s">
+      <c r="AF12" t="s">
         <v>184</v>
       </c>
-      <c r="AG12" s="41" t="s">
+      <c r="AG12" t="s">
         <v>185</v>
       </c>
-      <c r="AH12" s="41">
+      <c r="AH12">
         <v>0.5</v>
       </c>
-      <c r="AI12" s="41"/>
     </row>
     <row r="13" spans="1:35">
-      <c r="A13" s="41">
+      <c r="A13">
         <v>8452804</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" t="s">
         <v>186</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" t="s">
         <v>187</v>
       </c>
-      <c r="E13" s="41" t="s">
+      <c r="E13" t="s">
         <v>188</v>
       </c>
-      <c r="F13" s="41">
+      <c r="F13">
         <v>2018</v>
       </c>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41" t="s">
+      <c r="I13" t="s">
         <v>189</v>
       </c>
-      <c r="J13" s="41" t="s">
+      <c r="J13" t="s">
         <v>190</v>
       </c>
-      <c r="K13" s="41" t="s">
+      <c r="K13" t="s">
         <v>191</v>
       </c>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41" t="s">
+      <c r="N13" t="s">
         <v>75</v>
       </c>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="41"/>
-      <c r="V13" s="41"/>
-      <c r="W13" s="41"/>
-      <c r="X13" s="41" t="s">
+      <c r="X13" t="s">
         <v>192</v>
       </c>
-      <c r="Y13" s="41" t="s">
+      <c r="Y13" t="s">
         <v>58</v>
       </c>
-      <c r="Z13" s="41" t="s">
+      <c r="Z13" t="s">
         <v>193</v>
       </c>
-      <c r="AA13" s="41" t="s">
+      <c r="AA13" t="s">
         <v>1368</v>
       </c>
-      <c r="AB13" s="41" t="s">
+      <c r="AB13" t="s">
         <v>1383</v>
       </c>
-      <c r="AC13" s="41" t="s">
+      <c r="AC13" t="s">
         <v>194</v>
       </c>
-      <c r="AD13" s="41" t="s">
+      <c r="AD13" t="s">
         <v>195</v>
       </c>
-      <c r="AE13" s="41" t="s">
+      <c r="AE13" t="s">
         <v>196</v>
       </c>
-      <c r="AF13" s="41" t="s">
+      <c r="AF13" t="s">
         <v>184</v>
       </c>
-      <c r="AG13" s="41" t="s">
+      <c r="AG13" t="s">
         <v>197</v>
       </c>
-      <c r="AH13" s="41">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="41"/>
+      <c r="AH13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:35">
-      <c r="A14" s="41">
+      <c r="A14">
         <v>7273420</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" t="s">
         <v>198</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" t="s">
         <v>148</v>
       </c>
-      <c r="E14" s="41" t="s">
+      <c r="E14" t="s">
         <v>199</v>
       </c>
-      <c r="F14" s="41">
+      <c r="F14">
         <v>2015</v>
       </c>
-      <c r="G14" s="41">
+      <c r="G14">
         <v>3</v>
       </c>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41" t="s">
+      <c r="I14" t="s">
         <v>200</v>
       </c>
-      <c r="J14" s="41" t="s">
+      <c r="J14" t="s">
         <v>201</v>
       </c>
-      <c r="K14" s="41" t="s">
+      <c r="K14" t="s">
         <v>202</v>
       </c>
-      <c r="L14" s="41" t="s">
+      <c r="L14" t="s">
         <v>203</v>
       </c>
-      <c r="M14" s="41" t="s">
+      <c r="M14" t="s">
         <v>55</v>
       </c>
-      <c r="N14" s="41" t="s">
+      <c r="N14" t="s">
         <v>56</v>
       </c>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="41"/>
-      <c r="U14" s="41"/>
-      <c r="V14" s="41"/>
-      <c r="W14" s="41"/>
-      <c r="X14" s="41" t="s">
+      <c r="X14" t="s">
         <v>204</v>
       </c>
-      <c r="Y14" s="41" t="s">
+      <c r="Y14" t="s">
         <v>58</v>
       </c>
-      <c r="Z14" s="41" t="s">
+      <c r="Z14" t="s">
         <v>205</v>
       </c>
-      <c r="AA14" s="41" t="s">
+      <c r="AA14" t="s">
         <v>206</v>
       </c>
-      <c r="AB14" s="41" t="s">
+      <c r="AB14" t="s">
         <v>207</v>
       </c>
-      <c r="AC14" s="41" t="s">
+      <c r="AC14" t="s">
         <v>208</v>
       </c>
-      <c r="AD14" s="41" t="s">
+      <c r="AD14" t="s">
         <v>209</v>
       </c>
-      <c r="AE14" s="41" t="s">
+      <c r="AE14" t="s">
         <v>210</v>
       </c>
-      <c r="AF14" s="41" t="s">
+      <c r="AF14" t="s">
         <v>65</v>
       </c>
-      <c r="AG14" s="41" t="s">
+      <c r="AG14" t="s">
         <v>94</v>
       </c>
-      <c r="AH14" s="41">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="41"/>
+      <c r="AH14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:35">
-      <c r="A15" s="41">
+      <c r="A15">
         <v>9787970</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" t="s">
         <v>211</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" t="s">
         <v>212</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E15" t="s">
         <v>213</v>
       </c>
-      <c r="F15" s="41">
+      <c r="F15">
         <v>2022</v>
       </c>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41" t="s">
+      <c r="I15" t="s">
         <v>214</v>
       </c>
-      <c r="J15" s="41" t="s">
+      <c r="J15" t="s">
         <v>215</v>
       </c>
-      <c r="K15" s="41" t="s">
+      <c r="K15" t="s">
         <v>216</v>
       </c>
-      <c r="L15" s="41" t="s">
+      <c r="L15" t="s">
         <v>217</v>
       </c>
-      <c r="M15" s="41" t="s">
+      <c r="M15" t="s">
         <v>218</v>
       </c>
-      <c r="N15" s="41" t="s">
+      <c r="N15" t="s">
         <v>139</v>
       </c>
-      <c r="O15" s="41"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="41"/>
-      <c r="S15" s="41"/>
-      <c r="T15" s="41"/>
-      <c r="U15" s="41"/>
-      <c r="V15" s="41"/>
-      <c r="W15" s="41"/>
-      <c r="X15" s="41" t="s">
+      <c r="X15" t="s">
         <v>219</v>
       </c>
-      <c r="Y15" s="41" t="s">
+      <c r="Y15" t="s">
         <v>58</v>
       </c>
-      <c r="Z15" s="41" t="s">
+      <c r="Z15" t="s">
         <v>220</v>
       </c>
-      <c r="AA15" s="41" t="s">
+      <c r="AA15" t="s">
         <v>142</v>
       </c>
-      <c r="AB15" s="41" t="s">
+      <c r="AB15" t="s">
         <v>207</v>
       </c>
-      <c r="AC15" s="41" t="s">
+      <c r="AC15" t="s">
         <v>208</v>
       </c>
-      <c r="AD15" s="41" t="s">
+      <c r="AD15" t="s">
         <v>221</v>
       </c>
-      <c r="AE15" s="41" t="s">
+      <c r="AE15" t="s">
         <v>222</v>
       </c>
-      <c r="AF15" s="41"/>
-      <c r="AG15" s="41" t="s">
+      <c r="AG15" t="s">
         <v>223</v>
       </c>
-      <c r="AH15" s="41">
+      <c r="AH15">
         <v>0.5</v>
       </c>
-      <c r="AI15" s="41"/>
     </row>
     <row r="16" spans="1:35">
-      <c r="A16" s="41">
+      <c r="A16">
         <v>8855691</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" t="s">
         <v>224</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" t="s">
         <v>225</v>
       </c>
-      <c r="E16" s="41" t="s">
+      <c r="E16" t="s">
         <v>226</v>
       </c>
-      <c r="F16" s="41">
+      <c r="F16">
         <v>2019</v>
       </c>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41" t="s">
+      <c r="I16" t="s">
         <v>227</v>
       </c>
-      <c r="J16" s="41" t="s">
+      <c r="J16" t="s">
         <v>228</v>
       </c>
-      <c r="K16" s="41" t="s">
+      <c r="K16" t="s">
         <v>229</v>
       </c>
-      <c r="L16" s="41" t="s">
+      <c r="L16" t="s">
         <v>230</v>
       </c>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41" t="s">
+      <c r="N16" t="s">
         <v>231</v>
       </c>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="41"/>
-      <c r="T16" s="41"/>
-      <c r="U16" s="41"/>
-      <c r="V16" s="41"/>
-      <c r="W16" s="41"/>
-      <c r="X16" s="41" t="s">
+      <c r="X16" t="s">
         <v>232</v>
       </c>
-      <c r="Y16" s="41" t="s">
+      <c r="Y16" t="s">
         <v>58</v>
       </c>
-      <c r="Z16" s="41" t="s">
+      <c r="Z16" t="s">
         <v>233</v>
       </c>
-      <c r="AA16" s="41" t="s">
+      <c r="AA16" t="s">
         <v>90</v>
       </c>
-      <c r="AB16" s="41" t="s">
+      <c r="AB16" t="s">
         <v>1383</v>
       </c>
-      <c r="AC16" s="41" t="s">
+      <c r="AC16" t="s">
         <v>105</v>
       </c>
-      <c r="AD16" s="41" t="s">
+      <c r="AD16" t="s">
         <v>234</v>
       </c>
-      <c r="AE16" s="41" t="s">
+      <c r="AE16" t="s">
         <v>235</v>
       </c>
-      <c r="AF16" s="41"/>
-      <c r="AG16" s="41" t="s">
+      <c r="AG16" t="s">
         <v>236</v>
       </c>
-      <c r="AH16" s="41">
+      <c r="AH16">
         <v>0.5</v>
       </c>
-      <c r="AI16" s="41"/>
     </row>
-    <row r="17" spans="1:35">
-      <c r="A17" s="41">
+    <row r="17" spans="1:34">
+      <c r="A17">
         <v>8029584</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" t="s">
         <v>237</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" t="s">
         <v>238</v>
       </c>
-      <c r="E17" s="41" t="s">
+      <c r="E17" t="s">
         <v>239</v>
       </c>
-      <c r="F17" s="41">
+      <c r="F17">
         <v>2017</v>
       </c>
-      <c r="G17" s="41">
+      <c r="G17">
         <v>1</v>
       </c>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41" t="s">
+      <c r="I17" t="s">
         <v>240</v>
       </c>
-      <c r="J17" s="41" t="s">
+      <c r="J17" t="s">
         <v>241</v>
       </c>
-      <c r="K17" s="41" t="s">
+      <c r="K17" t="s">
         <v>242</v>
       </c>
-      <c r="L17" s="41" t="s">
+      <c r="L17" t="s">
         <v>243</v>
       </c>
-      <c r="M17" s="41" t="s">
+      <c r="M17" t="s">
         <v>55</v>
       </c>
-      <c r="N17" s="41" t="s">
+      <c r="N17" t="s">
         <v>56</v>
       </c>
-      <c r="O17" s="41"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="41"/>
-      <c r="S17" s="41"/>
-      <c r="T17" s="41"/>
-      <c r="U17" s="41"/>
-      <c r="V17" s="41"/>
-      <c r="W17" s="41"/>
-      <c r="X17" s="41" t="s">
+      <c r="X17" t="s">
         <v>244</v>
       </c>
-      <c r="Y17" s="41" t="s">
+      <c r="Y17" t="s">
         <v>58</v>
       </c>
-      <c r="Z17" s="41" t="s">
+      <c r="Z17" t="s">
         <v>169</v>
       </c>
-      <c r="AA17" s="41" t="s">
+      <c r="AA17" t="s">
         <v>1357</v>
       </c>
-      <c r="AB17" s="41" t="s">
+      <c r="AB17" t="s">
         <v>91</v>
       </c>
-      <c r="AC17" s="41"/>
-      <c r="AD17" s="41" t="s">
+      <c r="AD17" t="s">
         <v>245</v>
       </c>
-      <c r="AE17" s="41" t="s">
+      <c r="AE17" t="s">
         <v>246</v>
       </c>
-      <c r="AF17" s="41" t="s">
+      <c r="AF17" t="s">
         <v>247</v>
       </c>
-      <c r="AG17" s="41" t="s">
+      <c r="AG17" t="s">
         <v>248</v>
       </c>
-      <c r="AH17" s="41">
+      <c r="AH17">
         <v>1</v>
       </c>
-      <c r="AI17" s="41"/>
     </row>
-    <row r="18" spans="1:35">
-      <c r="A18" s="41">
+    <row r="18" spans="1:34">
+      <c r="A18">
         <v>7838169</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" t="s">
         <v>249</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" t="s">
         <v>250</v>
       </c>
-      <c r="E18" s="41" t="s">
+      <c r="E18" t="s">
         <v>251</v>
       </c>
-      <c r="F18" s="41">
+      <c r="F18">
         <v>2016</v>
       </c>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41" t="s">
+      <c r="I18" t="s">
         <v>252</v>
       </c>
-      <c r="J18" s="41" t="s">
+      <c r="J18" t="s">
         <v>253</v>
       </c>
-      <c r="K18" s="41" t="s">
+      <c r="K18" t="s">
         <v>254</v>
       </c>
-      <c r="L18" s="41" t="s">
+      <c r="L18" t="s">
         <v>255</v>
       </c>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41" t="s">
+      <c r="N18" t="s">
         <v>167</v>
       </c>
-      <c r="O18" s="41"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="41"/>
-      <c r="S18" s="41"/>
-      <c r="T18" s="41"/>
-      <c r="U18" s="41"/>
-      <c r="V18" s="41"/>
-      <c r="W18" s="41"/>
-      <c r="X18" s="41" t="s">
+      <c r="X18" t="s">
         <v>256</v>
       </c>
-      <c r="Y18" s="41" t="s">
+      <c r="Y18" t="s">
         <v>58</v>
       </c>
-      <c r="Z18" s="41" t="s">
+      <c r="Z18" t="s">
         <v>257</v>
       </c>
-      <c r="AA18" s="41" t="s">
+      <c r="AA18" t="s">
         <v>1358</v>
       </c>
-      <c r="AB18" s="41" t="s">
+      <c r="AB18" t="s">
         <v>207</v>
       </c>
-      <c r="AC18" s="41" t="s">
+      <c r="AC18" t="s">
         <v>258</v>
       </c>
-      <c r="AD18" s="41" t="s">
+      <c r="AD18" t="s">
         <v>259</v>
       </c>
-      <c r="AE18" s="41" t="s">
+      <c r="AE18" t="s">
         <v>260</v>
       </c>
-      <c r="AF18" s="41" t="s">
+      <c r="AF18" t="s">
         <v>65</v>
       </c>
-      <c r="AG18" s="41" t="s">
+      <c r="AG18" t="s">
         <v>66</v>
       </c>
-      <c r="AH18" s="41">
+      <c r="AH18">
         <v>0.5</v>
       </c>
-      <c r="AI18" s="41"/>
     </row>
-    <row r="19" spans="1:35">
-      <c r="A19" s="41">
+    <row r="19" spans="1:34">
+      <c r="A19">
         <v>6569743</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" t="s">
         <v>261</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="D19" t="s">
         <v>262</v>
       </c>
-      <c r="E19" s="41" t="s">
+      <c r="E19" t="s">
         <v>263</v>
       </c>
-      <c r="F19" s="41">
+      <c r="F19">
         <v>2013</v>
       </c>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41" t="s">
+      <c r="I19" t="s">
         <v>264</v>
       </c>
-      <c r="J19" s="41" t="s">
+      <c r="J19" t="s">
         <v>265</v>
       </c>
-      <c r="K19" s="41" t="s">
+      <c r="K19" t="s">
         <v>266</v>
       </c>
-      <c r="L19" s="41" t="s">
+      <c r="L19" t="s">
         <v>267</v>
       </c>
-      <c r="M19" s="41" t="s">
+      <c r="M19" t="s">
         <v>218</v>
       </c>
-      <c r="N19" s="41" t="s">
+      <c r="N19" t="s">
         <v>126</v>
       </c>
-      <c r="O19" s="41"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="41"/>
-      <c r="S19" s="41"/>
-      <c r="T19" s="41"/>
-      <c r="U19" s="41"/>
-      <c r="V19" s="41"/>
-      <c r="W19" s="41"/>
-      <c r="X19" s="41" t="s">
+      <c r="X19" t="s">
         <v>268</v>
       </c>
-      <c r="Y19" s="41" t="s">
+      <c r="Y19" t="s">
         <v>58</v>
       </c>
-      <c r="Z19" s="41" t="s">
+      <c r="Z19" t="s">
         <v>269</v>
       </c>
-      <c r="AA19" s="41" t="s">
+      <c r="AA19" t="s">
         <v>270</v>
       </c>
-      <c r="AB19" s="41" t="s">
+      <c r="AB19" t="s">
         <v>271</v>
       </c>
-      <c r="AC19" s="41" t="s">
+      <c r="AC19" t="s">
         <v>194</v>
       </c>
-      <c r="AD19" s="41" t="s">
+      <c r="AD19" t="s">
         <v>272</v>
       </c>
-      <c r="AE19" s="41" t="s">
+      <c r="AE19" t="s">
         <v>273</v>
       </c>
-      <c r="AF19" s="41" t="s">
+      <c r="AF19" t="s">
         <v>65</v>
       </c>
-      <c r="AG19" s="41" t="s">
+      <c r="AG19" t="s">
         <v>66</v>
       </c>
-      <c r="AH19" s="41">
+      <c r="AH19">
         <v>0.5</v>
       </c>
-      <c r="AI19" s="41"/>
     </row>
-    <row r="20" spans="1:35">
-      <c r="A20" s="41">
+    <row r="20" spans="1:34">
+      <c r="A20">
         <v>8854718</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" t="s">
         <v>274</v>
       </c>
-      <c r="D20" s="41" t="s">
+      <c r="D20" t="s">
         <v>275</v>
       </c>
-      <c r="E20" s="41" t="s">
+      <c r="E20" t="s">
         <v>276</v>
       </c>
-      <c r="F20" s="41">
+      <c r="F20">
         <v>2019</v>
       </c>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41" t="s">
+      <c r="I20" t="s">
         <v>277</v>
       </c>
-      <c r="J20" s="41" t="s">
+      <c r="J20" t="s">
         <v>278</v>
       </c>
-      <c r="K20" s="41" t="s">
+      <c r="K20" t="s">
         <v>279</v>
       </c>
-      <c r="L20" s="41" t="s">
+      <c r="L20" t="s">
         <v>280</v>
       </c>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41" t="s">
+      <c r="N20" t="s">
         <v>56</v>
       </c>
-      <c r="O20" s="41"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="41"/>
-      <c r="S20" s="41"/>
-      <c r="T20" s="41"/>
-      <c r="U20" s="41"/>
-      <c r="V20" s="41"/>
-      <c r="W20" s="41"/>
-      <c r="X20" s="41" t="s">
+      <c r="X20" t="s">
         <v>281</v>
       </c>
-      <c r="Y20" s="41" t="s">
+      <c r="Y20" t="s">
         <v>58</v>
       </c>
-      <c r="Z20" s="41" t="s">
+      <c r="Z20" t="s">
         <v>233</v>
       </c>
-      <c r="AA20" s="41" t="s">
+      <c r="AA20" t="s">
         <v>90</v>
       </c>
-      <c r="AB20" s="41" t="s">
+      <c r="AB20" t="s">
         <v>91</v>
       </c>
-      <c r="AC20" s="41" t="s">
+      <c r="AC20" t="s">
         <v>194</v>
       </c>
-      <c r="AD20" s="41" t="s">
+      <c r="AD20" t="s">
         <v>282</v>
       </c>
-      <c r="AE20" s="41" t="s">
+      <c r="AE20" t="s">
         <v>283</v>
       </c>
-      <c r="AF20" s="41" t="s">
+      <c r="AF20" t="s">
         <v>65</v>
       </c>
-      <c r="AG20" s="41" t="s">
+      <c r="AG20" t="s">
         <v>66</v>
       </c>
-      <c r="AH20" s="41">
+      <c r="AH20">
         <v>0.5</v>
       </c>
-      <c r="AI20" s="41"/>
     </row>
-    <row r="21" spans="1:35">
-      <c r="A21" s="41">
+    <row r="21" spans="1:34">
+      <c r="A21">
         <v>7272924</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" t="s">
         <v>284</v>
       </c>
-      <c r="D21" s="41" t="s">
+      <c r="D21" t="s">
         <v>285</v>
       </c>
-      <c r="E21" s="41" t="s">
+      <c r="E21" t="s">
         <v>286</v>
       </c>
-      <c r="F21" s="41">
+      <c r="F21">
         <v>2015</v>
       </c>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41" t="s">
+      <c r="I21" t="s">
         <v>287</v>
       </c>
-      <c r="J21" s="41" t="s">
+      <c r="J21" t="s">
         <v>288</v>
       </c>
-      <c r="K21" s="41" t="s">
+      <c r="K21" t="s">
         <v>289</v>
       </c>
-      <c r="L21" s="41" t="s">
+      <c r="L21" t="s">
         <v>290</v>
       </c>
-      <c r="M21" s="41"/>
-      <c r="N21" s="41" t="s">
+      <c r="N21" t="s">
         <v>231</v>
       </c>
-      <c r="O21" s="41"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="41"/>
-      <c r="S21" s="41"/>
-      <c r="T21" s="41"/>
-      <c r="U21" s="41"/>
-      <c r="V21" s="41"/>
-      <c r="W21" s="41"/>
-      <c r="X21" s="41" t="s">
+      <c r="X21" t="s">
         <v>291</v>
       </c>
-      <c r="Y21" s="41" t="s">
+      <c r="Y21" t="s">
         <v>58</v>
       </c>
-      <c r="Z21" s="41" t="s">
+      <c r="Z21" t="s">
         <v>205</v>
       </c>
-      <c r="AA21" s="41" t="s">
+      <c r="AA21" t="s">
         <v>1359</v>
       </c>
-      <c r="AB21" s="41" t="s">
+      <c r="AB21" t="s">
         <v>91</v>
       </c>
-      <c r="AC21" s="41" t="s">
+      <c r="AC21" t="s">
         <v>258</v>
       </c>
-      <c r="AD21" s="41" t="s">
+      <c r="AD21" t="s">
         <v>293</v>
       </c>
-      <c r="AE21" s="41" t="s">
+      <c r="AE21" t="s">
         <v>294</v>
       </c>
-      <c r="AF21" s="41"/>
-      <c r="AG21" s="41" t="s">
+      <c r="AG21" t="s">
         <v>295</v>
       </c>
-      <c r="AH21" s="41">
+      <c r="AH21">
         <v>0.5</v>
       </c>
-      <c r="AI21" s="41"/>
     </row>
-    <row r="22" spans="1:35">
-      <c r="A22" s="41">
+    <row r="22" spans="1:34">
+      <c r="A22">
         <v>10196878</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="B22" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C22" t="s">
         <v>296</v>
       </c>
-      <c r="D22" s="41" t="s">
+      <c r="D22" t="s">
         <v>297</v>
       </c>
-      <c r="E22" s="41" t="s">
+      <c r="E22" t="s">
         <v>298</v>
       </c>
-      <c r="F22" s="41">
+      <c r="F22">
         <v>2023</v>
       </c>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41" t="s">
+      <c r="I22" t="s">
         <v>299</v>
       </c>
-      <c r="J22" s="41" t="s">
+      <c r="J22" t="s">
         <v>300</v>
       </c>
-      <c r="K22" s="41" t="s">
+      <c r="K22" t="s">
         <v>301</v>
       </c>
-      <c r="L22" s="41" t="s">
+      <c r="L22" t="s">
         <v>302</v>
       </c>
-      <c r="M22" s="41" t="s">
+      <c r="M22" t="s">
         <v>55</v>
       </c>
-      <c r="N22" s="41" t="s">
+      <c r="N22" t="s">
         <v>102</v>
       </c>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="41"/>
-      <c r="U22" s="41"/>
-      <c r="V22" s="41"/>
-      <c r="W22" s="41"/>
-      <c r="X22" s="41" t="s">
+      <c r="X22" t="s">
         <v>303</v>
       </c>
-      <c r="Y22" s="41" t="s">
+      <c r="Y22" t="s">
         <v>58</v>
       </c>
-      <c r="Z22" s="41" t="s">
+      <c r="Z22" t="s">
         <v>304</v>
       </c>
-      <c r="AA22" s="41" t="s">
+      <c r="AA22" t="s">
         <v>60</v>
       </c>
-      <c r="AB22" s="41" t="s">
+      <c r="AB22" t="s">
         <v>305</v>
       </c>
-      <c r="AC22" s="41" t="s">
+      <c r="AC22" t="s">
         <v>258</v>
       </c>
-      <c r="AD22" s="41" t="s">
+      <c r="AD22" t="s">
         <v>306</v>
       </c>
-      <c r="AE22" s="41" t="s">
+      <c r="AE22" t="s">
         <v>307</v>
       </c>
-      <c r="AF22" s="41"/>
-      <c r="AG22" s="41" t="s">
+      <c r="AG22" t="s">
         <v>308</v>
       </c>
-      <c r="AH22" s="41">
+      <c r="AH22">
         <v>0.5</v>
       </c>
-      <c r="AI22" s="41"/>
     </row>
-    <row r="23" spans="1:35">
-      <c r="A23" s="41">
+    <row r="23" spans="1:34">
+      <c r="A23">
         <v>7589817</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B23" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C23" t="s">
         <v>309</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D23" t="s">
         <v>310</v>
       </c>
-      <c r="E23" s="41" t="s">
+      <c r="E23" t="s">
         <v>311</v>
       </c>
-      <c r="F23" s="41">
+      <c r="F23">
         <v>2016</v>
       </c>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41" t="s">
+      <c r="I23" t="s">
         <v>277</v>
       </c>
-      <c r="J23" s="41" t="s">
+      <c r="J23" t="s">
         <v>312</v>
       </c>
-      <c r="K23" s="41" t="s">
+      <c r="K23" t="s">
         <v>313</v>
       </c>
-      <c r="L23" s="41" t="s">
+      <c r="L23" t="s">
         <v>314</v>
       </c>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41" t="s">
+      <c r="N23" t="s">
         <v>231</v>
       </c>
-      <c r="O23" s="41"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="41"/>
-      <c r="S23" s="41"/>
-      <c r="T23" s="41"/>
-      <c r="U23" s="41"/>
-      <c r="V23" s="41"/>
-      <c r="W23" s="41"/>
-      <c r="X23" s="41" t="s">
+      <c r="X23" t="s">
         <v>315</v>
       </c>
-      <c r="Y23" s="41" t="s">
+      <c r="Y23" t="s">
         <v>58</v>
       </c>
-      <c r="Z23" s="41" t="s">
+      <c r="Z23" t="s">
         <v>257</v>
       </c>
-      <c r="AA23" s="41" t="s">
+      <c r="AA23" t="s">
         <v>1359</v>
       </c>
-      <c r="AB23" s="41" t="s">
+      <c r="AB23" t="s">
         <v>91</v>
       </c>
-      <c r="AC23" s="41" t="s">
+      <c r="AC23" t="s">
         <v>62</v>
       </c>
-      <c r="AD23" s="41" t="s">
+      <c r="AD23" t="s">
         <v>316</v>
       </c>
-      <c r="AE23" s="41" t="s">
+      <c r="AE23" t="s">
         <v>317</v>
       </c>
-      <c r="AF23" s="41" t="s">
+      <c r="AF23" t="s">
         <v>318</v>
       </c>
-      <c r="AG23" s="43" t="s">
+      <c r="AG23" s="40" t="s">
         <v>319</v>
       </c>
-      <c r="AH23" s="41">
+      <c r="AH23">
         <v>0.5</v>
       </c>
-      <c r="AI23" s="41"/>
     </row>
-    <row r="24" spans="1:35">
-      <c r="A24" s="41">
+    <row r="24" spans="1:34">
+      <c r="A24">
         <v>7381799</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B24" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="41" t="s">
+      <c r="C24" t="s">
         <v>320</v>
       </c>
-      <c r="D24" s="41" t="s">
+      <c r="D24" t="s">
         <v>321</v>
       </c>
-      <c r="E24" s="41" t="s">
+      <c r="E24" t="s">
         <v>322</v>
       </c>
-      <c r="F24" s="41">
+      <c r="F24">
         <v>2015</v>
       </c>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41" t="s">
+      <c r="I24" t="s">
         <v>323</v>
       </c>
-      <c r="J24" s="41" t="s">
+      <c r="J24" t="s">
         <v>324</v>
       </c>
-      <c r="K24" s="41" t="s">
+      <c r="K24" t="s">
         <v>325</v>
       </c>
-      <c r="L24" s="41" t="s">
+      <c r="L24" t="s">
         <v>326</v>
       </c>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41" t="s">
+      <c r="N24" t="s">
         <v>327</v>
       </c>
-      <c r="O24" s="41"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="41"/>
-      <c r="T24" s="41"/>
-      <c r="U24" s="41"/>
-      <c r="V24" s="41"/>
-      <c r="W24" s="41"/>
-      <c r="X24" s="41" t="s">
+      <c r="X24" t="s">
         <v>328</v>
       </c>
-      <c r="Y24" s="41" t="s">
+      <c r="Y24" t="s">
         <v>58</v>
       </c>
-      <c r="Z24" s="41" t="s">
+      <c r="Z24" t="s">
         <v>205</v>
       </c>
-      <c r="AA24" s="41" t="s">
+      <c r="AA24" t="s">
         <v>114</v>
       </c>
-      <c r="AB24" s="41" t="s">
+      <c r="AB24" t="s">
         <v>91</v>
       </c>
-      <c r="AC24" s="41" t="s">
+      <c r="AC24" t="s">
         <v>62</v>
       </c>
-      <c r="AD24" s="41" t="s">
+      <c r="AD24" t="s">
         <v>329</v>
       </c>
-      <c r="AE24" s="41" t="s">
+      <c r="AE24" t="s">
         <v>330</v>
       </c>
-      <c r="AF24" s="41"/>
-      <c r="AG24" s="41" t="s">
+      <c r="AG24" t="s">
         <v>331</v>
       </c>
-      <c r="AH24" s="41">
+      <c r="AH24">
         <v>0.5</v>
       </c>
-      <c r="AI24" s="41"/>
     </row>
-    <row r="25" spans="1:35">
-      <c r="A25" s="41">
+    <row r="25" spans="1:34">
+      <c r="A25">
         <v>10621714</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="B25" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="41" t="s">
+      <c r="C25" t="s">
         <v>332</v>
       </c>
-      <c r="D25" s="41" t="s">
+      <c r="D25" t="s">
         <v>333</v>
       </c>
-      <c r="E25" s="41" t="s">
+      <c r="E25" t="s">
         <v>334</v>
       </c>
-      <c r="F25" s="41">
+      <c r="F25">
         <v>2024</v>
       </c>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41" t="s">
+      <c r="I25" t="s">
         <v>335</v>
       </c>
-      <c r="J25" s="41" t="s">
+      <c r="J25" t="s">
         <v>336</v>
       </c>
-      <c r="K25" s="41" t="s">
+      <c r="K25" t="s">
         <v>337</v>
       </c>
-      <c r="L25" s="41" t="s">
+      <c r="L25" t="s">
         <v>338</v>
       </c>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41" t="s">
+      <c r="N25" t="s">
         <v>126</v>
       </c>
-      <c r="O25" s="41"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="41"/>
-      <c r="S25" s="41"/>
-      <c r="T25" s="41"/>
-      <c r="U25" s="41"/>
-      <c r="V25" s="41"/>
-      <c r="W25" s="41"/>
-      <c r="X25" s="41" t="s">
+      <c r="X25" t="s">
         <v>339</v>
       </c>
-      <c r="Y25" s="41" t="s">
+      <c r="Y25" t="s">
         <v>58</v>
       </c>
-      <c r="Z25" s="41" t="s">
+      <c r="Z25" t="s">
         <v>340</v>
       </c>
-      <c r="AA25" s="41" t="s">
+      <c r="AA25" t="s">
         <v>114</v>
       </c>
-      <c r="AB25" s="41" t="s">
+      <c r="AB25" t="s">
         <v>271</v>
       </c>
-      <c r="AC25" s="41" t="s">
+      <c r="AC25" t="s">
         <v>341</v>
       </c>
-      <c r="AD25" s="41" t="s">
+      <c r="AD25" t="s">
         <v>342</v>
       </c>
-      <c r="AE25" s="41" t="s">
+      <c r="AE25" t="s">
         <v>343</v>
       </c>
-      <c r="AF25" s="41" t="s">
+      <c r="AF25" t="s">
         <v>65</v>
       </c>
-      <c r="AG25" s="41" t="s">
+      <c r="AG25" t="s">
         <v>344</v>
       </c>
-      <c r="AH25" s="41">
+      <c r="AH25">
         <v>0.5</v>
       </c>
-      <c r="AI25" s="41"/>
     </row>
-    <row r="26" spans="1:35">
-      <c r="A26" s="41">
+    <row r="26" spans="1:34">
+      <c r="A26">
         <v>8530033</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="C26" t="s">
         <v>345</v>
       </c>
-      <c r="D26" s="41" t="s">
+      <c r="D26" t="s">
         <v>346</v>
       </c>
-      <c r="E26" s="41" t="s">
+      <c r="E26" t="s">
         <v>347</v>
       </c>
-      <c r="F26" s="41">
+      <c r="F26">
         <v>2018</v>
       </c>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41" t="s">
+      <c r="I26" t="s">
         <v>348</v>
       </c>
-      <c r="J26" s="41" t="s">
+      <c r="J26" t="s">
         <v>349</v>
       </c>
-      <c r="K26" s="41" t="s">
+      <c r="K26" t="s">
         <v>350</v>
       </c>
-      <c r="L26" s="41" t="s">
+      <c r="L26" t="s">
         <v>351</v>
       </c>
-      <c r="M26" s="41" t="s">
+      <c r="M26" t="s">
         <v>352</v>
       </c>
-      <c r="N26" s="41" t="s">
+      <c r="N26" t="s">
         <v>353</v>
       </c>
-      <c r="O26" s="41"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="41"/>
-      <c r="S26" s="41"/>
-      <c r="T26" s="41"/>
-      <c r="U26" s="41"/>
-      <c r="V26" s="41"/>
-      <c r="W26" s="41"/>
-      <c r="X26" s="41" t="s">
+      <c r="X26" t="s">
         <v>354</v>
       </c>
-      <c r="Y26" s="41" t="s">
+      <c r="Y26" t="s">
         <v>58</v>
       </c>
-      <c r="Z26" s="41" t="s">
+      <c r="Z26" t="s">
         <v>355</v>
       </c>
-      <c r="AA26" s="41" t="s">
+      <c r="AA26" t="s">
         <v>356</v>
       </c>
-      <c r="AB26" s="41" t="s">
+      <c r="AB26" t="s">
         <v>1385</v>
       </c>
-      <c r="AC26" s="41" t="s">
+      <c r="AC26" t="s">
         <v>357</v>
       </c>
-      <c r="AD26" s="41" t="s">
+      <c r="AD26" t="s">
         <v>358</v>
       </c>
-      <c r="AE26" s="41" t="s">
+      <c r="AE26" t="s">
         <v>359</v>
       </c>
-      <c r="AF26" s="41" t="s">
+      <c r="AF26" t="s">
         <v>360</v>
       </c>
-      <c r="AG26" s="41" t="s">
+      <c r="AG26" t="s">
         <v>361</v>
       </c>
-      <c r="AH26" s="41">
+      <c r="AH26">
         <v>0.5</v>
       </c>
-      <c r="AI26" s="41"/>
     </row>
-    <row r="27" spans="1:35">
-      <c r="A27" s="41">
+    <row r="27" spans="1:34">
+      <c r="A27">
         <v>9825820</v>
       </c>
-      <c r="B27" s="41" t="s">
+      <c r="B27" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="41" t="s">
+      <c r="C27" t="s">
         <v>362</v>
       </c>
-      <c r="D27" s="41" t="s">
+      <c r="D27" t="s">
         <v>363</v>
       </c>
-      <c r="E27" s="41" t="s">
+      <c r="E27" t="s">
         <v>364</v>
       </c>
-      <c r="F27" s="41">
+      <c r="F27">
         <v>2022</v>
       </c>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41" t="s">
+      <c r="I27" t="s">
         <v>365</v>
       </c>
-      <c r="J27" s="41" t="s">
+      <c r="J27" t="s">
         <v>366</v>
       </c>
-      <c r="K27" s="41" t="s">
+      <c r="K27" t="s">
         <v>367</v>
       </c>
-      <c r="L27" s="41" t="s">
+      <c r="L27" t="s">
         <v>368</v>
       </c>
-      <c r="M27" s="41" t="s">
+      <c r="M27" t="s">
         <v>369</v>
       </c>
-      <c r="N27" s="41" t="s">
+      <c r="N27" t="s">
         <v>126</v>
       </c>
-      <c r="O27" s="41"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="41"/>
-      <c r="S27" s="41"/>
-      <c r="T27" s="41"/>
-      <c r="U27" s="41"/>
-      <c r="V27" s="41"/>
-      <c r="W27" s="41"/>
-      <c r="X27" s="41" t="s">
+      <c r="X27" t="s">
         <v>370</v>
       </c>
-      <c r="Y27" s="41" t="s">
+      <c r="Y27" t="s">
         <v>58</v>
       </c>
-      <c r="Z27" s="41" t="s">
+      <c r="Z27" t="s">
         <v>220</v>
       </c>
-      <c r="AA27" s="41" t="s">
+      <c r="AA27" t="s">
         <v>114</v>
       </c>
-      <c r="AB27" s="41" t="s">
+      <c r="AB27" t="s">
         <v>371</v>
       </c>
-      <c r="AC27" s="41" t="s">
+      <c r="AC27" t="s">
         <v>208</v>
       </c>
-      <c r="AD27" s="41" t="s">
+      <c r="AD27" t="s">
         <v>372</v>
       </c>
-      <c r="AE27" s="41" t="s">
+      <c r="AE27" t="s">
         <v>373</v>
       </c>
-      <c r="AF27" s="41" t="s">
+      <c r="AF27" t="s">
         <v>65</v>
       </c>
-      <c r="AG27" s="41" t="s">
+      <c r="AG27" t="s">
         <v>374</v>
       </c>
-      <c r="AH27" s="41">
+      <c r="AH27">
         <v>0.5</v>
       </c>
-      <c r="AI27" s="41"/>
     </row>
-    <row r="28" spans="1:35">
-      <c r="A28" s="41">
+    <row r="28" spans="1:34">
+      <c r="A28">
         <v>7272927</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="41" t="s">
+      <c r="C28" t="s">
         <v>375</v>
       </c>
-      <c r="D28" s="41" t="s">
+      <c r="D28" t="s">
         <v>285</v>
       </c>
-      <c r="E28" s="41" t="s">
+      <c r="E28" t="s">
         <v>376</v>
       </c>
-      <c r="F28" s="41">
+      <c r="F28">
         <v>2015</v>
       </c>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41" t="s">
+      <c r="I28" t="s">
         <v>377</v>
       </c>
-      <c r="J28" s="41" t="s">
+      <c r="J28" t="s">
         <v>378</v>
       </c>
-      <c r="K28" s="41" t="s">
+      <c r="K28" t="s">
         <v>379</v>
       </c>
-      <c r="L28" s="41" t="s">
+      <c r="L28" t="s">
         <v>380</v>
       </c>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41" t="s">
+      <c r="N28" t="s">
         <v>231</v>
       </c>
-      <c r="O28" s="41"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="41"/>
-      <c r="S28" s="41"/>
-      <c r="T28" s="41"/>
-      <c r="U28" s="41"/>
-      <c r="V28" s="41"/>
-      <c r="W28" s="41"/>
-      <c r="X28" s="41" t="s">
+      <c r="X28" t="s">
         <v>381</v>
       </c>
-      <c r="Y28" s="41" t="s">
+      <c r="Y28" t="s">
         <v>58</v>
       </c>
-      <c r="Z28" s="41" t="s">
+      <c r="Z28" t="s">
         <v>382</v>
       </c>
-      <c r="AA28" s="41" t="s">
+      <c r="AA28" t="s">
         <v>114</v>
       </c>
-      <c r="AB28" s="41" t="s">
+      <c r="AB28" t="s">
         <v>383</v>
       </c>
-      <c r="AC28" s="41" t="s">
+      <c r="AC28" t="s">
         <v>384</v>
       </c>
-      <c r="AD28" s="41"/>
-      <c r="AE28" s="41" t="s">
+      <c r="AE28" t="s">
         <v>385</v>
       </c>
-      <c r="AF28" s="41"/>
-      <c r="AG28" s="41" t="s">
+      <c r="AG28" t="s">
         <v>66</v>
       </c>
-      <c r="AH28" s="41">
-        <v>0</v>
-      </c>
-      <c r="AI28" s="41"/>
+      <c r="AH28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:35">
-      <c r="A29" s="41">
+    <row r="29" spans="1:34">
+      <c r="A29">
         <v>8539203</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="41" t="s">
+      <c r="C29" t="s">
         <v>386</v>
       </c>
-      <c r="D29" s="41" t="s">
+      <c r="D29" t="s">
         <v>387</v>
       </c>
-      <c r="E29" s="41" t="s">
+      <c r="E29" t="s">
         <v>388</v>
       </c>
-      <c r="F29" s="41">
+      <c r="F29">
         <v>2018</v>
       </c>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41" t="s">
+      <c r="I29" t="s">
         <v>389</v>
       </c>
-      <c r="J29" s="41" t="s">
+      <c r="J29" t="s">
         <v>390</v>
       </c>
-      <c r="K29" s="41" t="s">
+      <c r="K29" t="s">
         <v>391</v>
       </c>
-      <c r="L29" s="41" t="s">
+      <c r="L29" t="s">
         <v>392</v>
       </c>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41" t="s">
+      <c r="N29" t="s">
         <v>393</v>
       </c>
-      <c r="O29" s="41"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="41"/>
-      <c r="S29" s="41"/>
-      <c r="T29" s="41"/>
-      <c r="U29" s="41"/>
-      <c r="V29" s="41"/>
-      <c r="W29" s="41"/>
-      <c r="X29" s="41" t="s">
+      <c r="X29" t="s">
         <v>394</v>
       </c>
-      <c r="Y29" s="41" t="s">
+      <c r="Y29" t="s">
         <v>58</v>
       </c>
-      <c r="Z29" s="41" t="s">
+      <c r="Z29" t="s">
         <v>355</v>
       </c>
-      <c r="AA29" s="41" t="s">
+      <c r="AA29" t="s">
         <v>1360</v>
       </c>
-      <c r="AB29" s="41" t="s">
+      <c r="AB29" t="s">
         <v>1371</v>
       </c>
-      <c r="AC29" s="41" t="s">
+      <c r="AC29" t="s">
         <v>384</v>
       </c>
-      <c r="AD29" s="41" t="s">
+      <c r="AD29" t="s">
         <v>396</v>
       </c>
-      <c r="AE29" s="41" t="s">
+      <c r="AE29" t="s">
         <v>397</v>
       </c>
-      <c r="AF29" s="41" t="s">
+      <c r="AF29" t="s">
         <v>184</v>
       </c>
-      <c r="AG29" s="41" t="s">
+      <c r="AG29" t="s">
         <v>398</v>
       </c>
-      <c r="AH29" s="41">
+      <c r="AH29">
         <v>0.5</v>
       </c>
-      <c r="AI29" s="41"/>
     </row>
-    <row r="30" spans="1:35">
-      <c r="A30" s="41">
+    <row r="30" spans="1:34">
+      <c r="A30">
         <v>6928903</v>
       </c>
-      <c r="B30" s="41" t="s">
+      <c r="B30" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="41" t="s">
+      <c r="C30" t="s">
         <v>399</v>
       </c>
-      <c r="D30" s="41" t="s">
+      <c r="D30" t="s">
         <v>400</v>
       </c>
-      <c r="E30" s="41" t="s">
+      <c r="E30" t="s">
         <v>401</v>
       </c>
-      <c r="F30" s="41">
+      <c r="F30">
         <v>2014</v>
       </c>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41" t="s">
+      <c r="I30" t="s">
         <v>402</v>
       </c>
-      <c r="J30" s="41" t="s">
+      <c r="J30" t="s">
         <v>403</v>
       </c>
-      <c r="K30" s="41" t="s">
+      <c r="K30" t="s">
         <v>404</v>
       </c>
-      <c r="L30" s="41" t="s">
+      <c r="L30" t="s">
         <v>405</v>
       </c>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41" t="s">
+      <c r="N30" t="s">
         <v>102</v>
       </c>
-      <c r="O30" s="41"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="41"/>
-      <c r="S30" s="41"/>
-      <c r="T30" s="41"/>
-      <c r="U30" s="41"/>
-      <c r="V30" s="41"/>
-      <c r="W30" s="41"/>
-      <c r="X30" s="41" t="s">
+      <c r="X30" t="s">
         <v>406</v>
       </c>
-      <c r="Y30" s="41" t="s">
+      <c r="Y30" t="s">
         <v>58</v>
       </c>
-      <c r="Z30" s="41" t="s">
+      <c r="Z30" t="s">
         <v>407</v>
       </c>
-      <c r="AA30" s="41" t="s">
+      <c r="AA30" t="s">
         <v>408</v>
       </c>
-      <c r="AB30" s="41" t="s">
+      <c r="AB30" t="s">
         <v>409</v>
       </c>
-      <c r="AC30" s="41" t="s">
+      <c r="AC30" t="s">
         <v>131</v>
       </c>
-      <c r="AD30" s="41" t="s">
+      <c r="AD30" t="s">
         <v>410</v>
       </c>
-      <c r="AE30" s="41"/>
-      <c r="AF30" s="41" t="s">
+      <c r="AF30" t="s">
         <v>411</v>
       </c>
-      <c r="AG30" s="41" t="s">
+      <c r="AG30" t="s">
         <v>66</v>
       </c>
-      <c r="AH30" s="41">
+      <c r="AH30">
         <v>0.5</v>
       </c>
-      <c r="AI30" s="41"/>
     </row>
-    <row r="31" spans="1:35">
-      <c r="A31" s="41">
+    <row r="31" spans="1:34">
+      <c r="A31">
         <v>7091286</v>
       </c>
-      <c r="B31" s="41" t="s">
+      <c r="B31" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="41" t="s">
+      <c r="C31" t="s">
         <v>412</v>
       </c>
-      <c r="D31" s="41" t="s">
+      <c r="D31" t="s">
         <v>413</v>
       </c>
-      <c r="E31" s="41" t="s">
+      <c r="E31" t="s">
         <v>414</v>
       </c>
-      <c r="F31" s="41">
+      <c r="F31">
         <v>2014</v>
       </c>
-      <c r="G31" s="41">
+      <c r="G31">
         <v>1</v>
       </c>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41" t="s">
+      <c r="I31" t="s">
         <v>415</v>
       </c>
-      <c r="J31" s="41" t="s">
+      <c r="J31" t="s">
         <v>416</v>
       </c>
-      <c r="K31" s="41" t="s">
+      <c r="K31" t="s">
         <v>417</v>
       </c>
-      <c r="L31" s="41" t="s">
+      <c r="L31" t="s">
         <v>418</v>
       </c>
-      <c r="M31" s="41" t="s">
+      <c r="M31" t="s">
         <v>419</v>
       </c>
-      <c r="N31" s="41" t="s">
+      <c r="N31" t="s">
         <v>167</v>
       </c>
-      <c r="O31" s="41"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="41"/>
-      <c r="S31" s="41"/>
-      <c r="T31" s="41"/>
-      <c r="U31" s="41"/>
-      <c r="V31" s="41"/>
-      <c r="W31" s="41"/>
-      <c r="X31" s="41" t="s">
+      <c r="X31" t="s">
         <v>420</v>
       </c>
-      <c r="Y31" s="41" t="s">
+      <c r="Y31" t="s">
         <v>58</v>
       </c>
-      <c r="Z31" s="41" t="s">
+      <c r="Z31" t="s">
         <v>407</v>
       </c>
-      <c r="AA31" s="41" t="s">
+      <c r="AA31" t="s">
         <v>114</v>
       </c>
-      <c r="AB31" s="41" t="s">
+      <c r="AB31" t="s">
         <v>271</v>
       </c>
-      <c r="AC31" s="41" t="s">
+      <c r="AC31" t="s">
         <v>208</v>
       </c>
-      <c r="AD31" s="41" t="s">
+      <c r="AD31" t="s">
         <v>421</v>
       </c>
-      <c r="AE31" s="41" t="s">
+      <c r="AE31" t="s">
         <v>422</v>
       </c>
-      <c r="AF31" s="41" t="s">
+      <c r="AF31" t="s">
         <v>423</v>
       </c>
-      <c r="AG31" s="41" t="s">
+      <c r="AG31" t="s">
         <v>424</v>
       </c>
-      <c r="AH31" s="41">
+      <c r="AH31">
         <v>0.5</v>
       </c>
-      <c r="AI31" s="41"/>
     </row>
-    <row r="32" spans="1:35">
-      <c r="A32" s="41">
+    <row r="32" spans="1:34">
+      <c r="A32">
         <v>10336260</v>
       </c>
-      <c r="B32" s="41" t="s">
+      <c r="B32" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="41" t="s">
+      <c r="C32" t="s">
         <v>425</v>
       </c>
-      <c r="D32" s="41" t="s">
+      <c r="D32" t="s">
         <v>426</v>
       </c>
-      <c r="E32" s="41" t="s">
+      <c r="E32" t="s">
         <v>427</v>
       </c>
-      <c r="F32" s="41">
+      <c r="F32">
         <v>2023</v>
       </c>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41" t="s">
+      <c r="I32" t="s">
         <v>428</v>
       </c>
-      <c r="J32" s="41" t="s">
+      <c r="J32" t="s">
         <v>429</v>
       </c>
-      <c r="K32" s="41" t="s">
+      <c r="K32" t="s">
         <v>430</v>
       </c>
-      <c r="L32" s="41" t="s">
+      <c r="L32" t="s">
         <v>431</v>
       </c>
-      <c r="M32" s="41" t="s">
+      <c r="M32" t="s">
         <v>352</v>
       </c>
-      <c r="N32" s="41" t="s">
+      <c r="N32" t="s">
         <v>393</v>
       </c>
-      <c r="O32" s="41"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="41"/>
-      <c r="S32" s="41"/>
-      <c r="T32" s="41"/>
-      <c r="U32" s="41"/>
-      <c r="V32" s="41"/>
-      <c r="W32" s="41"/>
-      <c r="X32" s="41" t="s">
+      <c r="X32" t="s">
         <v>432</v>
       </c>
-      <c r="Y32" s="41" t="s">
+      <c r="Y32" t="s">
         <v>58</v>
       </c>
-      <c r="Z32" s="41" t="s">
+      <c r="Z32" t="s">
         <v>304</v>
       </c>
-      <c r="AA32" s="41" t="s">
+      <c r="AA32" t="s">
         <v>114</v>
       </c>
-      <c r="AB32" s="41" t="s">
+      <c r="AB32" t="s">
         <v>271</v>
       </c>
-      <c r="AC32" s="41" t="s">
+      <c r="AC32" t="s">
         <v>433</v>
       </c>
-      <c r="AD32" s="41" t="s">
+      <c r="AD32" t="s">
         <v>434</v>
       </c>
-      <c r="AE32" s="41" t="s">
+      <c r="AE32" t="s">
         <v>435</v>
       </c>
-      <c r="AF32" s="41" t="s">
+      <c r="AF32" t="s">
         <v>436</v>
       </c>
-      <c r="AG32" s="41" t="s">
+      <c r="AG32" t="s">
         <v>437</v>
       </c>
-      <c r="AH32" s="41">
+      <c r="AH32">
         <v>1</v>
       </c>
-      <c r="AI32" s="41"/>
     </row>
-    <row r="33" spans="1:35">
-      <c r="A33" s="41">
+    <row r="33" spans="1:34">
+      <c r="A33">
         <v>10304799</v>
       </c>
-      <c r="B33" s="41" t="s">
+      <c r="B33" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="41" t="s">
+      <c r="C33" t="s">
         <v>438</v>
       </c>
-      <c r="D33" s="41" t="s">
+      <c r="D33" t="s">
         <v>439</v>
       </c>
-      <c r="E33" s="41" t="s">
+      <c r="E33" t="s">
         <v>440</v>
       </c>
-      <c r="F33" s="41">
+      <c r="F33">
         <v>2023</v>
       </c>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41" t="s">
+      <c r="I33" t="s">
         <v>441</v>
       </c>
-      <c r="J33" s="41" t="s">
+      <c r="J33" t="s">
         <v>442</v>
       </c>
-      <c r="K33" s="41" t="s">
+      <c r="K33" t="s">
         <v>443</v>
       </c>
-      <c r="L33" s="41" t="s">
+      <c r="L33" t="s">
         <v>444</v>
       </c>
-      <c r="M33" s="41"/>
-      <c r="N33" s="41" t="s">
+      <c r="N33" t="s">
         <v>393</v>
       </c>
-      <c r="O33" s="41"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="41"/>
-      <c r="S33" s="41"/>
-      <c r="T33" s="41"/>
-      <c r="U33" s="41"/>
-      <c r="V33" s="41"/>
-      <c r="W33" s="41"/>
-      <c r="X33" s="41" t="s">
+      <c r="X33" t="s">
         <v>445</v>
       </c>
-      <c r="Y33" s="41" t="s">
+      <c r="Y33" t="s">
         <v>58</v>
       </c>
-      <c r="Z33" s="41" t="s">
+      <c r="Z33" t="s">
         <v>1018</v>
       </c>
-      <c r="AA33" s="41"/>
-      <c r="AB33" s="41"/>
-      <c r="AC33" s="41"/>
-      <c r="AD33" s="41"/>
-      <c r="AE33" s="41"/>
-      <c r="AF33" s="41"/>
-      <c r="AG33" s="41"/>
-      <c r="AH33" s="41"/>
-      <c r="AI33" s="41"/>
     </row>
-    <row r="34" spans="1:35">
-      <c r="A34" s="41">
+    <row r="34" spans="1:34">
+      <c r="A34">
         <v>10011478</v>
       </c>
-      <c r="B34" s="41" t="s">
+      <c r="B34" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="41" t="s">
+      <c r="C34" t="s">
         <v>446</v>
       </c>
-      <c r="D34" s="41" t="s">
+      <c r="D34" t="s">
         <v>447</v>
       </c>
-      <c r="E34" s="41" t="s">
+      <c r="E34" t="s">
         <v>448</v>
       </c>
-      <c r="F34" s="41">
+      <c r="F34">
         <v>2022</v>
       </c>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41" t="s">
+      <c r="I34" t="s">
         <v>449</v>
       </c>
-      <c r="J34" s="41" t="s">
+      <c r="J34" t="s">
         <v>450</v>
       </c>
-      <c r="K34" s="41" t="s">
+      <c r="K34" t="s">
         <v>451</v>
       </c>
-      <c r="L34" s="41" t="s">
+      <c r="L34" t="s">
         <v>452</v>
       </c>
-      <c r="M34" s="41"/>
-      <c r="N34" s="41" t="s">
+      <c r="N34" t="s">
         <v>231</v>
       </c>
-      <c r="O34" s="41"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="41"/>
-      <c r="S34" s="41"/>
-      <c r="T34" s="41"/>
-      <c r="U34" s="41"/>
-      <c r="V34" s="41"/>
-      <c r="W34" s="41"/>
-      <c r="X34" s="41" t="s">
+      <c r="X34" t="s">
         <v>453</v>
       </c>
-      <c r="Y34" s="41" t="s">
+      <c r="Y34" t="s">
         <v>58</v>
       </c>
-      <c r="Z34" s="41" t="s">
+      <c r="Z34" t="s">
         <v>220</v>
       </c>
-      <c r="AA34" s="41" t="s">
+      <c r="AA34" t="s">
         <v>408</v>
       </c>
-      <c r="AB34" s="41" t="s">
+      <c r="AB34" t="s">
         <v>1383</v>
       </c>
-      <c r="AC34" s="41" t="s">
+      <c r="AC34" t="s">
         <v>115</v>
       </c>
-      <c r="AD34" s="41" t="s">
+      <c r="AD34" t="s">
         <v>455</v>
       </c>
-      <c r="AE34" s="41" t="s">
+      <c r="AE34" t="s">
         <v>456</v>
       </c>
-      <c r="AF34" s="41" t="s">
+      <c r="AF34" t="s">
         <v>457</v>
       </c>
-      <c r="AG34" s="41" t="s">
+      <c r="AG34" t="s">
         <v>424</v>
       </c>
-      <c r="AH34" s="41">
+      <c r="AH34">
         <v>0.5</v>
       </c>
-      <c r="AI34" s="41"/>
     </row>
-    <row r="35" spans="1:35">
-      <c r="A35" s="41"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41" t="s">
+    <row r="35" spans="1:34">
+      <c r="C35" t="s">
         <v>458</v>
       </c>
-      <c r="D35" s="41" t="s">
+      <c r="D35" t="s">
         <v>459</v>
       </c>
-      <c r="E35" s="41" t="s">
+      <c r="E35" t="s">
         <v>460</v>
       </c>
-      <c r="F35" s="41">
+      <c r="F35">
         <v>2022</v>
       </c>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="41" t="s">
+      <c r="J35" t="s">
         <v>461</v>
       </c>
-      <c r="K35" s="41"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="41"/>
-      <c r="N35" s="41"/>
-      <c r="O35" s="41"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="41"/>
-      <c r="S35" s="41"/>
-      <c r="T35" s="41"/>
-      <c r="U35" s="41"/>
-      <c r="V35" s="41"/>
-      <c r="W35" s="41"/>
-      <c r="X35" s="41"/>
-      <c r="Y35" s="41" t="s">
+      <c r="Y35" t="s">
         <v>58</v>
       </c>
       <c r="Z35" t="s">
@@ -22723,44 +22275,24 @@
       <c r="AH35">
         <v>1</v>
       </c>
-      <c r="AI35" s="41"/>
     </row>
-    <row r="36" spans="1:35">
-      <c r="A36" s="41"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="41" t="s">
+    <row r="36" spans="1:34">
+      <c r="C36" t="s">
         <v>468</v>
       </c>
-      <c r="D36" s="41" t="s">
+      <c r="D36" t="s">
         <v>469</v>
       </c>
-      <c r="E36" s="41" t="s">
+      <c r="E36" t="s">
         <v>470</v>
       </c>
-      <c r="F36" s="41">
+      <c r="F36">
         <v>2018</v>
       </c>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41" t="s">
+      <c r="J36" t="s">
         <v>471</v>
       </c>
-      <c r="K36" s="41"/>
-      <c r="L36" s="41"/>
-      <c r="M36" s="41"/>
-      <c r="N36" s="41"/>
-      <c r="O36" s="41"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="41"/>
-      <c r="S36" s="41"/>
-      <c r="T36" s="41"/>
-      <c r="U36" s="41"/>
-      <c r="V36" s="41"/>
-      <c r="W36" s="41"/>
-      <c r="X36" s="41"/>
-      <c r="Y36" s="41" t="s">
+      <c r="Y36" t="s">
         <v>58</v>
       </c>
       <c r="Z36" t="s">
@@ -22787,44 +22319,24 @@
       <c r="AH36">
         <v>0.5</v>
       </c>
-      <c r="AI36" s="41"/>
     </row>
-    <row r="37" spans="1:35">
-      <c r="A37" s="41"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="41" t="s">
+    <row r="37" spans="1:34">
+      <c r="C37" t="s">
         <v>477</v>
       </c>
-      <c r="D37" s="41" t="s">
+      <c r="D37" t="s">
         <v>478</v>
       </c>
-      <c r="E37" s="41" t="s">
+      <c r="E37" t="s">
         <v>479</v>
       </c>
-      <c r="F37" s="41">
+      <c r="F37">
         <v>2016</v>
       </c>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="41" t="s">
+      <c r="J37" t="s">
         <v>480</v>
       </c>
-      <c r="K37" s="41"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="41"/>
-      <c r="N37" s="41"/>
-      <c r="O37" s="41"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="41"/>
-      <c r="S37" s="41"/>
-      <c r="T37" s="41"/>
-      <c r="U37" s="41"/>
-      <c r="V37" s="41"/>
-      <c r="W37" s="41"/>
-      <c r="X37" s="41"/>
-      <c r="Y37" s="41" t="s">
+      <c r="Y37" t="s">
         <v>58</v>
       </c>
       <c r="Z37" t="s">
@@ -22854,44 +22366,24 @@
       <c r="AH37">
         <v>1</v>
       </c>
-      <c r="AI37" s="41"/>
     </row>
-    <row r="38" spans="1:35">
-      <c r="A38" s="41"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41" t="s">
+    <row r="38" spans="1:34">
+      <c r="C38" t="s">
         <v>486</v>
       </c>
-      <c r="D38" s="41" t="s">
+      <c r="D38" t="s">
         <v>487</v>
       </c>
-      <c r="E38" s="41" t="s">
+      <c r="E38" t="s">
         <v>488</v>
       </c>
-      <c r="F38" s="41">
+      <c r="F38">
         <v>2019</v>
       </c>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41" t="s">
+      <c r="J38" t="s">
         <v>489</v>
       </c>
-      <c r="K38" s="41"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="41"/>
-      <c r="N38" s="41"/>
-      <c r="O38" s="41"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="41"/>
-      <c r="S38" s="41"/>
-      <c r="T38" s="41"/>
-      <c r="U38" s="41"/>
-      <c r="V38" s="41"/>
-      <c r="W38" s="41"/>
-      <c r="X38" s="41"/>
-      <c r="Y38" s="41" t="s">
+      <c r="Y38" t="s">
         <v>58</v>
       </c>
       <c r="Z38" t="s">
@@ -22918,44 +22410,24 @@
       <c r="AH38">
         <v>0</v>
       </c>
-      <c r="AI38" s="41"/>
     </row>
-    <row r="39" spans="1:35">
-      <c r="A39" s="41"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="41" t="s">
+    <row r="39" spans="1:34">
+      <c r="C39" t="s">
         <v>495</v>
       </c>
-      <c r="D39" s="41" t="s">
+      <c r="D39" t="s">
         <v>496</v>
       </c>
-      <c r="E39" s="41" t="s">
+      <c r="E39" t="s">
         <v>497</v>
       </c>
-      <c r="F39" s="41">
+      <c r="F39">
         <v>2016</v>
       </c>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41" t="s">
+      <c r="J39" t="s">
         <v>498</v>
       </c>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="41"/>
-      <c r="O39" s="41"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="41"/>
-      <c r="S39" s="41"/>
-      <c r="T39" s="41"/>
-      <c r="U39" s="41"/>
-      <c r="V39" s="41"/>
-      <c r="W39" s="41"/>
-      <c r="X39" s="41"/>
-      <c r="Y39" s="41" t="s">
+      <c r="Y39" t="s">
         <v>44</v>
       </c>
       <c r="Z39" t="s">
@@ -22982,44 +22454,24 @@
       <c r="AH39">
         <v>0</v>
       </c>
-      <c r="AI39" s="41"/>
     </row>
-    <row r="40" spans="1:35">
-      <c r="A40" s="41"/>
-      <c r="B40" s="41"/>
-      <c r="C40" s="41" t="s">
+    <row r="40" spans="1:34">
+      <c r="C40" t="s">
         <v>504</v>
       </c>
-      <c r="D40" s="41" t="s">
+      <c r="D40" t="s">
         <v>505</v>
       </c>
-      <c r="E40" s="41" t="s">
+      <c r="E40" t="s">
         <v>506</v>
       </c>
-      <c r="F40" s="41">
+      <c r="F40">
         <v>2018</v>
       </c>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41" t="s">
+      <c r="J40" t="s">
         <v>507</v>
       </c>
-      <c r="K40" s="41"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="41"/>
-      <c r="N40" s="41"/>
-      <c r="O40" s="41"/>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="41"/>
-      <c r="S40" s="41"/>
-      <c r="T40" s="41"/>
-      <c r="U40" s="41"/>
-      <c r="V40" s="41"/>
-      <c r="W40" s="41"/>
-      <c r="X40" s="41"/>
-      <c r="Y40" s="41" t="s">
+      <c r="Y40" t="s">
         <v>58</v>
       </c>
       <c r="Z40" t="s">
@@ -23046,44 +22498,24 @@
       <c r="AH40">
         <v>1</v>
       </c>
-      <c r="AI40" s="41"/>
     </row>
-    <row r="41" spans="1:35">
-      <c r="A41" s="41"/>
-      <c r="B41" s="41"/>
-      <c r="C41" s="41" t="s">
+    <row r="41" spans="1:34">
+      <c r="C41" t="s">
         <v>512</v>
       </c>
-      <c r="D41" s="41" t="s">
+      <c r="D41" t="s">
         <v>513</v>
       </c>
-      <c r="E41" s="41" t="s">
+      <c r="E41" t="s">
         <v>514</v>
       </c>
-      <c r="F41" s="41">
+      <c r="F41">
         <v>2021</v>
       </c>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="41" t="s">
+      <c r="J41" t="s">
         <v>515</v>
       </c>
-      <c r="K41" s="41"/>
-      <c r="L41" s="41"/>
-      <c r="M41" s="41"/>
-      <c r="N41" s="41"/>
-      <c r="O41" s="41"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="41"/>
-      <c r="R41" s="41"/>
-      <c r="S41" s="41"/>
-      <c r="T41" s="41"/>
-      <c r="U41" s="41"/>
-      <c r="V41" s="41"/>
-      <c r="W41" s="41"/>
-      <c r="X41" s="41"/>
-      <c r="Y41" s="41" t="s">
+      <c r="Y41" t="s">
         <v>58</v>
       </c>
       <c r="Z41" t="s">
@@ -23110,44 +22542,24 @@
       <c r="AH41">
         <v>1</v>
       </c>
-      <c r="AI41" s="41"/>
     </row>
-    <row r="42" spans="1:35">
-      <c r="A42" s="41"/>
-      <c r="B42" s="41"/>
-      <c r="C42" s="41" t="s">
+    <row r="42" spans="1:34">
+      <c r="C42" t="s">
         <v>521</v>
       </c>
-      <c r="D42" s="41" t="s">
+      <c r="D42" t="s">
         <v>522</v>
       </c>
-      <c r="E42" s="41" t="s">
+      <c r="E42" t="s">
         <v>523</v>
       </c>
-      <c r="F42" s="41">
+      <c r="F42">
         <v>2024</v>
       </c>
-      <c r="G42" s="41"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="41"/>
-      <c r="J42" s="41" t="s">
+      <c r="J42" t="s">
         <v>524</v>
       </c>
-      <c r="K42" s="41"/>
-      <c r="L42" s="41"/>
-      <c r="M42" s="41"/>
-      <c r="N42" s="41"/>
-      <c r="O42" s="41"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="41"/>
-      <c r="S42" s="41"/>
-      <c r="T42" s="41"/>
-      <c r="U42" s="41"/>
-      <c r="V42" s="41"/>
-      <c r="W42" s="41"/>
-      <c r="X42" s="41"/>
-      <c r="Y42" s="41" t="s">
+      <c r="Y42" t="s">
         <v>58</v>
       </c>
       <c r="Z42" t="s">
@@ -23177,87 +22589,47 @@
       <c r="AH42">
         <v>1</v>
       </c>
-      <c r="AI42" s="41"/>
     </row>
-    <row r="43" spans="1:35">
-      <c r="A43" s="41"/>
-      <c r="B43" s="41"/>
-      <c r="C43" s="41" t="s">
+    <row r="43" spans="1:34">
+      <c r="C43" t="s">
         <v>531</v>
       </c>
-      <c r="D43" s="41" t="s">
+      <c r="D43" t="s">
         <v>532</v>
       </c>
-      <c r="E43" s="41" t="s">
+      <c r="E43" t="s">
         <v>533</v>
       </c>
-      <c r="F43" s="41">
+      <c r="F43">
         <v>2023</v>
       </c>
-      <c r="G43" s="41"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="41" t="s">
+      <c r="J43" t="s">
         <v>534</v>
       </c>
-      <c r="K43" s="41"/>
-      <c r="L43" s="41"/>
-      <c r="M43" s="41"/>
-      <c r="N43" s="41"/>
-      <c r="O43" s="41"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="41"/>
-      <c r="S43" s="41"/>
-      <c r="T43" s="41"/>
-      <c r="U43" s="41"/>
-      <c r="V43" s="41"/>
-      <c r="W43" s="41"/>
-      <c r="X43" s="41"/>
-      <c r="Y43" s="41" t="s">
+      <c r="Y43" t="s">
         <v>44</v>
       </c>
       <c r="Z43" t="s">
         <v>535</v>
       </c>
-      <c r="AI43" s="41"/>
     </row>
-    <row r="44" spans="1:35">
-      <c r="A44" s="41"/>
-      <c r="B44" s="41"/>
-      <c r="C44" s="41" t="s">
+    <row r="44" spans="1:34">
+      <c r="C44" t="s">
         <v>536</v>
       </c>
-      <c r="D44" s="41" t="s">
+      <c r="D44" t="s">
         <v>537</v>
       </c>
-      <c r="E44" s="41" t="s">
+      <c r="E44" t="s">
         <v>538</v>
       </c>
-      <c r="F44" s="41">
+      <c r="F44">
         <v>2024</v>
       </c>
-      <c r="G44" s="41"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="41"/>
-      <c r="J44" s="41" t="s">
+      <c r="J44" t="s">
         <v>539</v>
       </c>
-      <c r="K44" s="41"/>
-      <c r="L44" s="41"/>
-      <c r="M44" s="41"/>
-      <c r="N44" s="41"/>
-      <c r="O44" s="41"/>
-      <c r="P44" s="41"/>
-      <c r="Q44" s="41"/>
-      <c r="R44" s="41"/>
-      <c r="S44" s="41"/>
-      <c r="T44" s="41"/>
-      <c r="U44" s="41"/>
-      <c r="V44" s="41"/>
-      <c r="W44" s="41"/>
-      <c r="X44" s="41"/>
-      <c r="Y44" s="41" t="s">
+      <c r="Y44" t="s">
         <v>58</v>
       </c>
       <c r="Z44" t="s">
@@ -23284,44 +22656,24 @@
       <c r="AH44">
         <v>1</v>
       </c>
-      <c r="AI44" s="41"/>
     </row>
-    <row r="45" spans="1:35">
-      <c r="A45" s="41"/>
-      <c r="B45" s="41"/>
-      <c r="C45" s="41" t="s">
+    <row r="45" spans="1:34">
+      <c r="C45" t="s">
         <v>545</v>
       </c>
-      <c r="D45" s="41" t="s">
+      <c r="D45" t="s">
         <v>546</v>
       </c>
-      <c r="E45" s="41" t="s">
+      <c r="E45" t="s">
         <v>547</v>
       </c>
-      <c r="F45" s="41">
+      <c r="F45">
         <v>2022</v>
       </c>
-      <c r="G45" s="41"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="41"/>
-      <c r="J45" s="41" t="s">
+      <c r="J45" t="s">
         <v>548</v>
       </c>
-      <c r="K45" s="41"/>
-      <c r="L45" s="41"/>
-      <c r="M45" s="41"/>
-      <c r="N45" s="41"/>
-      <c r="O45" s="41"/>
-      <c r="P45" s="41"/>
-      <c r="Q45" s="41"/>
-      <c r="R45" s="41"/>
-      <c r="S45" s="41"/>
-      <c r="T45" s="41"/>
-      <c r="U45" s="41"/>
-      <c r="V45" s="41"/>
-      <c r="W45" s="41"/>
-      <c r="X45" s="41"/>
-      <c r="Y45" s="41" t="s">
+      <c r="Y45" t="s">
         <v>58</v>
       </c>
       <c r="Z45" t="s">
@@ -23348,130 +22700,70 @@
       <c r="AH45" t="s">
         <v>555</v>
       </c>
-      <c r="AI45" s="41"/>
     </row>
-    <row r="46" spans="1:35">
-      <c r="A46" s="41"/>
-      <c r="B46" s="41"/>
-      <c r="C46" s="41" t="s">
+    <row r="46" spans="1:34">
+      <c r="C46" t="s">
         <v>556</v>
       </c>
-      <c r="D46" s="41" t="s">
+      <c r="D46" t="s">
         <v>557</v>
       </c>
-      <c r="E46" s="41" t="s">
+      <c r="E46" t="s">
         <v>558</v>
       </c>
-      <c r="F46" s="41">
+      <c r="F46">
         <v>2021</v>
       </c>
-      <c r="G46" s="41"/>
-      <c r="H46" s="41"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="41" t="s">
+      <c r="J46" t="s">
         <v>559</v>
       </c>
-      <c r="K46" s="41"/>
-      <c r="L46" s="41"/>
-      <c r="M46" s="41"/>
-      <c r="N46" s="41"/>
-      <c r="O46" s="41"/>
-      <c r="P46" s="41"/>
-      <c r="Q46" s="41"/>
-      <c r="R46" s="41"/>
-      <c r="S46" s="41"/>
-      <c r="T46" s="41"/>
-      <c r="U46" s="41"/>
-      <c r="V46" s="41"/>
-      <c r="W46" s="41"/>
-      <c r="X46" s="41"/>
-      <c r="Y46" s="41" t="s">
+      <c r="Y46" t="s">
         <v>77</v>
       </c>
       <c r="Z46" t="s">
         <v>560</v>
       </c>
-      <c r="AI46" s="41"/>
     </row>
-    <row r="47" spans="1:35">
-      <c r="A47" s="41"/>
-      <c r="B47" s="41"/>
-      <c r="C47" s="41" t="s">
+    <row r="47" spans="1:34">
+      <c r="C47" t="s">
         <v>561</v>
       </c>
-      <c r="D47" s="41" t="s">
+      <c r="D47" t="s">
         <v>562</v>
       </c>
-      <c r="E47" s="41" t="s">
+      <c r="E47" t="s">
         <v>563</v>
       </c>
-      <c r="F47" s="41">
+      <c r="F47">
         <v>2021</v>
       </c>
-      <c r="G47" s="41"/>
-      <c r="H47" s="41"/>
-      <c r="I47" s="41"/>
-      <c r="J47" s="41" t="s">
+      <c r="J47" t="s">
         <v>564</v>
       </c>
-      <c r="K47" s="41"/>
-      <c r="L47" s="41"/>
-      <c r="M47" s="41"/>
-      <c r="N47" s="41"/>
-      <c r="O47" s="41"/>
-      <c r="P47" s="41"/>
-      <c r="Q47" s="41"/>
-      <c r="R47" s="41"/>
-      <c r="S47" s="41"/>
-      <c r="T47" s="41"/>
-      <c r="U47" s="41"/>
-      <c r="V47" s="41"/>
-      <c r="W47" s="41"/>
-      <c r="X47" s="41"/>
-      <c r="Y47" s="41" t="s">
+      <c r="Y47" t="s">
         <v>44</v>
       </c>
       <c r="Z47" t="s">
         <v>560</v>
       </c>
-      <c r="AI47" s="41"/>
     </row>
-    <row r="48" spans="1:35">
-      <c r="A48" s="41"/>
-      <c r="B48" s="41"/>
-      <c r="C48" s="41" t="s">
+    <row r="48" spans="1:34">
+      <c r="C48" t="s">
         <v>565</v>
       </c>
-      <c r="D48" s="41" t="s">
+      <c r="D48" t="s">
         <v>566</v>
       </c>
-      <c r="E48" s="41" t="s">
+      <c r="E48" t="s">
         <v>567</v>
       </c>
-      <c r="F48" s="41">
+      <c r="F48">
         <v>2024</v>
       </c>
-      <c r="G48" s="41"/>
-      <c r="H48" s="41"/>
-      <c r="I48" s="41"/>
-      <c r="J48" s="41" t="s">
+      <c r="J48" t="s">
         <v>568</v>
       </c>
-      <c r="K48" s="41"/>
-      <c r="L48" s="41"/>
-      <c r="M48" s="41"/>
-      <c r="N48" s="41"/>
-      <c r="O48" s="41"/>
-      <c r="P48" s="41"/>
-      <c r="Q48" s="41"/>
-      <c r="R48" s="41"/>
-      <c r="S48" s="41"/>
-      <c r="T48" s="41"/>
-      <c r="U48" s="41"/>
-      <c r="V48" s="41"/>
-      <c r="W48" s="41"/>
-      <c r="X48" s="41"/>
-      <c r="Y48" s="41" t="s">
+      <c r="Y48" t="s">
         <v>58</v>
       </c>
       <c r="Z48" t="s">
@@ -23498,44 +22790,24 @@
       <c r="AH48">
         <v>0.5</v>
       </c>
-      <c r="AI48" s="41"/>
     </row>
-    <row r="49" spans="1:35">
-      <c r="A49" s="41"/>
-      <c r="B49" s="41"/>
-      <c r="C49" s="41" t="s">
+    <row r="49" spans="3:34">
+      <c r="C49" t="s">
         <v>574</v>
       </c>
-      <c r="D49" s="41" t="s">
+      <c r="D49" t="s">
         <v>575</v>
       </c>
-      <c r="E49" s="41" t="s">
+      <c r="E49" t="s">
         <v>576</v>
       </c>
-      <c r="F49" s="41">
+      <c r="F49">
         <v>2021</v>
       </c>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41"/>
-      <c r="I49" s="41"/>
-      <c r="J49" s="41" t="s">
+      <c r="J49" t="s">
         <v>577</v>
       </c>
-      <c r="K49" s="41"/>
-      <c r="L49" s="41"/>
-      <c r="M49" s="41"/>
-      <c r="N49" s="41"/>
-      <c r="O49" s="41"/>
-      <c r="P49" s="41"/>
-      <c r="Q49" s="41"/>
-      <c r="R49" s="41"/>
-      <c r="S49" s="41"/>
-      <c r="T49" s="41"/>
-      <c r="U49" s="41"/>
-      <c r="V49" s="41"/>
-      <c r="W49" s="41"/>
-      <c r="X49" s="41"/>
-      <c r="Y49" s="41" t="s">
+      <c r="Y49" t="s">
         <v>58</v>
       </c>
       <c r="Z49" t="s">
@@ -23562,44 +22834,24 @@
       <c r="AH49">
         <v>0.5</v>
       </c>
-      <c r="AI49" s="41"/>
     </row>
-    <row r="50" spans="1:35">
-      <c r="A50" s="41"/>
-      <c r="B50" s="41"/>
-      <c r="C50" s="41" t="s">
+    <row r="50" spans="3:34">
+      <c r="C50" t="s">
         <v>583</v>
       </c>
-      <c r="D50" s="41" t="s">
+      <c r="D50" t="s">
         <v>584</v>
       </c>
-      <c r="E50" s="41" t="s">
+      <c r="E50" t="s">
         <v>585</v>
       </c>
-      <c r="F50" s="41">
+      <c r="F50">
         <v>2019</v>
       </c>
-      <c r="G50" s="41"/>
-      <c r="H50" s="41"/>
-      <c r="I50" s="41"/>
-      <c r="J50" s="41" t="s">
+      <c r="J50" t="s">
         <v>586</v>
       </c>
-      <c r="K50" s="41"/>
-      <c r="L50" s="41"/>
-      <c r="M50" s="41"/>
-      <c r="N50" s="41"/>
-      <c r="O50" s="41"/>
-      <c r="P50" s="41"/>
-      <c r="Q50" s="41"/>
-      <c r="R50" s="41"/>
-      <c r="S50" s="41"/>
-      <c r="T50" s="41"/>
-      <c r="U50" s="41"/>
-      <c r="V50" s="41"/>
-      <c r="W50" s="41"/>
-      <c r="X50" s="41"/>
-      <c r="Y50" s="41" t="s">
+      <c r="Y50" t="s">
         <v>58</v>
       </c>
       <c r="Z50" t="s">
@@ -23626,44 +22878,24 @@
       <c r="AH50">
         <v>0</v>
       </c>
-      <c r="AI50" s="41"/>
     </row>
-    <row r="51" spans="1:35">
-      <c r="A51" s="41"/>
-      <c r="B51" s="41"/>
-      <c r="C51" s="41" t="s">
+    <row r="51" spans="3:34">
+      <c r="C51" t="s">
         <v>592</v>
       </c>
-      <c r="D51" s="41" t="s">
+      <c r="D51" t="s">
         <v>593</v>
       </c>
-      <c r="E51" s="41" t="s">
+      <c r="E51" t="s">
         <v>594</v>
       </c>
-      <c r="F51" s="41">
+      <c r="F51">
         <v>2022</v>
       </c>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="41"/>
-      <c r="J51" s="41" t="s">
+      <c r="J51" t="s">
         <v>595</v>
       </c>
-      <c r="K51" s="41"/>
-      <c r="L51" s="41"/>
-      <c r="M51" s="41"/>
-      <c r="N51" s="41"/>
-      <c r="O51" s="41"/>
-      <c r="P51" s="41"/>
-      <c r="Q51" s="41"/>
-      <c r="R51" s="41"/>
-      <c r="S51" s="41"/>
-      <c r="T51" s="41"/>
-      <c r="U51" s="41"/>
-      <c r="V51" s="41"/>
-      <c r="W51" s="41"/>
-      <c r="X51" s="41"/>
-      <c r="Y51" s="41" t="s">
+      <c r="Y51" t="s">
         <v>58</v>
       </c>
       <c r="Z51" t="s">
@@ -23690,44 +22922,24 @@
       <c r="AH51">
         <v>0</v>
       </c>
-      <c r="AI51" s="41"/>
     </row>
-    <row r="52" spans="1:35">
-      <c r="A52" s="41"/>
-      <c r="B52" s="41"/>
-      <c r="C52" s="41" t="s">
+    <row r="52" spans="3:34">
+      <c r="C52" t="s">
         <v>600</v>
       </c>
-      <c r="D52" s="41" t="s">
+      <c r="D52" t="s">
         <v>601</v>
       </c>
-      <c r="E52" s="41" t="s">
+      <c r="E52" t="s">
         <v>602</v>
       </c>
-      <c r="F52" s="41">
+      <c r="F52">
         <v>2022</v>
       </c>
-      <c r="G52" s="41"/>
-      <c r="H52" s="41"/>
-      <c r="I52" s="41"/>
-      <c r="J52" s="41" t="s">
+      <c r="J52" t="s">
         <v>603</v>
       </c>
-      <c r="K52" s="41"/>
-      <c r="L52" s="41"/>
-      <c r="M52" s="41"/>
-      <c r="N52" s="41"/>
-      <c r="O52" s="41"/>
-      <c r="P52" s="41"/>
-      <c r="Q52" s="41"/>
-      <c r="R52" s="41"/>
-      <c r="S52" s="41"/>
-      <c r="T52" s="41"/>
-      <c r="U52" s="41"/>
-      <c r="V52" s="41"/>
-      <c r="W52" s="41"/>
-      <c r="X52" s="41"/>
-      <c r="Y52" s="41" t="s">
+      <c r="Y52" t="s">
         <v>58</v>
       </c>
       <c r="Z52" t="s">
@@ -23757,44 +22969,24 @@
       <c r="AH52">
         <v>0</v>
       </c>
-      <c r="AI52" s="41"/>
     </row>
-    <row r="53" spans="1:35">
-      <c r="A53" s="41"/>
-      <c r="B53" s="41"/>
-      <c r="C53" s="41" t="s">
+    <row r="53" spans="3:34">
+      <c r="C53" t="s">
         <v>609</v>
       </c>
-      <c r="D53" s="41" t="s">
+      <c r="D53" t="s">
         <v>610</v>
       </c>
-      <c r="E53" s="41" t="s">
+      <c r="E53" t="s">
         <v>611</v>
       </c>
-      <c r="F53" s="41">
+      <c r="F53">
         <v>2022</v>
       </c>
-      <c r="G53" s="41"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="41"/>
-      <c r="J53" s="41" t="s">
+      <c r="J53" t="s">
         <v>612</v>
       </c>
-      <c r="K53" s="41"/>
-      <c r="L53" s="41"/>
-      <c r="M53" s="41"/>
-      <c r="N53" s="41"/>
-      <c r="O53" s="41"/>
-      <c r="P53" s="41"/>
-      <c r="Q53" s="41"/>
-      <c r="R53" s="41"/>
-      <c r="S53" s="41"/>
-      <c r="T53" s="41"/>
-      <c r="U53" s="41"/>
-      <c r="V53" s="41"/>
-      <c r="W53" s="41"/>
-      <c r="X53" s="41"/>
-      <c r="Y53" s="41" t="s">
+      <c r="Y53" t="s">
         <v>58</v>
       </c>
       <c r="Z53" t="s">
@@ -23821,44 +23013,24 @@
       <c r="AH53">
         <v>0</v>
       </c>
-      <c r="AI53" s="41"/>
     </row>
-    <row r="54" spans="1:35">
-      <c r="A54" s="41"/>
-      <c r="B54" s="41"/>
-      <c r="C54" s="41" t="s">
+    <row r="54" spans="3:34">
+      <c r="C54" t="s">
         <v>618</v>
       </c>
-      <c r="D54" s="41" t="s">
+      <c r="D54" t="s">
         <v>619</v>
       </c>
-      <c r="E54" s="41" t="s">
+      <c r="E54" t="s">
         <v>620</v>
       </c>
-      <c r="F54" s="41">
+      <c r="F54">
         <v>2023</v>
       </c>
-      <c r="G54" s="41"/>
-      <c r="H54" s="41"/>
-      <c r="I54" s="41"/>
-      <c r="J54" s="41" t="s">
+      <c r="J54" t="s">
         <v>621</v>
       </c>
-      <c r="K54" s="41"/>
-      <c r="L54" s="41"/>
-      <c r="M54" s="41"/>
-      <c r="N54" s="41"/>
-      <c r="O54" s="41"/>
-      <c r="P54" s="41"/>
-      <c r="Q54" s="41"/>
-      <c r="R54" s="41"/>
-      <c r="S54" s="41"/>
-      <c r="T54" s="41"/>
-      <c r="U54" s="41"/>
-      <c r="V54" s="41"/>
-      <c r="W54" s="41"/>
-      <c r="X54" s="41"/>
-      <c r="Y54" s="41" t="s">
+      <c r="Y54" t="s">
         <v>58</v>
       </c>
       <c r="Z54" t="s">
@@ -23885,44 +23057,24 @@
       <c r="AH54">
         <v>1</v>
       </c>
-      <c r="AI54" s="41"/>
     </row>
-    <row r="55" spans="1:35">
-      <c r="A55" s="41"/>
-      <c r="B55" s="41"/>
-      <c r="C55" s="41" t="s">
+    <row r="55" spans="3:34">
+      <c r="C55" t="s">
         <v>626</v>
       </c>
-      <c r="D55" s="41" t="s">
+      <c r="D55" t="s">
         <v>627</v>
       </c>
-      <c r="E55" s="41" t="s">
+      <c r="E55" t="s">
         <v>628</v>
       </c>
-      <c r="F55" s="41">
+      <c r="F55">
         <v>2022</v>
       </c>
-      <c r="G55" s="41"/>
-      <c r="H55" s="41"/>
-      <c r="I55" s="41"/>
-      <c r="J55" s="41" t="s">
+      <c r="J55" t="s">
         <v>629</v>
       </c>
-      <c r="K55" s="41"/>
-      <c r="L55" s="41"/>
-      <c r="M55" s="41"/>
-      <c r="N55" s="41"/>
-      <c r="O55" s="41"/>
-      <c r="P55" s="41"/>
-      <c r="Q55" s="41"/>
-      <c r="R55" s="41"/>
-      <c r="S55" s="41"/>
-      <c r="T55" s="41"/>
-      <c r="U55" s="41"/>
-      <c r="V55" s="41"/>
-      <c r="W55" s="41"/>
-      <c r="X55" s="41"/>
-      <c r="Y55" s="41" t="s">
+      <c r="Y55" t="s">
         <v>58</v>
       </c>
       <c r="Z55" t="s">
@@ -23949,44 +23101,24 @@
       <c r="AH55">
         <v>0.5</v>
       </c>
-      <c r="AI55" s="41"/>
     </row>
-    <row r="56" spans="1:35">
-      <c r="A56" s="41"/>
-      <c r="B56" s="41"/>
-      <c r="C56" s="41" t="s">
+    <row r="56" spans="3:34">
+      <c r="C56" t="s">
         <v>635</v>
       </c>
-      <c r="D56" s="41" t="s">
+      <c r="D56" t="s">
         <v>636</v>
       </c>
-      <c r="E56" s="41" t="s">
+      <c r="E56" t="s">
         <v>637</v>
       </c>
-      <c r="F56" s="41">
+      <c r="F56">
         <v>2023</v>
       </c>
-      <c r="G56" s="41"/>
-      <c r="H56" s="41"/>
-      <c r="I56" s="41"/>
-      <c r="J56" s="41" t="s">
+      <c r="J56" t="s">
         <v>638</v>
       </c>
-      <c r="K56" s="41"/>
-      <c r="L56" s="41"/>
-      <c r="M56" s="41"/>
-      <c r="N56" s="41"/>
-      <c r="O56" s="41"/>
-      <c r="P56" s="41"/>
-      <c r="Q56" s="41"/>
-      <c r="R56" s="41"/>
-      <c r="S56" s="41"/>
-      <c r="T56" s="41"/>
-      <c r="U56" s="41"/>
-      <c r="V56" s="41"/>
-      <c r="W56" s="41"/>
-      <c r="X56" s="41"/>
-      <c r="Y56" s="41" t="s">
+      <c r="Y56" t="s">
         <v>58</v>
       </c>
       <c r="Z56" t="s">
@@ -24016,44 +23148,24 @@
       <c r="AH56">
         <v>0.5</v>
       </c>
-      <c r="AI56" s="41"/>
     </row>
-    <row r="57" spans="1:35">
-      <c r="A57" s="41"/>
-      <c r="B57" s="41"/>
-      <c r="C57" s="41" t="s">
+    <row r="57" spans="3:34">
+      <c r="C57" t="s">
         <v>643</v>
       </c>
-      <c r="D57" s="41" t="s">
+      <c r="D57" t="s">
         <v>644</v>
       </c>
-      <c r="E57" s="41" t="s">
+      <c r="E57" t="s">
         <v>645</v>
       </c>
-      <c r="F57" s="41">
+      <c r="F57">
         <v>2023</v>
       </c>
-      <c r="G57" s="41"/>
-      <c r="H57" s="41"/>
-      <c r="I57" s="41"/>
-      <c r="J57" s="41" t="s">
+      <c r="J57" t="s">
         <v>646</v>
       </c>
-      <c r="K57" s="41"/>
-      <c r="L57" s="41"/>
-      <c r="M57" s="41"/>
-      <c r="N57" s="41"/>
-      <c r="O57" s="41"/>
-      <c r="P57" s="41"/>
-      <c r="Q57" s="41"/>
-      <c r="R57" s="41"/>
-      <c r="S57" s="41"/>
-      <c r="T57" s="41"/>
-      <c r="U57" s="41"/>
-      <c r="V57" s="41"/>
-      <c r="W57" s="41"/>
-      <c r="X57" s="41"/>
-      <c r="Y57" s="41" t="s">
+      <c r="Y57" t="s">
         <v>58</v>
       </c>
       <c r="Z57" t="s">
@@ -24080,87 +23192,47 @@
       <c r="AH57">
         <v>0</v>
       </c>
-      <c r="AI57" s="41"/>
     </row>
-    <row r="58" spans="1:35">
-      <c r="A58" s="41"/>
-      <c r="B58" s="41"/>
-      <c r="C58" s="41" t="s">
+    <row r="58" spans="3:34">
+      <c r="C58" t="s">
         <v>651</v>
       </c>
-      <c r="D58" s="41" t="s">
+      <c r="D58" t="s">
         <v>652</v>
       </c>
-      <c r="E58" s="41" t="s">
+      <c r="E58" t="s">
         <v>653</v>
       </c>
-      <c r="F58" s="41">
+      <c r="F58">
         <v>2019</v>
       </c>
-      <c r="G58" s="41"/>
-      <c r="H58" s="41"/>
-      <c r="I58" s="41"/>
-      <c r="J58" s="41" t="s">
+      <c r="J58" t="s">
         <v>654</v>
       </c>
-      <c r="K58" s="41"/>
-      <c r="L58" s="41"/>
-      <c r="M58" s="41"/>
-      <c r="N58" s="41"/>
-      <c r="O58" s="41"/>
-      <c r="P58" s="41"/>
-      <c r="Q58" s="41"/>
-      <c r="R58" s="41"/>
-      <c r="S58" s="41"/>
-      <c r="T58" s="41"/>
-      <c r="U58" s="41"/>
-      <c r="V58" s="41"/>
-      <c r="W58" s="41"/>
-      <c r="X58" s="41"/>
-      <c r="Y58" s="41" t="s">
+      <c r="Y58" t="s">
         <v>77</v>
       </c>
       <c r="Z58" t="s">
         <v>655</v>
       </c>
-      <c r="AI58" s="41"/>
     </row>
-    <row r="59" spans="1:35">
-      <c r="A59" s="41"/>
-      <c r="B59" s="41"/>
-      <c r="C59" s="41" t="s">
+    <row r="59" spans="3:34">
+      <c r="C59" t="s">
         <v>656</v>
       </c>
-      <c r="D59" s="41" t="s">
+      <c r="D59" t="s">
         <v>636</v>
       </c>
-      <c r="E59" s="41" t="s">
+      <c r="E59" t="s">
         <v>657</v>
       </c>
-      <c r="F59" s="41">
+      <c r="F59">
         <v>2023</v>
       </c>
-      <c r="G59" s="41"/>
-      <c r="H59" s="41"/>
-      <c r="I59" s="41"/>
-      <c r="J59" s="41" t="s">
+      <c r="J59" t="s">
         <v>658</v>
       </c>
-      <c r="K59" s="41"/>
-      <c r="L59" s="41"/>
-      <c r="M59" s="41"/>
-      <c r="N59" s="41"/>
-      <c r="O59" s="41"/>
-      <c r="P59" s="41"/>
-      <c r="Q59" s="41"/>
-      <c r="R59" s="41"/>
-      <c r="S59" s="41"/>
-      <c r="T59" s="41"/>
-      <c r="U59" s="41"/>
-      <c r="V59" s="41"/>
-      <c r="W59" s="41"/>
-      <c r="X59" s="41"/>
-      <c r="Y59" s="41" t="s">
+      <c r="Y59" t="s">
         <v>58</v>
       </c>
       <c r="Z59" t="s">
@@ -24190,44 +23262,24 @@
       <c r="AH59">
         <v>0</v>
       </c>
-      <c r="AI59" s="41"/>
     </row>
-    <row r="60" spans="1:35">
-      <c r="A60" s="41"/>
-      <c r="B60" s="41"/>
-      <c r="C60" s="41" t="s">
+    <row r="60" spans="3:34">
+      <c r="C60" t="s">
         <v>664</v>
       </c>
-      <c r="D60" s="41" t="s">
+      <c r="D60" t="s">
         <v>665</v>
       </c>
-      <c r="E60" s="41" t="s">
+      <c r="E60" t="s">
         <v>666</v>
       </c>
-      <c r="F60" s="41">
+      <c r="F60">
         <v>2021</v>
       </c>
-      <c r="G60" s="41"/>
-      <c r="H60" s="41"/>
-      <c r="I60" s="41"/>
-      <c r="J60" s="41" t="s">
+      <c r="J60" t="s">
         <v>667</v>
       </c>
-      <c r="K60" s="41"/>
-      <c r="L60" s="41"/>
-      <c r="M60" s="41"/>
-      <c r="N60" s="41"/>
-      <c r="O60" s="41"/>
-      <c r="P60" s="41"/>
-      <c r="Q60" s="41"/>
-      <c r="R60" s="41"/>
-      <c r="S60" s="41"/>
-      <c r="T60" s="41"/>
-      <c r="U60" s="41"/>
-      <c r="V60" s="41"/>
-      <c r="W60" s="41"/>
-      <c r="X60" s="41"/>
-      <c r="Y60" s="41" t="s">
+      <c r="Y60" t="s">
         <v>58</v>
       </c>
       <c r="Z60" t="s">
@@ -24257,44 +23309,24 @@
       <c r="AH60">
         <v>0</v>
       </c>
-      <c r="AI60" s="41"/>
     </row>
-    <row r="61" spans="1:35">
-      <c r="A61" s="41"/>
-      <c r="B61" s="41"/>
-      <c r="C61" s="41" t="s">
+    <row r="61" spans="3:34">
+      <c r="C61" t="s">
         <v>671</v>
       </c>
-      <c r="D61" s="41" t="s">
+      <c r="D61" t="s">
         <v>672</v>
       </c>
-      <c r="E61" s="41" t="s">
+      <c r="E61" t="s">
         <v>673</v>
       </c>
-      <c r="F61" s="41">
+      <c r="F61">
         <v>2022</v>
       </c>
-      <c r="G61" s="41"/>
-      <c r="H61" s="41"/>
-      <c r="I61" s="41"/>
-      <c r="J61" s="41" t="s">
+      <c r="J61" t="s">
         <v>674</v>
       </c>
-      <c r="K61" s="41"/>
-      <c r="L61" s="41"/>
-      <c r="M61" s="41"/>
-      <c r="N61" s="41"/>
-      <c r="O61" s="41"/>
-      <c r="P61" s="41"/>
-      <c r="Q61" s="41"/>
-      <c r="R61" s="41"/>
-      <c r="S61" s="41"/>
-      <c r="T61" s="41"/>
-      <c r="U61" s="41"/>
-      <c r="V61" s="41"/>
-      <c r="W61" s="41"/>
-      <c r="X61" s="41"/>
-      <c r="Y61" s="41" t="s">
+      <c r="Y61" t="s">
         <v>58</v>
       </c>
       <c r="Z61" t="s">
@@ -24324,44 +23356,24 @@
       <c r="AH61">
         <v>0</v>
       </c>
-      <c r="AI61" s="41"/>
     </row>
-    <row r="62" spans="1:35">
-      <c r="A62" s="41"/>
-      <c r="B62" s="41"/>
-      <c r="C62" s="41" t="s">
+    <row r="62" spans="3:34">
+      <c r="C62" t="s">
         <v>680</v>
       </c>
-      <c r="D62" s="41" t="s">
+      <c r="D62" t="s">
         <v>681</v>
       </c>
-      <c r="E62" s="41" t="s">
+      <c r="E62" t="s">
         <v>682</v>
       </c>
-      <c r="F62" s="41">
+      <c r="F62">
         <v>2024</v>
       </c>
-      <c r="G62" s="41"/>
-      <c r="H62" s="41"/>
-      <c r="I62" s="41"/>
-      <c r="J62" s="41" t="s">
+      <c r="J62" t="s">
         <v>683</v>
       </c>
-      <c r="K62" s="41"/>
-      <c r="L62" s="41"/>
-      <c r="M62" s="41"/>
-      <c r="N62" s="41"/>
-      <c r="O62" s="41"/>
-      <c r="P62" s="41"/>
-      <c r="Q62" s="41"/>
-      <c r="R62" s="41"/>
-      <c r="S62" s="41"/>
-      <c r="T62" s="41"/>
-      <c r="U62" s="41"/>
-      <c r="V62" s="41"/>
-      <c r="W62" s="41"/>
-      <c r="X62" s="41"/>
-      <c r="Y62" s="41" t="s">
+      <c r="Y62" t="s">
         <v>58</v>
       </c>
       <c r="Z62" t="s">
@@ -24391,44 +23403,24 @@
       <c r="AH62">
         <v>0</v>
       </c>
-      <c r="AI62" s="41"/>
     </row>
-    <row r="63" spans="1:35">
-      <c r="A63" s="41"/>
-      <c r="B63" s="41"/>
-      <c r="C63" s="41" t="s">
+    <row r="63" spans="3:34">
+      <c r="C63" t="s">
         <v>689</v>
       </c>
-      <c r="D63" s="41" t="s">
+      <c r="D63" t="s">
         <v>459</v>
       </c>
-      <c r="E63" s="41" t="s">
+      <c r="E63" t="s">
         <v>690</v>
       </c>
-      <c r="F63" s="41">
+      <c r="F63">
         <v>2024</v>
       </c>
-      <c r="G63" s="41"/>
-      <c r="H63" s="41"/>
-      <c r="I63" s="41"/>
-      <c r="J63" s="41" t="s">
+      <c r="J63" t="s">
         <v>691</v>
       </c>
-      <c r="K63" s="41"/>
-      <c r="L63" s="41"/>
-      <c r="M63" s="41"/>
-      <c r="N63" s="41"/>
-      <c r="O63" s="41"/>
-      <c r="P63" s="41"/>
-      <c r="Q63" s="41"/>
-      <c r="R63" s="41"/>
-      <c r="S63" s="41"/>
-      <c r="T63" s="41"/>
-      <c r="U63" s="41"/>
-      <c r="V63" s="41"/>
-      <c r="W63" s="41"/>
-      <c r="X63" s="41"/>
-      <c r="Y63" s="41" t="s">
+      <c r="Y63" t="s">
         <v>58</v>
       </c>
       <c r="Z63" t="s">
@@ -24458,44 +23450,24 @@
       <c r="AH63">
         <v>1</v>
       </c>
-      <c r="AI63" s="41"/>
     </row>
-    <row r="64" spans="1:35">
-      <c r="A64" s="41"/>
-      <c r="B64" s="41"/>
-      <c r="C64" s="41" t="s">
+    <row r="64" spans="3:34">
+      <c r="C64" t="s">
         <v>696</v>
       </c>
-      <c r="D64" s="41" t="s">
+      <c r="D64" t="s">
         <v>513</v>
       </c>
-      <c r="E64" s="41" t="s">
+      <c r="E64" t="s">
         <v>697</v>
       </c>
-      <c r="F64" s="41">
+      <c r="F64">
         <v>2015</v>
       </c>
-      <c r="G64" s="41"/>
-      <c r="H64" s="41"/>
-      <c r="I64" s="41"/>
-      <c r="J64" s="41" t="s">
+      <c r="J64" t="s">
         <v>698</v>
       </c>
-      <c r="K64" s="41"/>
-      <c r="L64" s="41"/>
-      <c r="M64" s="41"/>
-      <c r="N64" s="41"/>
-      <c r="O64" s="41"/>
-      <c r="P64" s="41"/>
-      <c r="Q64" s="41"/>
-      <c r="R64" s="41"/>
-      <c r="S64" s="41"/>
-      <c r="T64" s="41"/>
-      <c r="U64" s="41"/>
-      <c r="V64" s="41"/>
-      <c r="W64" s="41"/>
-      <c r="X64" s="41"/>
-      <c r="Y64" s="41" t="s">
+      <c r="Y64" t="s">
         <v>58</v>
       </c>
       <c r="Z64" t="s">
@@ -24525,7 +23497,6 @@
       <c r="AH64">
         <v>0.5</v>
       </c>
-      <c r="AI64" s="41"/>
     </row>
     <row r="65" spans="1:35">
       <c r="A65" s="24">
@@ -26767,2109 +25738,1511 @@
       <c r="AI95" s="25"/>
     </row>
     <row r="96" spans="1:35">
-      <c r="A96" s="41">
+      <c r="A96">
         <v>42</v>
       </c>
-      <c r="B96" s="41"/>
-      <c r="C96" s="41" t="s">
+      <c r="C96" t="s">
         <v>1014</v>
       </c>
-      <c r="D96" s="41" t="s">
+      <c r="D96" t="s">
         <v>1015</v>
       </c>
-      <c r="E96" s="41" t="s">
+      <c r="E96" t="s">
         <v>1016</v>
       </c>
-      <c r="F96" s="41">
+      <c r="F96">
         <v>2018</v>
       </c>
-      <c r="G96" s="41"/>
-      <c r="H96" s="41"/>
-      <c r="I96" s="41"/>
-      <c r="J96" s="41" t="s">
+      <c r="J96" t="s">
         <v>1017</v>
       </c>
-      <c r="K96" s="41"/>
-      <c r="L96" s="41"/>
-      <c r="M96" s="41"/>
-      <c r="N96" s="41"/>
-      <c r="O96" s="41"/>
-      <c r="P96" s="41"/>
-      <c r="Q96" s="41"/>
-      <c r="R96" s="41"/>
-      <c r="S96" s="41"/>
-      <c r="T96" s="41"/>
-      <c r="U96" s="41"/>
-      <c r="V96" s="41"/>
-      <c r="W96" s="41"/>
-      <c r="X96" s="41"/>
-      <c r="Y96" s="41" t="s">
+      <c r="Y96" t="s">
         <v>58</v>
       </c>
-      <c r="Z96" s="41" t="s">
+      <c r="Z96" t="s">
         <v>1018</v>
       </c>
-      <c r="AA96" s="41" t="s">
+      <c r="AA96" t="s">
         <v>1368</v>
       </c>
-      <c r="AB96" s="41" t="s">
+      <c r="AB96" t="s">
         <v>1383</v>
       </c>
-      <c r="AC96" s="41" t="s">
+      <c r="AC96" t="s">
         <v>1019</v>
       </c>
-      <c r="AD96" s="41" t="s">
+      <c r="AD96" t="s">
         <v>1020</v>
       </c>
-      <c r="AE96" s="41" t="s">
+      <c r="AE96" t="s">
         <v>1021</v>
       </c>
-      <c r="AF96" s="41" t="s">
+      <c r="AF96" t="s">
         <v>1022</v>
       </c>
-      <c r="AG96" s="41" t="s">
+      <c r="AG96" t="s">
         <v>1023</v>
       </c>
-      <c r="AH96" s="41">
-        <v>0</v>
-      </c>
-      <c r="AI96" s="44" t="s">
+      <c r="AH96">
+        <v>0</v>
+      </c>
+      <c r="AI96" s="41" t="s">
         <v>1024</v>
       </c>
     </row>
     <row r="97" spans="1:35">
-      <c r="A97" s="41">
+      <c r="A97">
         <v>128</v>
       </c>
-      <c r="B97" s="41"/>
-      <c r="C97" s="41" t="s">
+      <c r="C97" t="s">
         <v>1025</v>
       </c>
-      <c r="D97" s="41" t="s">
+      <c r="D97" t="s">
         <v>1026</v>
       </c>
-      <c r="E97" s="41" t="s">
+      <c r="E97" t="s">
         <v>1027</v>
       </c>
-      <c r="F97" s="41">
+      <c r="F97">
         <v>2020</v>
       </c>
-      <c r="G97" s="41"/>
-      <c r="H97" s="41"/>
-      <c r="I97" s="41"/>
-      <c r="J97" s="41" t="s">
+      <c r="J97" t="s">
         <v>1028</v>
       </c>
-      <c r="K97" s="41"/>
-      <c r="L97" s="41"/>
-      <c r="M97" s="41"/>
-      <c r="N97" s="41"/>
-      <c r="O97" s="41"/>
-      <c r="P97" s="41"/>
-      <c r="Q97" s="41"/>
-      <c r="R97" s="41"/>
-      <c r="S97" s="41"/>
-      <c r="T97" s="41"/>
-      <c r="U97" s="41"/>
-      <c r="V97" s="41"/>
-      <c r="W97" s="41"/>
-      <c r="X97" s="41"/>
-      <c r="Y97" s="41" t="s">
+      <c r="Y97" t="s">
         <v>58</v>
       </c>
-      <c r="Z97" s="41" t="s">
+      <c r="Z97" t="s">
         <v>1051</v>
       </c>
-      <c r="AA97" s="41" t="s">
+      <c r="AA97" t="s">
         <v>60</v>
       </c>
-      <c r="AB97" s="41" t="s">
+      <c r="AB97" t="s">
         <v>1383</v>
       </c>
-      <c r="AC97" s="41" t="s">
+      <c r="AC97" t="s">
         <v>1029</v>
       </c>
-      <c r="AD97" s="41" t="s">
+      <c r="AD97" t="s">
         <v>1030</v>
       </c>
-      <c r="AE97" s="41" t="s">
+      <c r="AE97" t="s">
         <v>1031</v>
       </c>
-      <c r="AF97" s="41" t="s">
+      <c r="AF97" t="s">
         <v>1032</v>
       </c>
-      <c r="AG97" s="41" t="s">
+      <c r="AG97" t="s">
         <v>66</v>
       </c>
-      <c r="AH97" s="41">
-        <v>0</v>
-      </c>
-      <c r="AI97" s="41"/>
+      <c r="AH97">
+        <v>0</v>
+      </c>
     </row>
     <row r="98" spans="1:35">
-      <c r="A98" s="41">
+      <c r="A98">
         <v>10</v>
       </c>
-      <c r="B98" s="41"/>
-      <c r="C98" s="41" t="s">
+      <c r="C98" t="s">
         <v>1033</v>
       </c>
-      <c r="D98" s="41" t="s">
+      <c r="D98" t="s">
         <v>1034</v>
       </c>
-      <c r="E98" s="41" t="s">
+      <c r="E98" t="s">
         <v>1035</v>
       </c>
-      <c r="F98" s="41">
+      <c r="F98">
         <v>2021</v>
       </c>
-      <c r="G98" s="41"/>
-      <c r="H98" s="41"/>
-      <c r="I98" s="41"/>
-      <c r="J98" s="41" t="s">
+      <c r="J98" t="s">
         <v>1036</v>
       </c>
-      <c r="K98" s="41"/>
-      <c r="L98" s="41"/>
-      <c r="M98" s="41"/>
-      <c r="N98" s="41"/>
-      <c r="O98" s="41"/>
-      <c r="P98" s="41"/>
-      <c r="Q98" s="41"/>
-      <c r="R98" s="41"/>
-      <c r="S98" s="41"/>
-      <c r="T98" s="41"/>
-      <c r="U98" s="41"/>
-      <c r="V98" s="41"/>
-      <c r="W98" s="41"/>
-      <c r="X98" s="41"/>
-      <c r="Y98" s="41" t="s">
+      <c r="Y98" t="s">
         <v>77</v>
       </c>
-      <c r="Z98" s="41" t="s">
+      <c r="Z98" t="s">
         <v>1037</v>
       </c>
-      <c r="AA98" s="44" t="s">
+      <c r="AA98" s="41" t="s">
         <v>1038</v>
       </c>
-      <c r="AB98" s="44"/>
-      <c r="AC98" s="44"/>
-      <c r="AD98" s="44"/>
-      <c r="AE98" s="44"/>
-      <c r="AF98" s="44"/>
-      <c r="AG98" s="44"/>
-      <c r="AH98" s="44"/>
-      <c r="AI98" s="41"/>
+      <c r="AB98" s="41"/>
+      <c r="AC98" s="41"/>
+      <c r="AD98" s="41"/>
+      <c r="AE98" s="41"/>
+      <c r="AF98" s="41"/>
+      <c r="AG98" s="41"/>
+      <c r="AH98" s="41"/>
     </row>
     <row r="99" spans="1:35">
-      <c r="A99" s="41">
+      <c r="A99">
         <v>130</v>
       </c>
-      <c r="B99" s="41"/>
-      <c r="C99" s="41" t="s">
+      <c r="C99" t="s">
         <v>1039</v>
       </c>
-      <c r="D99" s="41" t="s">
+      <c r="D99" t="s">
         <v>1040</v>
       </c>
-      <c r="E99" s="41" t="s">
+      <c r="E99" t="s">
         <v>1041</v>
       </c>
-      <c r="F99" s="41">
+      <c r="F99">
         <v>2013</v>
       </c>
-      <c r="G99" s="41"/>
-      <c r="H99" s="41"/>
-      <c r="I99" s="41"/>
-      <c r="J99" s="41" t="s">
+      <c r="J99" t="s">
         <v>1042</v>
       </c>
-      <c r="K99" s="41"/>
-      <c r="L99" s="41"/>
-      <c r="M99" s="41"/>
-      <c r="N99" s="41"/>
-      <c r="O99" s="41"/>
-      <c r="P99" s="41"/>
-      <c r="Q99" s="41"/>
-      <c r="R99" s="41"/>
-      <c r="S99" s="41"/>
-      <c r="T99" s="41"/>
-      <c r="U99" s="41"/>
-      <c r="V99" s="41"/>
-      <c r="W99" s="41"/>
-      <c r="X99" s="41"/>
-      <c r="Y99" s="41" t="s">
+      <c r="Y99" t="s">
         <v>58</v>
       </c>
-      <c r="Z99" s="41" t="s">
+      <c r="Z99" t="s">
         <v>1043</v>
       </c>
-      <c r="AA99" s="41" t="s">
+      <c r="AA99" t="s">
         <v>966</v>
       </c>
-      <c r="AB99" s="41" t="s">
+      <c r="AB99" t="s">
         <v>1388</v>
       </c>
-      <c r="AC99" s="41"/>
-      <c r="AD99" s="41" t="s">
+      <c r="AD99" t="s">
         <v>1044</v>
       </c>
-      <c r="AE99" s="41" t="s">
+      <c r="AE99" t="s">
         <v>1045</v>
       </c>
-      <c r="AF99" s="41" t="s">
+      <c r="AF99" t="s">
         <v>1046</v>
       </c>
-      <c r="AG99" s="41" t="s">
+      <c r="AG99" t="s">
         <v>66</v>
       </c>
-      <c r="AH99" s="41">
-        <v>0</v>
-      </c>
-      <c r="AI99" s="41"/>
+      <c r="AH99">
+        <v>0</v>
+      </c>
     </row>
     <row r="100" spans="1:35">
-      <c r="A100" s="41">
+      <c r="A100">
         <v>131</v>
       </c>
-      <c r="B100" s="41"/>
-      <c r="C100" s="41" t="s">
+      <c r="C100" t="s">
         <v>1047</v>
       </c>
-      <c r="D100" s="41" t="s">
+      <c r="D100" t="s">
         <v>1048</v>
       </c>
-      <c r="E100" s="41" t="s">
+      <c r="E100" t="s">
         <v>1049</v>
       </c>
-      <c r="F100" s="41">
+      <c r="F100">
         <v>2013</v>
       </c>
-      <c r="G100" s="41"/>
-      <c r="H100" s="41"/>
-      <c r="I100" s="41"/>
-      <c r="J100" s="41" t="s">
+      <c r="J100" t="s">
         <v>1050</v>
       </c>
-      <c r="K100" s="41"/>
-      <c r="L100" s="41"/>
-      <c r="M100" s="41"/>
-      <c r="N100" s="41"/>
-      <c r="O100" s="41"/>
-      <c r="P100" s="41"/>
-      <c r="Q100" s="41"/>
-      <c r="R100" s="41"/>
-      <c r="S100" s="41"/>
-      <c r="T100" s="41"/>
-      <c r="U100" s="41"/>
-      <c r="V100" s="41"/>
-      <c r="W100" s="41"/>
-      <c r="X100" s="41"/>
-      <c r="Y100" s="41" t="s">
+      <c r="Y100" t="s">
         <v>58</v>
       </c>
-      <c r="Z100" s="41" t="s">
+      <c r="Z100" t="s">
         <v>1051</v>
       </c>
-      <c r="AA100" s="41" t="s">
+      <c r="AA100" t="s">
         <v>408</v>
       </c>
-      <c r="AB100" s="41" t="s">
+      <c r="AB100" t="s">
         <v>1383</v>
       </c>
-      <c r="AC100" s="41" t="s">
+      <c r="AC100" t="s">
         <v>1029</v>
       </c>
-      <c r="AD100" s="41" t="s">
+      <c r="AD100" t="s">
         <v>1052</v>
       </c>
-      <c r="AE100" s="41" t="s">
+      <c r="AE100" t="s">
         <v>1053</v>
       </c>
-      <c r="AF100" s="41" t="s">
+      <c r="AF100" t="s">
         <v>1054</v>
       </c>
-      <c r="AG100" s="41" t="s">
+      <c r="AG100" t="s">
         <v>1055</v>
       </c>
-      <c r="AH100" s="41">
-        <v>0</v>
-      </c>
-      <c r="AI100" s="41" t="s">
+      <c r="AH100">
+        <v>0</v>
+      </c>
+      <c r="AI100" t="s">
         <v>1056</v>
       </c>
     </row>
     <row r="101" spans="1:35">
-      <c r="A101" s="41">
+      <c r="A101">
         <v>132</v>
       </c>
-      <c r="B101" s="41"/>
-      <c r="C101" s="41" t="s">
+      <c r="C101" t="s">
         <v>1057</v>
       </c>
-      <c r="D101" s="41" t="s">
+      <c r="D101" t="s">
         <v>1058</v>
       </c>
-      <c r="E101" s="41" t="s">
+      <c r="E101" t="s">
         <v>1059</v>
       </c>
-      <c r="F101" s="41">
+      <c r="F101">
         <v>2018</v>
       </c>
-      <c r="G101" s="41"/>
-      <c r="H101" s="41"/>
-      <c r="I101" s="41"/>
-      <c r="J101" s="41" t="s">
+      <c r="J101" t="s">
         <v>1060</v>
       </c>
-      <c r="K101" s="41"/>
-      <c r="L101" s="41"/>
-      <c r="M101" s="41"/>
-      <c r="N101" s="41"/>
-      <c r="O101" s="41"/>
-      <c r="P101" s="41"/>
-      <c r="Q101" s="41"/>
-      <c r="R101" s="41"/>
-      <c r="S101" s="41"/>
-      <c r="T101" s="41"/>
-      <c r="U101" s="41"/>
-      <c r="V101" s="41"/>
-      <c r="W101" s="41"/>
-      <c r="X101" s="41"/>
-      <c r="Y101" s="41" t="s">
+      <c r="Y101" t="s">
         <v>58</v>
       </c>
-      <c r="Z101" s="41" t="s">
+      <c r="Z101" t="s">
         <v>1051</v>
       </c>
-      <c r="AA101" s="41" t="s">
+      <c r="AA101" t="s">
         <v>1061</v>
       </c>
-      <c r="AB101" s="41" t="s">
+      <c r="AB101" t="s">
         <v>207</v>
       </c>
-      <c r="AC101" s="41"/>
-      <c r="AD101" s="41" t="s">
+      <c r="AD101" t="s">
         <v>1052</v>
       </c>
-      <c r="AE101" s="41" t="s">
+      <c r="AE101" t="s">
         <v>1062</v>
       </c>
-      <c r="AF101" s="41" t="s">
+      <c r="AF101" t="s">
         <v>1063</v>
       </c>
-      <c r="AG101" s="41" t="s">
+      <c r="AG101" t="s">
         <v>66</v>
       </c>
-      <c r="AH101" s="41">
-        <v>0</v>
-      </c>
-      <c r="AI101" s="41"/>
+      <c r="AH101">
+        <v>0</v>
+      </c>
     </row>
     <row r="102" spans="1:35">
-      <c r="A102" s="41">
+      <c r="A102">
         <v>133</v>
       </c>
-      <c r="B102" s="41"/>
-      <c r="C102" s="41" t="s">
+      <c r="C102" t="s">
         <v>1064</v>
       </c>
-      <c r="D102" s="41" t="s">
+      <c r="D102" t="s">
         <v>459</v>
       </c>
-      <c r="E102" s="41" t="s">
+      <c r="E102" t="s">
         <v>1065</v>
       </c>
-      <c r="F102" s="41">
+      <c r="F102">
         <v>2021</v>
       </c>
-      <c r="G102" s="41"/>
-      <c r="H102" s="41"/>
-      <c r="I102" s="41"/>
-      <c r="J102" s="41" t="s">
+      <c r="J102" t="s">
         <v>1066</v>
       </c>
-      <c r="K102" s="41"/>
-      <c r="L102" s="41"/>
-      <c r="M102" s="41"/>
-      <c r="N102" s="41"/>
-      <c r="O102" s="41"/>
-      <c r="P102" s="41"/>
-      <c r="Q102" s="41"/>
-      <c r="R102" s="41"/>
-      <c r="S102" s="41"/>
-      <c r="T102" s="41"/>
-      <c r="U102" s="41"/>
-      <c r="V102" s="41"/>
-      <c r="W102" s="41"/>
-      <c r="X102" s="41"/>
-      <c r="Y102" s="41" t="s">
+      <c r="Y102" t="s">
         <v>58</v>
       </c>
-      <c r="Z102" s="41" t="s">
+      <c r="Z102" t="s">
         <v>1051</v>
       </c>
-      <c r="AA102" s="41" t="s">
+      <c r="AA102" t="s">
         <v>1067</v>
       </c>
-      <c r="AB102" s="41" t="s">
+      <c r="AB102" t="s">
         <v>1068</v>
       </c>
-      <c r="AC102" s="41"/>
-      <c r="AD102" s="41" t="s">
+      <c r="AD102" t="s">
         <v>1069</v>
       </c>
-      <c r="AE102" s="41" t="s">
+      <c r="AE102" t="s">
         <v>1070</v>
       </c>
-      <c r="AF102" s="41" t="s">
+      <c r="AF102" t="s">
         <v>1071</v>
       </c>
-      <c r="AG102" s="41" t="s">
+      <c r="AG102" t="s">
         <v>1072</v>
       </c>
-      <c r="AH102" s="41">
+      <c r="AH102">
         <v>1</v>
       </c>
-      <c r="AI102" s="41" t="s">
+      <c r="AI102" t="s">
         <v>1073</v>
       </c>
     </row>
     <row r="103" spans="1:35">
-      <c r="A103" s="41">
+      <c r="A103">
         <v>134</v>
       </c>
-      <c r="B103" s="41"/>
-      <c r="C103" s="41" t="s">
+      <c r="C103" t="s">
         <v>1074</v>
       </c>
-      <c r="D103" s="41" t="s">
+      <c r="D103" t="s">
         <v>1075</v>
       </c>
-      <c r="E103" s="41" t="s">
+      <c r="E103" t="s">
         <v>1076</v>
       </c>
-      <c r="F103" s="41">
+      <c r="F103">
         <v>2020</v>
       </c>
-      <c r="G103" s="41"/>
-      <c r="H103" s="41"/>
-      <c r="I103" s="41"/>
-      <c r="J103" s="41" t="s">
+      <c r="J103" t="s">
         <v>1077</v>
       </c>
-      <c r="K103" s="41"/>
-      <c r="L103" s="41"/>
-      <c r="M103" s="41"/>
-      <c r="N103" s="41"/>
-      <c r="O103" s="41"/>
-      <c r="P103" s="41"/>
-      <c r="Q103" s="41"/>
-      <c r="R103" s="41"/>
-      <c r="S103" s="41"/>
-      <c r="T103" s="41"/>
-      <c r="U103" s="41"/>
-      <c r="V103" s="41"/>
-      <c r="W103" s="41"/>
-      <c r="X103" s="41"/>
-      <c r="Y103" s="41" t="s">
+      <c r="Y103" t="s">
         <v>58</v>
       </c>
-      <c r="Z103" s="41" t="s">
+      <c r="Z103" t="s">
         <v>1051</v>
       </c>
-      <c r="AA103" s="41" t="s">
+      <c r="AA103" t="s">
         <v>1078</v>
       </c>
-      <c r="AB103" s="41" t="s">
+      <c r="AB103" t="s">
         <v>207</v>
       </c>
-      <c r="AC103" s="41"/>
-      <c r="AD103" s="41" t="s">
+      <c r="AD103" t="s">
         <v>1079</v>
       </c>
-      <c r="AE103" s="41" t="s">
+      <c r="AE103" t="s">
         <v>1080</v>
       </c>
-      <c r="AF103" s="41" t="s">
+      <c r="AF103" t="s">
         <v>1081</v>
       </c>
-      <c r="AG103" s="41" t="s">
+      <c r="AG103" t="s">
         <v>66</v>
       </c>
-      <c r="AH103" s="41">
+      <c r="AH103">
         <v>1</v>
       </c>
-      <c r="AI103" s="41" t="s">
+      <c r="AI103" t="s">
         <v>1082</v>
       </c>
     </row>
     <row r="104" spans="1:35">
-      <c r="A104" s="41">
+      <c r="A104">
         <v>135</v>
       </c>
-      <c r="B104" s="41"/>
-      <c r="C104" s="41" t="s">
+      <c r="C104" t="s">
         <v>1083</v>
       </c>
-      <c r="D104" s="41" t="s">
+      <c r="D104" t="s">
         <v>1084</v>
       </c>
-      <c r="E104" s="41" t="s">
+      <c r="E104" t="s">
         <v>1085</v>
       </c>
-      <c r="F104" s="41">
+      <c r="F104">
         <v>2022</v>
       </c>
-      <c r="G104" s="41"/>
-      <c r="H104" s="41"/>
-      <c r="I104" s="41"/>
-      <c r="J104" s="41" t="s">
+      <c r="J104" t="s">
         <v>1086</v>
       </c>
-      <c r="K104" s="41"/>
-      <c r="L104" s="41"/>
-      <c r="M104" s="41"/>
-      <c r="N104" s="41"/>
-      <c r="O104" s="41"/>
-      <c r="P104" s="41"/>
-      <c r="Q104" s="41"/>
-      <c r="R104" s="41"/>
-      <c r="S104" s="41"/>
-      <c r="T104" s="41"/>
-      <c r="U104" s="41"/>
-      <c r="V104" s="41"/>
-      <c r="W104" s="41"/>
-      <c r="X104" s="41"/>
-      <c r="Y104" s="41" t="s">
+      <c r="Y104" t="s">
         <v>58</v>
       </c>
-      <c r="Z104" s="41" t="s">
+      <c r="Z104" t="s">
         <v>1051</v>
       </c>
-      <c r="AA104" s="41" t="s">
+      <c r="AA104" t="s">
         <v>1087</v>
       </c>
-      <c r="AB104" s="41" t="s">
+      <c r="AB104" t="s">
         <v>207</v>
       </c>
-      <c r="AC104" s="41"/>
-      <c r="AD104" s="41" t="s">
+      <c r="AD104" t="s">
         <v>1079</v>
       </c>
-      <c r="AE104" s="41" t="s">
+      <c r="AE104" t="s">
         <v>1088</v>
       </c>
-      <c r="AF104" s="41" t="s">
+      <c r="AF104" t="s">
         <v>1089</v>
       </c>
-      <c r="AG104" s="41" t="s">
+      <c r="AG104" t="s">
         <v>1090</v>
       </c>
-      <c r="AH104" s="41">
+      <c r="AH104">
         <v>1</v>
       </c>
-      <c r="AI104" s="41" t="s">
+      <c r="AI104" t="s">
         <v>1082</v>
       </c>
     </row>
     <row r="105" spans="1:35">
-      <c r="A105" s="41">
+      <c r="A105">
         <v>136</v>
       </c>
-      <c r="B105" s="41"/>
-      <c r="C105" s="41" t="s">
+      <c r="C105" t="s">
         <v>1091</v>
       </c>
-      <c r="D105" s="41" t="s">
+      <c r="D105" t="s">
         <v>1092</v>
       </c>
-      <c r="E105" s="41" t="s">
+      <c r="E105" t="s">
         <v>1093</v>
       </c>
-      <c r="F105" s="41">
+      <c r="F105">
         <v>2019</v>
       </c>
-      <c r="G105" s="41"/>
-      <c r="H105" s="41"/>
-      <c r="I105" s="41"/>
-      <c r="J105" s="41" t="s">
+      <c r="J105" t="s">
         <v>1094</v>
       </c>
-      <c r="K105" s="41"/>
-      <c r="L105" s="41"/>
-      <c r="M105" s="41"/>
-      <c r="N105" s="41"/>
-      <c r="O105" s="41"/>
-      <c r="P105" s="41"/>
-      <c r="Q105" s="41"/>
-      <c r="R105" s="41"/>
-      <c r="S105" s="41"/>
-      <c r="T105" s="41"/>
-      <c r="U105" s="41"/>
-      <c r="V105" s="41"/>
-      <c r="W105" s="41"/>
-      <c r="X105" s="41"/>
-      <c r="Y105" s="41" t="s">
+      <c r="Y105" t="s">
         <v>58</v>
       </c>
-      <c r="Z105" s="41" t="s">
+      <c r="Z105" t="s">
         <v>1051</v>
       </c>
-      <c r="AA105" s="41" t="s">
+      <c r="AA105" t="s">
         <v>408</v>
       </c>
-      <c r="AB105" s="41" t="s">
+      <c r="AB105" t="s">
         <v>1383</v>
       </c>
-      <c r="AC105" s="41" t="s">
+      <c r="AC105" t="s">
         <v>1095</v>
       </c>
-      <c r="AD105" s="41" t="s">
+      <c r="AD105" t="s">
         <v>1079</v>
       </c>
-      <c r="AE105" s="41"/>
-      <c r="AF105" s="41" t="s">
+      <c r="AF105" t="s">
         <v>1054</v>
       </c>
-      <c r="AG105" s="41" t="s">
+      <c r="AG105" t="s">
         <v>1096</v>
       </c>
-      <c r="AH105" s="41">
-        <v>0</v>
-      </c>
-      <c r="AI105" s="41"/>
+      <c r="AH105">
+        <v>0</v>
+      </c>
     </row>
     <row r="106" spans="1:35">
-      <c r="A106" s="41">
+      <c r="A106">
         <v>137</v>
       </c>
-      <c r="B106" s="41"/>
-      <c r="C106" s="41" t="s">
+      <c r="C106" t="s">
         <v>1097</v>
       </c>
-      <c r="D106" s="41" t="s">
+      <c r="D106" t="s">
         <v>1098</v>
       </c>
-      <c r="E106" s="41" t="s">
+      <c r="E106" t="s">
         <v>1099</v>
       </c>
-      <c r="F106" s="41">
+      <c r="F106">
         <v>2020</v>
       </c>
-      <c r="G106" s="41"/>
-      <c r="H106" s="41"/>
-      <c r="I106" s="41"/>
-      <c r="J106" s="41" t="s">
+      <c r="J106" t="s">
         <v>1100</v>
       </c>
-      <c r="K106" s="41"/>
-      <c r="L106" s="41"/>
-      <c r="M106" s="41"/>
-      <c r="N106" s="41"/>
-      <c r="O106" s="41"/>
-      <c r="P106" s="41"/>
-      <c r="Q106" s="41"/>
-      <c r="R106" s="41"/>
-      <c r="S106" s="41"/>
-      <c r="T106" s="41"/>
-      <c r="U106" s="41"/>
-      <c r="V106" s="41"/>
-      <c r="W106" s="41"/>
-      <c r="X106" s="41"/>
-      <c r="Y106" s="41" t="s">
+      <c r="Y106" t="s">
         <v>58</v>
       </c>
-      <c r="Z106" s="41" t="s">
+      <c r="Z106" t="s">
         <v>1051</v>
       </c>
-      <c r="AA106" s="41" t="s">
+      <c r="AA106" t="s">
         <v>408</v>
       </c>
-      <c r="AB106" s="41" t="s">
+      <c r="AB106" t="s">
         <v>91</v>
       </c>
-      <c r="AC106" s="41"/>
-      <c r="AD106" s="41" t="s">
+      <c r="AD106" t="s">
         <v>1052</v>
       </c>
-      <c r="AE106" s="41" t="s">
+      <c r="AE106" t="s">
         <v>1101</v>
       </c>
-      <c r="AF106" s="41" t="s">
+      <c r="AF106" t="s">
         <v>1102</v>
       </c>
-      <c r="AG106" s="41" t="s">
+      <c r="AG106" t="s">
         <v>66</v>
       </c>
-      <c r="AH106" s="41">
-        <v>0</v>
-      </c>
-      <c r="AI106" s="41"/>
+      <c r="AH106">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:35">
-      <c r="A107" s="41">
+      <c r="A107">
         <v>104</v>
       </c>
-      <c r="B107" s="41"/>
-      <c r="C107" s="41" t="s">
+      <c r="C107" t="s">
         <v>1103</v>
       </c>
-      <c r="D107" s="41" t="s">
+      <c r="D107" t="s">
         <v>1104</v>
       </c>
-      <c r="E107" s="41" t="s">
+      <c r="E107" t="s">
         <v>846</v>
       </c>
-      <c r="F107" s="41">
+      <c r="F107">
         <v>2019</v>
       </c>
-      <c r="G107" s="41"/>
-      <c r="H107" s="41"/>
-      <c r="I107" s="41"/>
-      <c r="J107" s="41" t="s">
+      <c r="J107" t="s">
         <v>1105</v>
       </c>
-      <c r="K107" s="41"/>
-      <c r="L107" s="41"/>
-      <c r="M107" s="41"/>
-      <c r="N107" s="41"/>
-      <c r="O107" s="41"/>
-      <c r="P107" s="41"/>
-      <c r="Q107" s="41"/>
-      <c r="R107" s="41"/>
-      <c r="S107" s="41"/>
-      <c r="T107" s="41"/>
-      <c r="U107" s="41"/>
-      <c r="V107" s="41"/>
-      <c r="W107" s="41"/>
-      <c r="X107" s="41"/>
-      <c r="Y107" s="41" t="s">
+      <c r="Y107" t="s">
         <v>58</v>
       </c>
-      <c r="Z107" s="41" t="s">
+      <c r="Z107" t="s">
         <v>1051</v>
       </c>
-      <c r="AA107" s="41" t="s">
+      <c r="AA107" t="s">
         <v>408</v>
       </c>
-      <c r="AB107" s="41" t="s">
+      <c r="AB107" t="s">
         <v>1106</v>
       </c>
-      <c r="AC107" s="41"/>
-      <c r="AD107" s="41" t="s">
+      <c r="AD107" t="s">
         <v>1052</v>
       </c>
-      <c r="AE107" s="41" t="s">
+      <c r="AE107" t="s">
         <v>1107</v>
       </c>
-      <c r="AF107" s="41" t="s">
+      <c r="AF107" t="s">
         <v>1316</v>
       </c>
-      <c r="AG107" s="41" t="s">
+      <c r="AG107" t="s">
         <v>66</v>
       </c>
-      <c r="AH107" s="41">
-        <v>0</v>
-      </c>
-      <c r="AI107" s="41"/>
+      <c r="AH107">
+        <v>0</v>
+      </c>
     </row>
     <row r="108" spans="1:35">
-      <c r="A108" s="41">
+      <c r="A108">
         <v>140</v>
       </c>
-      <c r="B108" s="41"/>
-      <c r="C108" s="41" t="s">
+      <c r="C108" t="s">
         <v>1108</v>
       </c>
-      <c r="D108" s="41" t="s">
+      <c r="D108" t="s">
         <v>1109</v>
       </c>
-      <c r="E108" s="41" t="s">
+      <c r="E108" t="s">
         <v>1110</v>
       </c>
-      <c r="F108" s="41">
+      <c r="F108">
         <v>2018</v>
       </c>
-      <c r="G108" s="41"/>
-      <c r="H108" s="41"/>
-      <c r="I108" s="41"/>
-      <c r="J108" s="41" t="s">
+      <c r="J108" t="s">
         <v>1111</v>
       </c>
-      <c r="K108" s="41"/>
-      <c r="L108" s="41"/>
-      <c r="M108" s="41"/>
-      <c r="N108" s="41"/>
-      <c r="O108" s="41"/>
-      <c r="P108" s="41"/>
-      <c r="Q108" s="41"/>
-      <c r="R108" s="41"/>
-      <c r="S108" s="41"/>
-      <c r="T108" s="41"/>
-      <c r="U108" s="41"/>
-      <c r="V108" s="41"/>
-      <c r="W108" s="41"/>
-      <c r="X108" s="41"/>
-      <c r="Y108" s="41" t="s">
+      <c r="Y108" t="s">
         <v>58</v>
       </c>
-      <c r="Z108" s="41" t="s">
+      <c r="Z108" t="s">
         <v>1018</v>
       </c>
-      <c r="AA108" s="41" t="s">
+      <c r="AA108" t="s">
         <v>1368</v>
       </c>
-      <c r="AB108" s="41" t="s">
+      <c r="AB108" t="s">
         <v>1383</v>
       </c>
-      <c r="AC108" s="41" t="s">
+      <c r="AC108" t="s">
         <v>1112</v>
       </c>
-      <c r="AD108" s="41" t="s">
+      <c r="AD108" t="s">
         <v>1113</v>
       </c>
-      <c r="AE108" s="41" t="s">
+      <c r="AE108" t="s">
         <v>1114</v>
       </c>
-      <c r="AF108" s="41"/>
-      <c r="AG108" s="41" t="s">
+      <c r="AG108" t="s">
         <v>1115</v>
       </c>
-      <c r="AH108" s="41">
+      <c r="AH108">
         <v>0.5</v>
       </c>
-      <c r="AI108" s="41" t="s">
+      <c r="AI108" t="s">
         <v>1116</v>
       </c>
     </row>
     <row r="109" spans="1:35">
-      <c r="A109" s="41">
+      <c r="A109">
         <v>141</v>
       </c>
-      <c r="B109" s="41"/>
-      <c r="C109" s="41" t="s">
+      <c r="C109" t="s">
         <v>1117</v>
       </c>
-      <c r="D109" s="41" t="s">
+      <c r="D109" t="s">
         <v>1118</v>
       </c>
-      <c r="E109" s="41" t="s">
+      <c r="E109" t="s">
         <v>1119</v>
       </c>
-      <c r="F109" s="41">
+      <c r="F109">
         <v>2021</v>
       </c>
-      <c r="G109" s="41"/>
-      <c r="H109" s="41"/>
-      <c r="I109" s="41"/>
-      <c r="J109" s="41" t="s">
+      <c r="J109" t="s">
         <v>1120</v>
       </c>
-      <c r="K109" s="41"/>
-      <c r="L109" s="41"/>
-      <c r="M109" s="41"/>
-      <c r="N109" s="41"/>
-      <c r="O109" s="41"/>
-      <c r="P109" s="41"/>
-      <c r="Q109" s="41"/>
-      <c r="R109" s="41"/>
-      <c r="S109" s="41"/>
-      <c r="T109" s="41"/>
-      <c r="U109" s="41"/>
-      <c r="V109" s="41"/>
-      <c r="W109" s="41"/>
-      <c r="X109" s="41"/>
-      <c r="Y109" s="41" t="s">
+      <c r="Y109" t="s">
         <v>58</v>
       </c>
-      <c r="Z109" s="41" t="s">
+      <c r="Z109" t="s">
         <v>1018</v>
       </c>
-      <c r="AA109" s="41" t="s">
+      <c r="AA109" t="s">
         <v>129</v>
       </c>
-      <c r="AB109" s="41" t="s">
+      <c r="AB109" t="s">
         <v>207</v>
       </c>
-      <c r="AC109" s="41" t="s">
+      <c r="AC109" t="s">
         <v>1112</v>
       </c>
-      <c r="AD109" s="41" t="s">
+      <c r="AD109" t="s">
         <v>1121</v>
       </c>
-      <c r="AE109" s="41" t="s">
+      <c r="AE109" t="s">
         <v>1122</v>
       </c>
-      <c r="AF109" s="41" t="s">
+      <c r="AF109" t="s">
         <v>1123</v>
       </c>
-      <c r="AG109" s="41" t="s">
+      <c r="AG109" t="s">
         <v>1124</v>
       </c>
-      <c r="AH109" s="41">
+      <c r="AH109">
         <v>1</v>
       </c>
-      <c r="AI109" s="41" t="s">
+      <c r="AI109" t="s">
         <v>1125</v>
       </c>
     </row>
     <row r="110" spans="1:35">
-      <c r="A110" s="41">
+      <c r="A110">
         <v>142</v>
       </c>
-      <c r="B110" s="41"/>
-      <c r="C110" s="41" t="s">
+      <c r="C110" t="s">
         <v>1126</v>
       </c>
-      <c r="D110" s="41" t="s">
+      <c r="D110" t="s">
         <v>1127</v>
       </c>
-      <c r="E110" s="41" t="s">
+      <c r="E110" t="s">
         <v>1128</v>
       </c>
-      <c r="F110" s="41">
+      <c r="F110">
         <v>2016</v>
       </c>
-      <c r="G110" s="41"/>
-      <c r="H110" s="41"/>
-      <c r="I110" s="41"/>
-      <c r="J110" s="41" t="s">
+      <c r="J110" t="s">
         <v>1129</v>
       </c>
-      <c r="K110" s="41"/>
-      <c r="L110" s="41"/>
-      <c r="M110" s="41"/>
-      <c r="N110" s="41"/>
-      <c r="O110" s="41"/>
-      <c r="P110" s="41"/>
-      <c r="Q110" s="41"/>
-      <c r="R110" s="41"/>
-      <c r="S110" s="41"/>
-      <c r="T110" s="41"/>
-      <c r="U110" s="41"/>
-      <c r="V110" s="41"/>
-      <c r="W110" s="41"/>
-      <c r="X110" s="41"/>
-      <c r="Y110" s="41" t="s">
+      <c r="Y110" t="s">
         <v>58</v>
       </c>
-      <c r="Z110" s="41" t="s">
+      <c r="Z110" t="s">
         <v>1018</v>
       </c>
-      <c r="AA110" s="41" t="s">
+      <c r="AA110" t="s">
         <v>1369</v>
       </c>
-      <c r="AB110" s="41" t="s">
+      <c r="AB110" t="s">
         <v>409</v>
       </c>
-      <c r="AC110" s="41"/>
-      <c r="AD110" s="41" t="s">
+      <c r="AD110" t="s">
         <v>1130</v>
       </c>
-      <c r="AE110" s="41" t="s">
+      <c r="AE110" t="s">
         <v>1131</v>
       </c>
-      <c r="AF110" s="41"/>
-      <c r="AG110" s="41" t="s">
+      <c r="AG110" t="s">
         <v>1124</v>
       </c>
-      <c r="AH110" s="41">
-        <v>0</v>
-      </c>
-      <c r="AI110" s="41"/>
+      <c r="AH110">
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="1:35">
-      <c r="A111" s="41">
+      <c r="A111">
         <v>143</v>
       </c>
-      <c r="B111" s="41"/>
-      <c r="C111" s="41" t="s">
+      <c r="C111" t="s">
         <v>1132</v>
       </c>
-      <c r="D111" s="41" t="s">
+      <c r="D111" t="s">
         <v>1133</v>
       </c>
-      <c r="E111" s="41" t="s">
+      <c r="E111" t="s">
         <v>1134</v>
       </c>
-      <c r="F111" s="41">
+      <c r="F111">
         <v>2017</v>
       </c>
-      <c r="G111" s="41"/>
-      <c r="H111" s="41"/>
-      <c r="I111" s="41"/>
-      <c r="J111" s="41" t="s">
+      <c r="J111" t="s">
         <v>1135</v>
       </c>
-      <c r="K111" s="41"/>
-      <c r="L111" s="41"/>
-      <c r="M111" s="41"/>
-      <c r="N111" s="41"/>
-      <c r="O111" s="41"/>
-      <c r="P111" s="41"/>
-      <c r="Q111" s="41"/>
-      <c r="R111" s="41"/>
-      <c r="S111" s="41"/>
-      <c r="T111" s="41"/>
-      <c r="U111" s="41"/>
-      <c r="V111" s="41"/>
-      <c r="W111" s="41"/>
-      <c r="X111" s="41"/>
-      <c r="Y111" s="41" t="s">
+      <c r="Y111" t="s">
         <v>58</v>
       </c>
-      <c r="Z111" s="41" t="s">
+      <c r="Z111" t="s">
         <v>1018</v>
       </c>
-      <c r="AA111" s="41" t="s">
+      <c r="AA111" t="s">
         <v>1370</v>
       </c>
-      <c r="AB111" s="41" t="s">
+      <c r="AB111" t="s">
         <v>409</v>
       </c>
-      <c r="AC111" s="41"/>
-      <c r="AD111" s="41" t="s">
+      <c r="AD111" t="s">
         <v>1136</v>
       </c>
-      <c r="AE111" s="41" t="s">
+      <c r="AE111" t="s">
         <v>1137</v>
       </c>
-      <c r="AF111" s="41" t="s">
+      <c r="AF111" t="s">
         <v>1138</v>
       </c>
-      <c r="AG111" s="41" t="s">
+      <c r="AG111" t="s">
         <v>1124</v>
       </c>
-      <c r="AH111" s="41">
-        <v>0</v>
-      </c>
-      <c r="AI111" s="41"/>
+      <c r="AH111">
+        <v>0</v>
+      </c>
     </row>
     <row r="112" spans="1:35">
-      <c r="A112" s="41">
+      <c r="A112">
         <v>144</v>
       </c>
-      <c r="B112" s="41"/>
-      <c r="C112" s="41" t="s">
+      <c r="C112" t="s">
         <v>1139</v>
       </c>
-      <c r="D112" s="41" t="s">
+      <c r="D112" t="s">
         <v>1140</v>
       </c>
-      <c r="E112" s="41" t="s">
+      <c r="E112" t="s">
         <v>1141</v>
       </c>
-      <c r="F112" s="41">
+      <c r="F112">
         <v>2018</v>
       </c>
-      <c r="G112" s="41"/>
-      <c r="H112" s="41"/>
-      <c r="I112" s="41"/>
-      <c r="J112" s="41" t="s">
+      <c r="J112" t="s">
         <v>1142</v>
       </c>
-      <c r="K112" s="41"/>
-      <c r="L112" s="41"/>
-      <c r="M112" s="41"/>
-      <c r="N112" s="41"/>
-      <c r="O112" s="41"/>
-      <c r="P112" s="41"/>
-      <c r="Q112" s="41"/>
-      <c r="R112" s="41"/>
-      <c r="S112" s="41"/>
-      <c r="T112" s="41"/>
-      <c r="U112" s="41"/>
-      <c r="V112" s="41"/>
-      <c r="W112" s="41"/>
-      <c r="X112" s="41"/>
-      <c r="Y112" s="41" t="s">
+      <c r="Y112" t="s">
         <v>58</v>
       </c>
-      <c r="Z112" s="41" t="s">
+      <c r="Z112" t="s">
         <v>1051</v>
       </c>
-      <c r="AA112" s="41" t="s">
+      <c r="AA112" t="s">
         <v>408</v>
       </c>
-      <c r="AB112" s="41" t="s">
+      <c r="AB112" t="s">
         <v>1383</v>
       </c>
-      <c r="AC112" s="41" t="s">
+      <c r="AC112" t="s">
         <v>1143</v>
       </c>
-      <c r="AD112" s="41" t="s">
+      <c r="AD112" t="s">
         <v>1144</v>
       </c>
-      <c r="AE112" s="41" t="s">
+      <c r="AE112" t="s">
         <v>1145</v>
       </c>
-      <c r="AF112" s="41" t="s">
+      <c r="AF112" t="s">
         <v>1146</v>
       </c>
-      <c r="AG112" s="41" t="s">
+      <c r="AG112" t="s">
         <v>1147</v>
       </c>
-      <c r="AH112" s="41">
+      <c r="AH112">
         <v>1</v>
       </c>
-      <c r="AI112" s="41" t="s">
+      <c r="AI112" t="s">
         <v>1148</v>
       </c>
     </row>
     <row r="113" spans="1:35">
-      <c r="A113" s="41">
+      <c r="A113">
         <v>146</v>
       </c>
-      <c r="B113" s="41"/>
-      <c r="C113" s="41" t="s">
+      <c r="C113" t="s">
         <v>1149</v>
       </c>
-      <c r="D113" s="41" t="s">
+      <c r="D113" t="s">
         <v>1150</v>
       </c>
-      <c r="E113" s="41" t="s">
+      <c r="E113" t="s">
         <v>1151</v>
       </c>
-      <c r="F113" s="41">
+      <c r="F113">
         <v>2017</v>
       </c>
-      <c r="G113" s="41"/>
-      <c r="H113" s="41"/>
-      <c r="I113" s="41"/>
-      <c r="J113" s="41" t="s">
+      <c r="J113" t="s">
         <v>1152</v>
       </c>
-      <c r="K113" s="41"/>
-      <c r="L113" s="41"/>
-      <c r="M113" s="41"/>
-      <c r="N113" s="41"/>
-      <c r="O113" s="41"/>
-      <c r="P113" s="41"/>
-      <c r="Q113" s="41"/>
-      <c r="R113" s="41"/>
-      <c r="S113" s="41"/>
-      <c r="T113" s="41"/>
-      <c r="U113" s="41"/>
-      <c r="V113" s="41"/>
-      <c r="W113" s="41"/>
-      <c r="X113" s="41"/>
-      <c r="Y113" s="41" t="s">
+      <c r="Y113" t="s">
         <v>58</v>
       </c>
-      <c r="Z113" s="41" t="s">
+      <c r="Z113" t="s">
         <v>1037</v>
       </c>
-      <c r="AA113" s="41" t="s">
+      <c r="AA113" t="s">
         <v>1153</v>
       </c>
-      <c r="AB113" s="41" t="s">
+      <c r="AB113" t="s">
         <v>207</v>
       </c>
-      <c r="AC113" s="41"/>
-      <c r="AD113" s="41"/>
-      <c r="AE113" s="41" t="s">
+      <c r="AE113" t="s">
         <v>1154</v>
       </c>
-      <c r="AF113" s="41" t="s">
+      <c r="AF113" t="s">
         <v>1155</v>
       </c>
-      <c r="AG113" s="41" t="s">
+      <c r="AG113" t="s">
         <v>717</v>
       </c>
-      <c r="AH113" s="41">
-        <v>0</v>
-      </c>
-      <c r="AI113" s="41"/>
+      <c r="AH113">
+        <v>0</v>
+      </c>
     </row>
     <row r="114" spans="1:35">
-      <c r="A114" s="41">
+      <c r="A114">
         <v>147</v>
       </c>
-      <c r="B114" s="41"/>
-      <c r="C114" s="41" t="s">
+      <c r="C114" t="s">
         <v>1156</v>
       </c>
-      <c r="D114" s="41" t="s">
+      <c r="D114" t="s">
         <v>1157</v>
       </c>
-      <c r="E114" s="41" t="s">
+      <c r="E114" t="s">
         <v>1158</v>
       </c>
-      <c r="F114" s="41">
+      <c r="F114">
         <v>2014</v>
       </c>
-      <c r="G114" s="41"/>
-      <c r="H114" s="41"/>
-      <c r="I114" s="41"/>
-      <c r="J114" s="41" t="s">
+      <c r="J114" t="s">
         <v>1159</v>
       </c>
-      <c r="K114" s="41"/>
-      <c r="L114" s="41"/>
-      <c r="M114" s="41"/>
-      <c r="N114" s="41"/>
-      <c r="O114" s="41"/>
-      <c r="P114" s="41"/>
-      <c r="Q114" s="41"/>
-      <c r="R114" s="41"/>
-      <c r="S114" s="41"/>
-      <c r="T114" s="41"/>
-      <c r="U114" s="41"/>
-      <c r="V114" s="41"/>
-      <c r="W114" s="41"/>
-      <c r="X114" s="41"/>
-      <c r="Y114" s="41" t="s">
+      <c r="Y114" t="s">
         <v>58</v>
       </c>
-      <c r="Z114" s="41" t="s">
+      <c r="Z114" t="s">
         <v>1051</v>
       </c>
-      <c r="AA114" s="41" t="s">
+      <c r="AA114" t="s">
         <v>1364</v>
       </c>
-      <c r="AB114" s="41" t="s">
+      <c r="AB114" t="s">
         <v>91</v>
       </c>
-      <c r="AC114" s="41"/>
-      <c r="AD114" s="41" t="s">
+      <c r="AD114" t="s">
         <v>1160</v>
       </c>
-      <c r="AE114" s="41" t="s">
+      <c r="AE114" t="s">
         <v>1161</v>
       </c>
-      <c r="AF114" s="41" t="s">
+      <c r="AF114" t="s">
         <v>1162</v>
       </c>
-      <c r="AG114" s="41" t="s">
+      <c r="AG114" t="s">
         <v>1163</v>
       </c>
-      <c r="AH114" s="41">
-        <v>0</v>
-      </c>
-      <c r="AI114" s="41"/>
+      <c r="AH114">
+        <v>0</v>
+      </c>
     </row>
     <row r="115" spans="1:35">
-      <c r="A115" s="41">
+      <c r="A115">
         <v>148</v>
       </c>
-      <c r="B115" s="41"/>
-      <c r="C115" s="41" t="s">
+      <c r="C115" t="s">
         <v>1164</v>
       </c>
-      <c r="D115" s="41" t="s">
+      <c r="D115" t="s">
         <v>1165</v>
       </c>
-      <c r="E115" s="41" t="s">
+      <c r="E115" t="s">
         <v>1166</v>
       </c>
-      <c r="F115" s="41">
+      <c r="F115">
         <v>2014</v>
       </c>
-      <c r="G115" s="41"/>
-      <c r="H115" s="41"/>
-      <c r="I115" s="41"/>
-      <c r="J115" s="41" t="s">
+      <c r="J115" t="s">
         <v>1167</v>
       </c>
-      <c r="K115" s="41"/>
-      <c r="L115" s="41"/>
-      <c r="M115" s="41"/>
-      <c r="N115" s="41"/>
-      <c r="O115" s="41"/>
-      <c r="P115" s="41"/>
-      <c r="Q115" s="41"/>
-      <c r="R115" s="41"/>
-      <c r="S115" s="41"/>
-      <c r="T115" s="41"/>
-      <c r="U115" s="41"/>
-      <c r="V115" s="41"/>
-      <c r="W115" s="41"/>
-      <c r="X115" s="41"/>
-      <c r="Y115" s="41" t="s">
+      <c r="Y115" t="s">
         <v>58</v>
       </c>
-      <c r="Z115" s="41" t="s">
+      <c r="Z115" t="s">
         <v>1168</v>
       </c>
-      <c r="AA115" s="41" t="s">
+      <c r="AA115" t="s">
         <v>1169</v>
       </c>
-      <c r="AB115" s="41" t="s">
+      <c r="AB115" t="s">
         <v>91</v>
       </c>
-      <c r="AC115" s="41"/>
-      <c r="AD115" s="41" t="s">
+      <c r="AD115" t="s">
         <v>1170</v>
       </c>
-      <c r="AE115" s="41" t="s">
+      <c r="AE115" t="s">
         <v>1171</v>
       </c>
-      <c r="AF115" s="41" t="s">
+      <c r="AF115" t="s">
         <v>1172</v>
       </c>
-      <c r="AG115" s="41" t="s">
+      <c r="AG115" t="s">
         <v>1173</v>
       </c>
-      <c r="AH115" s="41">
+      <c r="AH115">
         <v>0.5</v>
       </c>
-      <c r="AI115" s="41" t="s">
+      <c r="AI115" t="s">
         <v>1174</v>
       </c>
     </row>
     <row r="116" spans="1:35">
-      <c r="A116" s="41">
+      <c r="A116">
         <v>149</v>
       </c>
-      <c r="B116" s="41"/>
-      <c r="C116" s="41" t="s">
+      <c r="C116" t="s">
         <v>1175</v>
       </c>
-      <c r="D116" s="41" t="s">
+      <c r="D116" t="s">
         <v>1176</v>
       </c>
-      <c r="E116" s="41" t="s">
+      <c r="E116" t="s">
         <v>1177</v>
       </c>
-      <c r="F116" s="41">
+      <c r="F116">
         <v>2018</v>
       </c>
-      <c r="G116" s="41"/>
-      <c r="H116" s="41"/>
-      <c r="I116" s="41"/>
-      <c r="J116" s="41" t="s">
+      <c r="J116" t="s">
         <v>1178</v>
       </c>
-      <c r="K116" s="41"/>
-      <c r="L116" s="41"/>
-      <c r="M116" s="41"/>
-      <c r="N116" s="41"/>
-      <c r="O116" s="41"/>
-      <c r="P116" s="41"/>
-      <c r="Q116" s="41"/>
-      <c r="R116" s="41"/>
-      <c r="S116" s="41"/>
-      <c r="T116" s="41"/>
-      <c r="U116" s="41"/>
-      <c r="V116" s="41"/>
-      <c r="W116" s="41"/>
-      <c r="X116" s="41"/>
-      <c r="Y116" s="41" t="s">
+      <c r="Y116" t="s">
         <v>58</v>
       </c>
-      <c r="Z116" s="41" t="s">
+      <c r="Z116" t="s">
         <v>1179</v>
       </c>
-      <c r="AA116" s="41" t="s">
+      <c r="AA116" t="s">
         <v>1169</v>
       </c>
-      <c r="AB116" s="41" t="s">
+      <c r="AB116" t="s">
         <v>91</v>
       </c>
-      <c r="AC116" s="41"/>
-      <c r="AD116" s="41" t="s">
+      <c r="AD116" t="s">
         <v>1079</v>
       </c>
-      <c r="AE116" s="41"/>
-      <c r="AF116" s="41" t="s">
+      <c r="AF116" t="s">
         <v>1180</v>
       </c>
-      <c r="AG116" s="41" t="s">
+      <c r="AG116" t="s">
         <v>66</v>
       </c>
-      <c r="AH116" s="41">
-        <v>0</v>
-      </c>
-      <c r="AI116" s="41" t="s">
+      <c r="AH116">
+        <v>0</v>
+      </c>
+      <c r="AI116" t="s">
         <v>1181</v>
       </c>
     </row>
     <row r="117" spans="1:35">
-      <c r="A117" s="41">
+      <c r="A117">
         <v>150</v>
       </c>
-      <c r="B117" s="41"/>
-      <c r="C117" s="41" t="s">
+      <c r="C117" t="s">
         <v>1182</v>
       </c>
-      <c r="D117" s="41" t="s">
+      <c r="D117" t="s">
         <v>1183</v>
       </c>
-      <c r="E117" s="41" t="s">
+      <c r="E117" t="s">
         <v>1184</v>
       </c>
-      <c r="F117" s="41">
+      <c r="F117">
         <v>2023</v>
       </c>
-      <c r="G117" s="41"/>
-      <c r="H117" s="41"/>
-      <c r="I117" s="41"/>
-      <c r="J117" s="41" t="s">
+      <c r="J117" t="s">
         <v>1185</v>
       </c>
-      <c r="K117" s="41"/>
-      <c r="L117" s="41"/>
-      <c r="M117" s="41"/>
-      <c r="N117" s="41"/>
-      <c r="O117" s="41"/>
-      <c r="P117" s="41"/>
-      <c r="Q117" s="41"/>
-      <c r="R117" s="41"/>
-      <c r="S117" s="41"/>
-      <c r="T117" s="41"/>
-      <c r="U117" s="41"/>
-      <c r="V117" s="41"/>
-      <c r="W117" s="41"/>
-      <c r="X117" s="41"/>
-      <c r="Y117" s="41" t="s">
+      <c r="Y117" t="s">
         <v>58</v>
       </c>
-      <c r="Z117" s="41" t="s">
+      <c r="Z117" t="s">
         <v>1051</v>
       </c>
-      <c r="AA117" s="41" t="s">
+      <c r="AA117" t="s">
         <v>114</v>
       </c>
-      <c r="AB117" s="41" t="s">
+      <c r="AB117" t="s">
         <v>1186</v>
       </c>
-      <c r="AC117" s="41"/>
-      <c r="AD117" s="41" t="s">
+      <c r="AD117" t="s">
         <v>1187</v>
       </c>
-      <c r="AE117" s="41" t="s">
+      <c r="AE117" t="s">
         <v>1188</v>
       </c>
-      <c r="AF117" s="41" t="s">
+      <c r="AF117" t="s">
         <v>1189</v>
       </c>
-      <c r="AG117" s="41" t="s">
+      <c r="AG117" t="s">
         <v>66</v>
       </c>
-      <c r="AH117" s="41">
+      <c r="AH117">
         <v>1</v>
       </c>
-      <c r="AI117" s="41" t="s">
+      <c r="AI117" t="s">
         <v>1190</v>
       </c>
     </row>
     <row r="118" spans="1:35">
-      <c r="A118" s="41">
+      <c r="A118">
         <v>151</v>
       </c>
-      <c r="B118" s="41"/>
-      <c r="C118" s="41" t="s">
+      <c r="C118" t="s">
         <v>1191</v>
       </c>
-      <c r="D118" s="41" t="s">
+      <c r="D118" t="s">
         <v>1192</v>
       </c>
-      <c r="E118" s="41" t="s">
+      <c r="E118" t="s">
         <v>1193</v>
       </c>
-      <c r="F118" s="41">
+      <c r="F118">
         <v>2014</v>
       </c>
-      <c r="G118" s="41"/>
-      <c r="H118" s="41"/>
-      <c r="I118" s="41"/>
-      <c r="J118" s="41" t="s">
+      <c r="J118" t="s">
         <v>1194</v>
       </c>
-      <c r="K118" s="41"/>
-      <c r="L118" s="41"/>
-      <c r="M118" s="41"/>
-      <c r="N118" s="41"/>
-      <c r="O118" s="41"/>
-      <c r="P118" s="41"/>
-      <c r="Q118" s="41"/>
-      <c r="R118" s="41"/>
-      <c r="S118" s="41"/>
-      <c r="T118" s="41"/>
-      <c r="U118" s="41"/>
-      <c r="V118" s="41"/>
-      <c r="W118" s="41"/>
-      <c r="X118" s="41"/>
-      <c r="Y118" s="41" t="s">
+      <c r="Y118" t="s">
         <v>58</v>
       </c>
-      <c r="Z118" s="41" t="s">
+      <c r="Z118" t="s">
         <v>1051</v>
       </c>
-      <c r="AA118" s="41" t="s">
+      <c r="AA118" t="s">
         <v>142</v>
       </c>
-      <c r="AB118" s="41" t="s">
+      <c r="AB118" t="s">
         <v>1324</v>
       </c>
-      <c r="AC118" s="41"/>
-      <c r="AD118" s="41" t="s">
+      <c r="AD118" t="s">
         <v>1052</v>
       </c>
-      <c r="AE118" s="41" t="s">
+      <c r="AE118" t="s">
         <v>1195</v>
       </c>
-      <c r="AF118" s="41" t="s">
+      <c r="AF118" t="s">
         <v>1196</v>
       </c>
-      <c r="AG118" s="41" t="s">
+      <c r="AG118" t="s">
         <v>66</v>
       </c>
-      <c r="AH118" s="41">
-        <v>0</v>
-      </c>
-      <c r="AI118" s="41" t="s">
+      <c r="AH118">
+        <v>0</v>
+      </c>
+      <c r="AI118" t="s">
         <v>1197</v>
       </c>
     </row>
     <row r="119" spans="1:35">
-      <c r="A119" s="41">
+      <c r="A119">
         <v>152</v>
       </c>
-      <c r="B119" s="41"/>
-      <c r="C119" s="41" t="s">
+      <c r="C119" t="s">
         <v>1198</v>
       </c>
-      <c r="D119" s="41" t="s">
+      <c r="D119" t="s">
         <v>1199</v>
       </c>
-      <c r="E119" s="41" t="s">
+      <c r="E119" t="s">
         <v>1200</v>
       </c>
-      <c r="F119" s="41">
+      <c r="F119">
         <v>2015</v>
       </c>
-      <c r="G119" s="41"/>
-      <c r="H119" s="41"/>
-      <c r="I119" s="41"/>
-      <c r="J119" s="41" t="s">
+      <c r="J119" t="s">
         <v>1201</v>
       </c>
-      <c r="K119" s="41"/>
-      <c r="L119" s="41"/>
-      <c r="M119" s="41"/>
-      <c r="N119" s="41"/>
-      <c r="O119" s="41"/>
-      <c r="P119" s="41"/>
-      <c r="Q119" s="41"/>
-      <c r="R119" s="41"/>
-      <c r="S119" s="41"/>
-      <c r="T119" s="41"/>
-      <c r="U119" s="41"/>
-      <c r="V119" s="41"/>
-      <c r="W119" s="41"/>
-      <c r="X119" s="41"/>
-      <c r="Y119" s="41" t="s">
+      <c r="Y119" t="s">
         <v>58</v>
       </c>
-      <c r="Z119" s="41" t="s">
+      <c r="Z119" t="s">
         <v>1051</v>
       </c>
-      <c r="AA119" s="41" t="s">
+      <c r="AA119" t="s">
         <v>408</v>
       </c>
-      <c r="AB119" s="41" t="s">
+      <c r="AB119" t="s">
         <v>207</v>
       </c>
-      <c r="AC119" s="41" t="s">
+      <c r="AC119" t="s">
         <v>1202</v>
       </c>
-      <c r="AD119" s="41" t="s">
+      <c r="AD119" t="s">
         <v>1203</v>
       </c>
-      <c r="AE119" s="41" t="s">
+      <c r="AE119" t="s">
         <v>1204</v>
       </c>
-      <c r="AF119" s="41" t="s">
+      <c r="AF119" t="s">
         <v>1054</v>
       </c>
-      <c r="AG119" s="41" t="s">
+      <c r="AG119" t="s">
         <v>1205</v>
       </c>
-      <c r="AH119" s="41">
+      <c r="AH119">
         <v>0.5</v>
       </c>
-      <c r="AI119" s="41" t="s">
+      <c r="AI119" t="s">
         <v>1206</v>
       </c>
     </row>
     <row r="120" spans="1:35">
-      <c r="A120" s="41">
+      <c r="A120">
         <v>154</v>
       </c>
-      <c r="B120" s="41"/>
-      <c r="C120" s="41" t="s">
+      <c r="C120" t="s">
         <v>1207</v>
       </c>
-      <c r="D120" s="41" t="s">
+      <c r="D120" t="s">
         <v>1208</v>
       </c>
-      <c r="E120" s="41" t="s">
+      <c r="E120" t="s">
         <v>1209</v>
       </c>
-      <c r="F120" s="41">
+      <c r="F120">
         <v>2021</v>
       </c>
-      <c r="G120" s="41"/>
-      <c r="H120" s="41"/>
-      <c r="I120" s="41"/>
-      <c r="J120" s="41" t="s">
+      <c r="J120" t="s">
         <v>1210</v>
       </c>
-      <c r="K120" s="41"/>
-      <c r="L120" s="41"/>
-      <c r="M120" s="41"/>
-      <c r="N120" s="41"/>
-      <c r="O120" s="41"/>
-      <c r="P120" s="41"/>
-      <c r="Q120" s="41"/>
-      <c r="R120" s="41"/>
-      <c r="S120" s="41"/>
-      <c r="T120" s="41"/>
-      <c r="U120" s="41"/>
-      <c r="V120" s="41"/>
-      <c r="W120" s="41"/>
-      <c r="X120" s="41"/>
-      <c r="Y120" s="41" t="s">
+      <c r="Y120" t="s">
         <v>58</v>
       </c>
-      <c r="Z120" s="41" t="s">
+      <c r="Z120" t="s">
         <v>1051</v>
       </c>
-      <c r="AA120" s="41" t="s">
+      <c r="AA120" t="s">
         <v>114</v>
       </c>
-      <c r="AB120" s="41" t="s">
+      <c r="AB120" t="s">
         <v>1211</v>
       </c>
-      <c r="AC120" s="41"/>
-      <c r="AD120" s="41" t="s">
+      <c r="AD120" t="s">
         <v>1212</v>
       </c>
-      <c r="AE120" s="41" t="s">
+      <c r="AE120" t="s">
         <v>1213</v>
       </c>
-      <c r="AF120" s="41" t="s">
+      <c r="AF120" t="s">
         <v>1214</v>
       </c>
-      <c r="AG120" s="41" t="s">
+      <c r="AG120" t="s">
         <v>1215</v>
       </c>
-      <c r="AH120" s="41">
-        <v>0</v>
-      </c>
-      <c r="AI120" s="41" t="s">
+      <c r="AH120">
+        <v>0</v>
+      </c>
+      <c r="AI120" t="s">
         <v>1216</v>
       </c>
     </row>
     <row r="121" spans="1:35">
-      <c r="A121" s="41">
+      <c r="A121">
         <v>155</v>
       </c>
-      <c r="B121" s="41"/>
-      <c r="C121" s="41" t="s">
+      <c r="C121" t="s">
         <v>1217</v>
       </c>
-      <c r="D121" s="41" t="s">
+      <c r="D121" t="s">
         <v>1218</v>
       </c>
-      <c r="E121" s="41" t="s">
+      <c r="E121" t="s">
         <v>1219</v>
       </c>
-      <c r="F121" s="41">
+      <c r="F121">
         <v>2024</v>
       </c>
-      <c r="G121" s="41"/>
-      <c r="H121" s="41"/>
-      <c r="I121" s="41"/>
-      <c r="J121" s="41" t="s">
+      <c r="J121" t="s">
         <v>1220</v>
       </c>
-      <c r="K121" s="41"/>
-      <c r="L121" s="41"/>
-      <c r="M121" s="41"/>
-      <c r="N121" s="41"/>
-      <c r="O121" s="41"/>
-      <c r="P121" s="41"/>
-      <c r="Q121" s="41"/>
-      <c r="R121" s="41"/>
-      <c r="S121" s="41"/>
-      <c r="T121" s="41"/>
-      <c r="U121" s="41"/>
-      <c r="V121" s="41"/>
-      <c r="W121" s="41"/>
-      <c r="X121" s="41"/>
-      <c r="Y121" s="41" t="s">
+      <c r="Y121" t="s">
         <v>58</v>
       </c>
-      <c r="Z121" s="41" t="s">
+      <c r="Z121" t="s">
         <v>1051</v>
       </c>
-      <c r="AA121" s="41" t="s">
+      <c r="AA121" t="s">
         <v>114</v>
       </c>
-      <c r="AB121" s="41" t="s">
+      <c r="AB121" t="s">
         <v>1221</v>
       </c>
-      <c r="AC121" s="41"/>
-      <c r="AD121" s="41" t="s">
+      <c r="AD121" t="s">
         <v>1222</v>
       </c>
-      <c r="AE121" s="41" t="s">
+      <c r="AE121" t="s">
         <v>1223</v>
       </c>
-      <c r="AF121" s="41" t="s">
+      <c r="AF121" t="s">
         <v>1224</v>
       </c>
-      <c r="AG121" s="41" t="s">
+      <c r="AG121" t="s">
         <v>1225</v>
       </c>
-      <c r="AH121" s="41">
-        <v>0</v>
-      </c>
-      <c r="AI121" s="41" t="s">
+      <c r="AH121">
+        <v>0</v>
+      </c>
+      <c r="AI121" t="s">
         <v>1226</v>
       </c>
     </row>
     <row r="122" spans="1:35">
-      <c r="A122" s="41">
+      <c r="A122">
         <v>156</v>
       </c>
-      <c r="B122" s="41"/>
-      <c r="C122" s="41" t="s">
+      <c r="C122" t="s">
         <v>1227</v>
       </c>
-      <c r="D122" s="41" t="s">
+      <c r="D122" t="s">
         <v>1228</v>
       </c>
-      <c r="E122" s="41" t="s">
+      <c r="E122" t="s">
         <v>1229</v>
       </c>
-      <c r="F122" s="41">
+      <c r="F122">
         <v>2022</v>
       </c>
-      <c r="G122" s="41"/>
-      <c r="H122" s="41"/>
-      <c r="I122" s="41"/>
-      <c r="J122" s="41" t="s">
+      <c r="J122" t="s">
         <v>1230</v>
       </c>
-      <c r="K122" s="41"/>
-      <c r="L122" s="41"/>
-      <c r="M122" s="41"/>
-      <c r="N122" s="41"/>
-      <c r="O122" s="41"/>
-      <c r="P122" s="41"/>
-      <c r="Q122" s="41"/>
-      <c r="R122" s="41"/>
-      <c r="S122" s="41"/>
-      <c r="T122" s="41"/>
-      <c r="U122" s="41"/>
-      <c r="V122" s="41"/>
-      <c r="W122" s="41"/>
-      <c r="X122" s="41"/>
-      <c r="Y122" s="41" t="s">
+      <c r="Y122" t="s">
         <v>58</v>
       </c>
-      <c r="Z122" s="41" t="s">
+      <c r="Z122" t="s">
         <v>1051</v>
       </c>
-      <c r="AA122" s="41" t="s">
+      <c r="AA122" t="s">
         <v>1231</v>
       </c>
-      <c r="AB122" s="41" t="s">
+      <c r="AB122" t="s">
         <v>409</v>
       </c>
-      <c r="AC122" s="41"/>
-      <c r="AD122" s="41" t="s">
+      <c r="AD122" t="s">
         <v>1232</v>
       </c>
-      <c r="AE122" s="41" t="s">
+      <c r="AE122" t="s">
         <v>1233</v>
       </c>
-      <c r="AF122" s="41" t="s">
+      <c r="AF122" t="s">
         <v>1180</v>
       </c>
-      <c r="AG122" s="41" t="s">
+      <c r="AG122" t="s">
         <v>1205</v>
       </c>
-      <c r="AH122" s="41">
-        <v>0</v>
-      </c>
-      <c r="AI122" s="41" t="s">
+      <c r="AH122">
+        <v>0</v>
+      </c>
+      <c r="AI122" t="s">
         <v>1234</v>
       </c>
     </row>
     <row r="123" spans="1:35">
-      <c r="A123" s="41">
+      <c r="A123">
         <v>158</v>
       </c>
-      <c r="B123" s="41"/>
-      <c r="C123" s="41" t="s">
+      <c r="C123" t="s">
         <v>1235</v>
       </c>
-      <c r="D123" s="41" t="s">
+      <c r="D123" t="s">
         <v>1236</v>
       </c>
-      <c r="E123" s="41" t="s">
+      <c r="E123" t="s">
         <v>1237</v>
       </c>
-      <c r="F123" s="41">
+      <c r="F123">
         <v>2020</v>
       </c>
-      <c r="G123" s="41"/>
-      <c r="H123" s="41"/>
-      <c r="I123" s="41"/>
-      <c r="J123" s="41" t="s">
+      <c r="J123" t="s">
         <v>1238</v>
       </c>
-      <c r="K123" s="41"/>
-      <c r="L123" s="41"/>
-      <c r="M123" s="41"/>
-      <c r="N123" s="41"/>
-      <c r="O123" s="41"/>
-      <c r="P123" s="41"/>
-      <c r="Q123" s="41"/>
-      <c r="R123" s="41"/>
-      <c r="S123" s="41"/>
-      <c r="T123" s="41"/>
-      <c r="U123" s="41"/>
-      <c r="V123" s="41"/>
-      <c r="W123" s="41"/>
-      <c r="X123" s="41"/>
-      <c r="Y123" s="41" t="s">
+      <c r="Y123" t="s">
         <v>58</v>
       </c>
-      <c r="Z123" s="41" t="s">
+      <c r="Z123" t="s">
         <v>1018</v>
       </c>
-      <c r="AA123" s="41" t="s">
+      <c r="AA123" t="s">
         <v>1368</v>
       </c>
-      <c r="AB123" s="41" t="s">
+      <c r="AB123" t="s">
         <v>1383</v>
       </c>
-      <c r="AC123" s="41" t="s">
+      <c r="AC123" t="s">
         <v>1143</v>
       </c>
-      <c r="AD123" s="41" t="s">
+      <c r="AD123" t="s">
         <v>1239</v>
       </c>
-      <c r="AE123" s="41" t="s">
+      <c r="AE123" t="s">
         <v>1240</v>
       </c>
-      <c r="AF123" s="41"/>
-      <c r="AG123" s="41" t="s">
+      <c r="AG123" t="s">
         <v>1241</v>
       </c>
-      <c r="AH123" s="41">
+      <c r="AH123">
         <v>1</v>
       </c>
-      <c r="AI123" s="41"/>
     </row>
     <row r="124" spans="1:35">
-      <c r="A124" s="41">
+      <c r="A124">
         <v>159</v>
       </c>
-      <c r="B124" s="41"/>
-      <c r="C124" s="41" t="s">
+      <c r="C124" t="s">
         <v>1242</v>
       </c>
-      <c r="D124" s="41" t="s">
+      <c r="D124" t="s">
         <v>459</v>
       </c>
-      <c r="E124" s="41" t="s">
+      <c r="E124" t="s">
         <v>1243</v>
       </c>
-      <c r="F124" s="41">
+      <c r="F124">
         <v>2015</v>
       </c>
-      <c r="G124" s="41"/>
-      <c r="H124" s="41"/>
-      <c r="I124" s="41"/>
-      <c r="J124" s="41" t="s">
+      <c r="J124" t="s">
         <v>1244</v>
       </c>
-      <c r="K124" s="41"/>
-      <c r="L124" s="41"/>
-      <c r="M124" s="41"/>
-      <c r="N124" s="41"/>
-      <c r="O124" s="41"/>
-      <c r="P124" s="41"/>
-      <c r="Q124" s="41"/>
-      <c r="R124" s="41"/>
-      <c r="S124" s="41"/>
-      <c r="T124" s="41"/>
-      <c r="U124" s="41"/>
-      <c r="V124" s="41"/>
-      <c r="W124" s="41"/>
-      <c r="X124" s="41"/>
-      <c r="Y124" s="41" t="s">
+      <c r="Y124" t="s">
         <v>58</v>
       </c>
-      <c r="Z124" s="41" t="s">
+      <c r="Z124" t="s">
         <v>1051</v>
       </c>
-      <c r="AA124" s="41" t="s">
+      <c r="AA124" t="s">
         <v>60</v>
       </c>
-      <c r="AB124" s="41" t="s">
+      <c r="AB124" t="s">
         <v>91</v>
       </c>
-      <c r="AC124" s="41" t="s">
+      <c r="AC124" t="s">
         <v>1202</v>
       </c>
-      <c r="AD124" s="41" t="s">
+      <c r="AD124" t="s">
         <v>1052</v>
       </c>
-      <c r="AE124" s="41" t="s">
+      <c r="AE124" t="s">
         <v>1245</v>
       </c>
-      <c r="AF124" s="41" t="s">
+      <c r="AF124" t="s">
         <v>1180</v>
       </c>
-      <c r="AG124" s="41" t="s">
+      <c r="AG124" t="s">
         <v>66</v>
       </c>
-      <c r="AH124" s="41">
-        <v>0</v>
-      </c>
-      <c r="AI124" s="41"/>
+      <c r="AH124">
+        <v>0</v>
+      </c>
     </row>
     <row r="125" spans="1:35">
-      <c r="A125" s="41">
+      <c r="A125">
         <v>160</v>
       </c>
-      <c r="B125" s="41"/>
-      <c r="C125" s="41" t="s">
+      <c r="C125" t="s">
         <v>1246</v>
       </c>
-      <c r="D125" s="41" t="s">
+      <c r="D125" t="s">
         <v>496</v>
       </c>
-      <c r="E125" s="41" t="s">
+      <c r="E125" t="s">
         <v>1247</v>
       </c>
-      <c r="F125" s="41">
+      <c r="F125">
         <v>2016</v>
       </c>
-      <c r="G125" s="41"/>
-      <c r="H125" s="41"/>
-      <c r="I125" s="41"/>
-      <c r="J125" s="41" t="s">
+      <c r="J125" t="s">
         <v>1248</v>
       </c>
-      <c r="K125" s="41"/>
-      <c r="L125" s="41"/>
-      <c r="M125" s="41"/>
-      <c r="N125" s="41"/>
-      <c r="O125" s="41"/>
-      <c r="P125" s="41"/>
-      <c r="Q125" s="41"/>
-      <c r="R125" s="41"/>
-      <c r="S125" s="41"/>
-      <c r="T125" s="41"/>
-      <c r="U125" s="41"/>
-      <c r="V125" s="41"/>
-      <c r="W125" s="41"/>
-      <c r="X125" s="41"/>
-      <c r="Y125" s="41" t="s">
+      <c r="Y125" t="s">
         <v>58</v>
       </c>
-      <c r="Z125" s="41" t="s">
+      <c r="Z125" t="s">
         <v>1051</v>
       </c>
-      <c r="AA125" s="41" t="s">
+      <c r="AA125" t="s">
         <v>1365</v>
       </c>
-      <c r="AB125" s="41" t="s">
+      <c r="AB125" t="s">
         <v>1389</v>
       </c>
-      <c r="AC125" s="41"/>
-      <c r="AD125" s="41" t="s">
+      <c r="AD125" t="s">
         <v>1052</v>
       </c>
-      <c r="AE125" s="41" t="s">
+      <c r="AE125" t="s">
         <v>1249</v>
       </c>
-      <c r="AF125" s="41"/>
-      <c r="AG125" s="41" t="s">
+      <c r="AG125" t="s">
         <v>66</v>
       </c>
-      <c r="AH125" s="41">
+      <c r="AH125">
         <v>0.5</v>
       </c>
-      <c r="AI125" s="41" t="s">
+      <c r="AI125" t="s">
         <v>1250</v>
       </c>
     </row>
     <row r="126" spans="1:35">
-      <c r="A126" s="41">
+      <c r="A126">
         <v>161</v>
       </c>
-      <c r="B126" s="41"/>
-      <c r="C126" s="41" t="s">
+      <c r="C126" t="s">
         <v>1251</v>
       </c>
-      <c r="D126" s="41" t="s">
+      <c r="D126" t="s">
         <v>459</v>
       </c>
-      <c r="E126" s="41" t="s">
+      <c r="E126" t="s">
         <v>1252</v>
       </c>
-      <c r="F126" s="41">
+      <c r="F126">
         <v>2022</v>
       </c>
-      <c r="G126" s="41"/>
-      <c r="H126" s="41"/>
-      <c r="I126" s="41"/>
-      <c r="J126" s="41" t="s">
+      <c r="J126" t="s">
         <v>1253</v>
       </c>
-      <c r="K126" s="41"/>
-      <c r="L126" s="41"/>
-      <c r="M126" s="41"/>
-      <c r="N126" s="41"/>
-      <c r="O126" s="41"/>
-      <c r="P126" s="41"/>
-      <c r="Q126" s="41"/>
-      <c r="R126" s="41"/>
-      <c r="S126" s="41"/>
-      <c r="T126" s="41"/>
-      <c r="U126" s="41"/>
-      <c r="V126" s="41"/>
-      <c r="W126" s="41"/>
-      <c r="X126" s="41"/>
-      <c r="Y126" s="41" t="s">
+      <c r="Y126" t="s">
         <v>58</v>
       </c>
-      <c r="Z126" s="41" t="s">
+      <c r="Z126" t="s">
         <v>1051</v>
       </c>
-      <c r="AA126" s="41" t="s">
+      <c r="AA126" t="s">
         <v>408</v>
       </c>
-      <c r="AB126" s="41" t="s">
+      <c r="AB126" t="s">
         <v>1254</v>
       </c>
-      <c r="AC126" s="41"/>
-      <c r="AD126" s="41" t="s">
+      <c r="AD126" t="s">
         <v>1052</v>
       </c>
-      <c r="AE126" s="41" t="s">
+      <c r="AE126" t="s">
         <v>1255</v>
       </c>
-      <c r="AF126" s="41" t="s">
+      <c r="AF126" t="s">
         <v>1180</v>
       </c>
-      <c r="AG126" s="41" t="s">
+      <c r="AG126" t="s">
         <v>1256</v>
       </c>
-      <c r="AH126" s="41">
+      <c r="AH126">
         <v>1</v>
       </c>
-      <c r="AI126" s="41" t="s">
+      <c r="AI126" t="s">
         <v>1257</v>
       </c>
     </row>
@@ -29190,7 +27563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1A6ACA0-5BAF-4CF3-A9BA-46A30A6E0A57}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -29405,7 +27778,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A7"/>
+      <selection activeCell="B11" sqref="B10:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -29681,11 +28054,152 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F05C8F-316F-4046-A284-28124FE5A655}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.796875" customWidth="1"/>
+    <col min="3" max="3" width="14.296875" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="20.796875" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>868</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA3DE9A-9DC8-9B4C-920E-613E1AA78E62}">
   <dimension ref="A1:HM126"/>
   <sheetViews>
-    <sheetView topLeftCell="BU16" zoomScale="71" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="CN2" sqref="CN2:CQ16"/>
+    <sheetView topLeftCell="AV1" zoomScale="71" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="BH1" sqref="BH1:BN12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -42235,16 +40749,16 @@
       <c r="Z72" s="26" t="s">
         <v>802</v>
       </c>
-      <c r="AA72" s="39" t="s">
+      <c r="AA72" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="AB72" s="39"/>
-      <c r="AC72" s="39"/>
-      <c r="AD72" s="39"/>
-      <c r="AE72" s="39"/>
-      <c r="AF72" s="39"/>
-      <c r="AG72" s="39"/>
-      <c r="AH72" s="39"/>
+      <c r="AB72" s="43"/>
+      <c r="AC72" s="43"/>
+      <c r="AD72" s="43"/>
+      <c r="AE72" s="43"/>
+      <c r="AF72" s="43"/>
+      <c r="AG72" s="43"/>
+      <c r="AH72" s="43"/>
       <c r="AI72" s="26"/>
       <c r="AJ72" s="25"/>
       <c r="AK72">
@@ -43323,16 +41837,16 @@
       <c r="Z82" s="26" t="s">
         <v>926</v>
       </c>
-      <c r="AA82" s="39" t="s">
+      <c r="AA82" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="AB82" s="39"/>
-      <c r="AC82" s="39"/>
-      <c r="AD82" s="39"/>
-      <c r="AE82" s="39"/>
-      <c r="AF82" s="39"/>
-      <c r="AG82" s="39"/>
-      <c r="AH82" s="39"/>
+      <c r="AB82" s="43"/>
+      <c r="AC82" s="43"/>
+      <c r="AD82" s="43"/>
+      <c r="AE82" s="43"/>
+      <c r="AF82" s="43"/>
+      <c r="AG82" s="43"/>
+      <c r="AH82" s="43"/>
       <c r="AI82" s="26"/>
       <c r="AJ82" s="25"/>
       <c r="AK82">
@@ -43680,16 +42194,16 @@
       <c r="Z86" s="26" t="s">
         <v>954</v>
       </c>
-      <c r="AA86" s="39" t="s">
+      <c r="AA86" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="AB86" s="39"/>
-      <c r="AC86" s="39"/>
-      <c r="AD86" s="39"/>
-      <c r="AE86" s="39"/>
-      <c r="AF86" s="39"/>
-      <c r="AG86" s="39"/>
-      <c r="AH86" s="39"/>
+      <c r="AB86" s="43"/>
+      <c r="AC86" s="43"/>
+      <c r="AD86" s="43"/>
+      <c r="AE86" s="43"/>
+      <c r="AF86" s="43"/>
+      <c r="AG86" s="43"/>
+      <c r="AH86" s="43"/>
       <c r="AI86" s="26"/>
       <c r="AJ86" s="25"/>
       <c r="AK86">
@@ -43750,16 +42264,16 @@
       <c r="Z87" s="26" t="s">
         <v>802</v>
       </c>
-      <c r="AA87" s="39" t="s">
+      <c r="AA87" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="AB87" s="39"/>
-      <c r="AC87" s="39"/>
-      <c r="AD87" s="39"/>
-      <c r="AE87" s="39"/>
-      <c r="AF87" s="39"/>
-      <c r="AG87" s="39"/>
-      <c r="AH87" s="39"/>
+      <c r="AB87" s="43"/>
+      <c r="AC87" s="43"/>
+      <c r="AD87" s="43"/>
+      <c r="AE87" s="43"/>
+      <c r="AF87" s="43"/>
+      <c r="AG87" s="43"/>
+      <c r="AH87" s="43"/>
       <c r="AI87" s="26"/>
       <c r="AJ87" s="25"/>
       <c r="AK87">
@@ -43820,16 +42334,16 @@
       <c r="Z88" s="26" t="s">
         <v>926</v>
       </c>
-      <c r="AA88" s="39" t="s">
+      <c r="AA88" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="AB88" s="39"/>
-      <c r="AC88" s="39"/>
-      <c r="AD88" s="39"/>
-      <c r="AE88" s="39"/>
-      <c r="AF88" s="39"/>
-      <c r="AG88" s="39"/>
-      <c r="AH88" s="39"/>
+      <c r="AB88" s="43"/>
+      <c r="AC88" s="43"/>
+      <c r="AD88" s="43"/>
+      <c r="AE88" s="43"/>
+      <c r="AF88" s="43"/>
+      <c r="AG88" s="43"/>
+      <c r="AH88" s="43"/>
       <c r="AI88" s="26"/>
       <c r="AJ88" s="25"/>
       <c r="AK88">
@@ -44228,16 +42742,16 @@
       <c r="Z93" s="26" t="s">
         <v>998</v>
       </c>
-      <c r="AA93" s="39" t="s">
+      <c r="AA93" s="43" t="s">
         <v>999</v>
       </c>
-      <c r="AB93" s="39"/>
-      <c r="AC93" s="39"/>
-      <c r="AD93" s="39"/>
-      <c r="AE93" s="39"/>
-      <c r="AF93" s="39"/>
-      <c r="AG93" s="39"/>
-      <c r="AH93" s="39"/>
+      <c r="AB93" s="43"/>
+      <c r="AC93" s="43"/>
+      <c r="AD93" s="43"/>
+      <c r="AE93" s="43"/>
+      <c r="AF93" s="43"/>
+      <c r="AG93" s="43"/>
+      <c r="AH93" s="43"/>
       <c r="AI93" s="26"/>
       <c r="AJ93" s="25"/>
       <c r="AK93">
@@ -44382,16 +42896,16 @@
       <c r="Z95" s="26" t="s">
         <v>1013</v>
       </c>
-      <c r="AA95" s="39" t="s">
+      <c r="AA95" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="AB95" s="39"/>
-      <c r="AC95" s="39"/>
-      <c r="AD95" s="39"/>
-      <c r="AE95" s="39"/>
-      <c r="AF95" s="39"/>
-      <c r="AG95" s="39"/>
-      <c r="AH95" s="39"/>
+      <c r="AB95" s="43"/>
+      <c r="AC95" s="43"/>
+      <c r="AD95" s="43"/>
+      <c r="AE95" s="43"/>
+      <c r="AF95" s="43"/>
+      <c r="AG95" s="43"/>
+      <c r="AH95" s="43"/>
       <c r="AI95" s="26"/>
       <c r="AJ95" s="25"/>
       <c r="AK95">

--- a/Analysis_and_Visualization/data/data.xlsx
+++ b/Analysis_and_Visualization/data/data.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\research\2026-SLR-regression-testing-optimization\Analysis_and_Visualization\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7345AA4-5788-4944-989D-FB8E23EB7D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED3C1B6-BEB9-4651-AB7D-64CFD72E2A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="2" activeTab="4" xr2:uid="{FF880EED-EA60-9E49-B15D-179496B980D1}"/>
+    <workbookView xWindow="-23148" yWindow="1344" windowWidth="23256" windowHeight="13896" firstSheet="4" activeTab="6" xr2:uid="{FF880EED-EA60-9E49-B15D-179496B980D1}"/>
   </bookViews>
   <sheets>
     <sheet name="data_extraction" sheetId="2" r:id="rId1"/>
-    <sheet name="RQ1_trends_by_category_per_year" sheetId="3" r:id="rId2"/>
-    <sheet name="RQ1_replicability_per_year" sheetId="5" r:id="rId3"/>
-    <sheet name="p_taxonomy_vs_algorithm" sheetId="4" r:id="rId4"/>
-    <sheet name="s_taxonomy_vs_algorithm" sheetId="6" r:id="rId5"/>
-    <sheet name="raw_data" sheetId="1" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId2"/>
+    <sheet name="RQ1_trends_by_category_per_year" sheetId="3" r:id="rId3"/>
+    <sheet name="RQ1_replicability_per_year" sheetId="5" r:id="rId4"/>
+    <sheet name="RQ2_p_taxonomy_vs_algorithm" sheetId="4" r:id="rId5"/>
+    <sheet name="RQ2_s_taxonomy_vs_algorithm" sheetId="6" r:id="rId6"/>
+    <sheet name="RQ3_datasets" sheetId="8" r:id="rId7"/>
+    <sheet name="raw_data" sheetId="1" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -63,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4013" uniqueCount="1414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4036" uniqueCount="1419">
   <si>
     <t>ID</t>
   </si>
@@ -4516,6 +4518,21 @@
   </si>
   <si>
     <t>Full Replication</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>Industrial/Proprietary</t>
+  </si>
+  <si>
+    <t>Apache Projects</t>
   </si>
 </sst>
 </file>
@@ -19598,6 +19615,18 @@
 </table>
 </file>
 
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{60427D65-C1BB-4033-B0DD-E94497FE33A0}" name="Table6" displayName="Table6" ref="A1:C11" totalsRowShown="0">
+  <autoFilter ref="A1:C11" xr:uid="{60427D65-C1BB-4033-B0DD-E94497FE33A0}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{753159F4-E1F4-4C7F-B96C-8F83BFFE0C97}" name="Category"/>
+    <tableColumn id="2" xr3:uid="{0FC65BCC-69FC-4BB2-9DAB-17504311DCEC}" name="Dataset"/>
+    <tableColumn id="3" xr3:uid="{CA0BB715-AB2B-45E1-BD50-EC4A32F5B80B}" name="Count"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -19917,8 +19946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B91C968-CFFD-1A41-862E-46C430B19788}">
   <dimension ref="A1:AI126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B34"/>
+    <sheetView topLeftCell="O30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD69" sqref="AD69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -27279,6 +27308,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3303011-4926-48DA-9FA6-CCECBB8AE073}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1390148-23A2-4193-A1D6-FE2CB6ADD788}">
   <dimension ref="A1:E15"/>
   <sheetViews>
@@ -27559,7 +27600,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1A6ACA0-5BAF-4CF3-A9BA-46A30A6E0A57}">
   <dimension ref="A1:D14"/>
   <sheetViews>
@@ -27773,7 +27814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86AC6C15-2C38-4F0A-BF61-EE73FED61ED7}">
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -28053,11 +28094,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F05C8F-316F-4046-A284-28124FE5A655}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5:G5"/>
     </sheetView>
   </sheetViews>
@@ -28194,12 +28235,157 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81EB23CA-A17F-4A62-9AC4-DA1175EB60E4}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="1" width="10.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1" s="37"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA3DE9A-9DC8-9B4C-920E-613E1AA78E62}">
   <dimension ref="A1:HM126"/>
   <sheetViews>
-    <sheetView topLeftCell="AV1" zoomScale="71" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="BH1" sqref="BH1:BN12"/>
+    <sheetView topLeftCell="AD1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AF4" sqref="AF4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
